--- a/data/postprocessed/postprocessed_jaffe2_preAlexander.xlsx
+++ b/data/postprocessed/postprocessed_jaffe2_preAlexander.xlsx
@@ -529,8 +529,10 @@
           <t>Laterani</t>
         </is>
       </c>
-      <c r="D4" t="n">
-        <v>8434</v>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8434</t>
+        </is>
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
@@ -1273,7 +1275,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>8484 (600a</t>
+          <t>8484 (600</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1839,7 +1841,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>1144 rebrv. 2.</t>
+          <t>1144 Febr. 2.</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1871,7 +1873,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>1144 rebrv. 2.</t>
+          <t>1144 Febr. 2.</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -4337,7 +4339,7 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>8580 (6112a</t>
+          <t>8580 (6112</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
@@ -4647,7 +4649,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>1144 Rai. 1.</t>
+          <t>1144 Mai. 1.</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -4679,7 +4681,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>1144 Rai. 1.</t>
+          <t>1144 Mai. 1.</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -4707,7 +4709,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>1144 Rai. 4.</t>
+          <t>1144 Mai. 4.</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -4739,7 +4741,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>1144 Rai. 4.</t>
+          <t>1144 Mai. 4.</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -4771,7 +4773,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>1144 Rai. 4.</t>
+          <t>1144 Mai. 4.</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -4803,7 +4805,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>1144 Rai. 4.</t>
+          <t>1144 Mai. 4.</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -4835,7 +4837,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>1144 Rai. 10.</t>
+          <t>1144 Mai. 10.</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -4867,7 +4869,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>1144 Rai. 10.</t>
+          <t>1144 Mai. 10.</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -4899,7 +4901,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>1144 Rai. 10.</t>
+          <t>1144 Mai. 10.</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -4931,7 +4933,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>1144 Rai. 10.</t>
+          <t>1144 Mai. 10.</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -4959,7 +4961,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>1144 Rai. 11.</t>
+          <t>1144 Mai. 11.</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -5065,7 +5067,7 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>„ 8608</t>
+          <t xml:space="preserve"> 8608</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
@@ -5627,7 +5629,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>1144 lun. 1.</t>
+          <t>1144 Iun. 1.</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -5659,7 +5661,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>1144 lun. 8.</t>
+          <t>1144 Iun. 8.</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -5907,7 +5909,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>1144 lul. 6.</t>
+          <t>1144 Iul. 6.</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -6749,7 +6751,7 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>8672 (6103a</t>
+          <t>8672 (6103</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
@@ -7611,7 +7613,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>1145 Lan. 1.</t>
+          <t>1145 Ian. 1.</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -7643,7 +7645,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>1145 Lan. 9.</t>
+          <t>1145 Ian. 9.</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -7675,7 +7677,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>1145 Lan. 11.</t>
+          <t>1145 Ian. 11.</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -7707,7 +7709,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>1145 Lan. 11.</t>
+          <t>1145 Ian. 11.</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -7739,7 +7741,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>1145 Lan. 11.</t>
+          <t>1145 Ian. 11.</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -7771,7 +7773,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>1145 Lan. 16.</t>
+          <t>1145 Ian. 16.</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -7803,7 +7805,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>1145 Lan. 16.</t>
+          <t>1145 Ian. 16.</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -7835,7 +7837,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>1145 Lan. 19.</t>
+          <t>1145 Ian. 19.</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -7867,7 +7869,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>1145 Lan. 20.</t>
+          <t>1145 Ian. 20.</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -7899,7 +7901,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>1145 Lan. 23.</t>
+          <t>1145 Ian. 23.</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -7931,7 +7933,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>1145 Lan. 31.</t>
+          <t>1145 Ian. 31.</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -7963,7 +7965,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>1145 Lan. 31.</t>
+          <t>1145 Ian. 31.</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -7995,7 +7997,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>171 Lan. 14.</t>
+          <t>171 Ian. 14.</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -8027,7 +8029,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>171 Lan. 14.</t>
+          <t>171 Ian. 14.</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -8297,7 +8299,7 @@
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>„ 8719 (6184)</t>
+          <t xml:space="preserve"> 8719 (6184)</t>
         </is>
       </c>
       <c r="E251" t="inlineStr">
@@ -8361,7 +8363,7 @@
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>p 8721</t>
+          <t xml:space="preserve"> 8721</t>
         </is>
       </c>
       <c r="E253" t="inlineStr">
@@ -9235,7 +9237,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>1145 Nai. 30.</t>
+          <t>1145 Mai. 30.</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
@@ -9267,7 +9269,7 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>1145 Nai. 30.</t>
+          <t>1145 Mai. 30.</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
@@ -9299,7 +9301,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>1145 Nai. 8.</t>
+          <t>1145 Mai. 8.</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
@@ -9331,7 +9333,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>1145 Nai. 8.</t>
+          <t>1145 Mai. 8.</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
@@ -9939,7 +9941,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>1145 Lan. 28.</t>
+          <t>1145 Ian. 28.</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
@@ -11829,7 +11831,7 @@
       </c>
       <c r="D362" t="inlineStr">
         <is>
-          <t>s834 (6195)</t>
+          <t>834 (6195)</t>
         </is>
       </c>
       <c r="E362" t="inlineStr">
@@ -11851,7 +11853,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>1146 lan. 2.</t>
+          <t>1146 Ian. 2.</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
@@ -11883,7 +11885,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>1146 lan. 3.</t>
+          <t>1146 Ian. 3.</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
@@ -11915,7 +11917,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>1146 lan. 1.</t>
+          <t>1146 Ian. 1.</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
@@ -11947,7 +11949,7 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>1146 lan. 7.</t>
+          <t>1146 Ian. 7.</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
@@ -11979,7 +11981,7 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>1146 lan. 8.</t>
+          <t>1146 Ian. 8.</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
@@ -12011,7 +12013,7 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>1146 lan. 9.</t>
+          <t>1146 Ian. 9.</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
@@ -12043,7 +12045,7 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>1146 lan. 10.</t>
+          <t>1146 Ian. 10.</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
@@ -12075,7 +12077,7 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>1146 lan. 12.</t>
+          <t>1146 Ian. 12.</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
@@ -12107,7 +12109,7 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>1146 lan. 15.</t>
+          <t>1146 Ian. 15.</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
@@ -12139,7 +12141,7 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>1146 lan. 16.</t>
+          <t>1146 Ian. 16.</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
@@ -12171,7 +12173,7 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>1146 lan. 17.</t>
+          <t>1146 Ian. 17.</t>
         </is>
       </c>
       <c r="C373" t="inlineStr">
@@ -12203,7 +12205,7 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>1146 lan. 19.</t>
+          <t>1146 Ian. 19.</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
@@ -12235,7 +12237,7 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>1146 lan. 19.</t>
+          <t>1146 Ian. 19.</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
@@ -12267,7 +12269,7 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>1146 lan. 21.</t>
+          <t>1146 Ian. 21.</t>
         </is>
       </c>
       <c r="C376" t="inlineStr">
@@ -12299,7 +12301,7 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>1146 lan. 21.</t>
+          <t>1146 Ian. 21.</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
@@ -12331,7 +12333,7 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>1146 lan. 29.</t>
+          <t>1146 Ian. 29.</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
@@ -12363,7 +12365,7 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>1146 lan. 30.</t>
+          <t>1146 Ian. 30.</t>
         </is>
       </c>
       <c r="C379" t="inlineStr">
@@ -12395,7 +12397,7 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>854 lan. 5.</t>
+          <t>854 Ian. 5.</t>
         </is>
       </c>
       <c r="C380" t="inlineStr">
@@ -12427,7 +12429,7 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>854 lan. 9.</t>
+          <t>854 Ian. 9.</t>
         </is>
       </c>
       <c r="C381" t="inlineStr">
@@ -12459,7 +12461,7 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>854 lan. 11.</t>
+          <t>854 Ian. 11.</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
@@ -12501,7 +12503,7 @@
       </c>
       <c r="D383" t="inlineStr">
         <is>
-          <t>p 8858</t>
+          <t xml:space="preserve"> 8858</t>
         </is>
       </c>
       <c r="E383" t="inlineStr">
@@ -14401,7 +14403,7 @@
       </c>
       <c r="D443" t="inlineStr">
         <is>
-          <t>. 1146.</t>
+          <t xml:space="preserve"> 1146</t>
         </is>
       </c>
       <c r="E443" t="inlineStr">
@@ -14615,7 +14617,7 @@
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>1146 lan. 2.</t>
+          <t>1146 Ian. 2.</t>
         </is>
       </c>
       <c r="C450" t="inlineStr">
@@ -14647,7 +14649,7 @@
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>1146 lan. 6.</t>
+          <t>1146 Ian. 6.</t>
         </is>
       </c>
       <c r="C451" t="inlineStr">
@@ -14679,7 +14681,7 @@
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>1146 lan. 12.</t>
+          <t>1146 Ian. 12.</t>
         </is>
       </c>
       <c r="C452" t="inlineStr">
@@ -14711,7 +14713,7 @@
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>1146 lan. 14.</t>
+          <t>1146 Ian. 14.</t>
         </is>
       </c>
       <c r="C453" t="inlineStr">
@@ -14743,7 +14745,7 @@
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>1146 lan. 14.</t>
+          <t>1146 Ian. 14.</t>
         </is>
       </c>
       <c r="C454" t="inlineStr">
@@ -14775,7 +14777,7 @@
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>1146 lan. 14.</t>
+          <t>1146 Ian. 14.</t>
         </is>
       </c>
       <c r="C455" t="inlineStr">
@@ -15485,7 +15487,7 @@
       </c>
       <c r="D477" t="inlineStr">
         <is>
-          <t>8958 (6261a</t>
+          <t>8958 (6261</t>
         </is>
       </c>
       <c r="E477" t="inlineStr">
@@ -16769,7 +16771,7 @@
       </c>
       <c r="D518" t="inlineStr">
         <is>
-          <t>8998 (6285a</t>
+          <t>8998 (6285</t>
         </is>
       </c>
       <c r="E518" t="inlineStr">
@@ -16847,7 +16849,7 @@
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>1147 lan. 7.</t>
+          <t>1147 Ian. 7.</t>
         </is>
       </c>
       <c r="C521" t="inlineStr">
@@ -16879,7 +16881,7 @@
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>1147 lan. 7.</t>
+          <t>1147 Ian. 7.</t>
         </is>
       </c>
       <c r="C522" t="inlineStr">
@@ -16911,7 +16913,7 @@
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t>1147 lan. 7.</t>
+          <t>1147 Ian. 7.</t>
         </is>
       </c>
       <c r="C523" t="inlineStr">
@@ -16975,7 +16977,7 @@
       </c>
       <c r="B525" t="inlineStr">
         <is>
-          <t>1147 lan. 11.</t>
+          <t>1147 Ian. 11.</t>
         </is>
       </c>
       <c r="C525" t="inlineStr">
@@ -17113,7 +17115,7 @@
       </c>
       <c r="D529" t="inlineStr">
         <is>
-          <t>9009.</t>
+          <t>9009</t>
         </is>
       </c>
       <c r="E529" t="inlineStr">
@@ -19361,7 +19363,7 @@
       </c>
       <c r="D601" t="inlineStr">
         <is>
-          <t>9072 (6321a</t>
+          <t>9072 (6321</t>
         </is>
       </c>
       <c r="E601" t="inlineStr">
@@ -19393,7 +19395,7 @@
       </c>
       <c r="D602" t="inlineStr">
         <is>
-          <t>9073 (6521“</t>
+          <t>9073 (6521</t>
         </is>
       </c>
       <c r="E602" t="inlineStr">
@@ -19415,7 +19417,7 @@
       </c>
       <c r="B603" t="inlineStr">
         <is>
-          <t>1147 Lun. 5.</t>
+          <t>1147 Iun. 5.</t>
         </is>
       </c>
       <c r="C603" t="inlineStr">
@@ -19447,7 +19449,7 @@
       </c>
       <c r="B604" t="inlineStr">
         <is>
-          <t>1147 Lun. 5.</t>
+          <t>1147 Iun. 5.</t>
         </is>
       </c>
       <c r="C604" t="inlineStr">
@@ -19479,7 +19481,7 @@
       </c>
       <c r="B605" t="inlineStr">
         <is>
-          <t>1147 Lun. 7.</t>
+          <t>1147 Iun. 7.</t>
         </is>
       </c>
       <c r="C605" t="inlineStr">
@@ -19571,7 +19573,7 @@
       </c>
       <c r="B608" t="inlineStr">
         <is>
-          <t>1147 Arr. 11.</t>
+          <t>1147 Apr. 11.</t>
         </is>
       </c>
       <c r="C608" t="inlineStr">
@@ -19595,7 +19597,7 @@
       </c>
       <c r="B609" t="inlineStr">
         <is>
-          <t>1147 Arr. 12.</t>
+          <t>1147 Apr. 12.</t>
         </is>
       </c>
       <c r="C609" t="inlineStr">
@@ -19619,7 +19621,7 @@
       </c>
       <c r="B610" t="inlineStr">
         <is>
-          <t>1147 Arr. 13.</t>
+          <t>1147 Apr. 13.</t>
         </is>
       </c>
       <c r="C610" t="inlineStr">
@@ -19651,7 +19653,7 @@
       </c>
       <c r="B611" t="inlineStr">
         <is>
-          <t>1147 Arr. 14.</t>
+          <t>1147 Apr. 14.</t>
         </is>
       </c>
       <c r="C611" t="inlineStr">
@@ -19683,7 +19685,7 @@
       </c>
       <c r="B612" t="inlineStr">
         <is>
-          <t>1147 Arr. 14.</t>
+          <t>1147 Apr. 14.</t>
         </is>
       </c>
       <c r="C612" t="inlineStr">
@@ -19715,7 +19717,7 @@
       </c>
       <c r="B613" t="inlineStr">
         <is>
-          <t>1147 Arr. 17.</t>
+          <t>1147 Apr. 17.</t>
         </is>
       </c>
       <c r="C613" t="inlineStr">
@@ -19747,7 +19749,7 @@
       </c>
       <c r="B614" t="inlineStr">
         <is>
-          <t>1147 Arr. 15.</t>
+          <t>1147 Apr. 15.</t>
         </is>
       </c>
       <c r="C614" t="inlineStr">
@@ -19905,7 +19907,7 @@
       </c>
       <c r="D619" t="inlineStr">
         <is>
-          <t>9086 (6376a</t>
+          <t>9086 (6376</t>
         </is>
       </c>
       <c r="E619" t="inlineStr">
@@ -19927,7 +19929,7 @@
       </c>
       <c r="B620" t="inlineStr">
         <is>
-          <t>1147 lun. 21.</t>
+          <t>1147 Iun. 21.</t>
         </is>
       </c>
       <c r="C620" t="inlineStr">
@@ -19959,7 +19961,7 @@
       </c>
       <c r="B621" t="inlineStr">
         <is>
-          <t>1147 lun. 26.</t>
+          <t>1147 Iun. 26.</t>
         </is>
       </c>
       <c r="C621" t="inlineStr">
@@ -19991,7 +19993,7 @@
       </c>
       <c r="B622" t="inlineStr">
         <is>
-          <t>1147 lun. 26.</t>
+          <t>1147 Iun. 26.</t>
         </is>
       </c>
       <c r="C622" t="inlineStr">
@@ -20023,7 +20025,7 @@
       </c>
       <c r="B623" t="inlineStr">
         <is>
-          <t>1147 lun. 29.</t>
+          <t>1147 Iun. 29.</t>
         </is>
       </c>
       <c r="C623" t="inlineStr">
@@ -20055,7 +20057,7 @@
       </c>
       <c r="B624" t="inlineStr">
         <is>
-          <t>1147 lun. 30.</t>
+          <t>1147 Iun. 30.</t>
         </is>
       </c>
       <c r="C624" t="inlineStr">
@@ -20087,7 +20089,7 @@
       </c>
       <c r="B625" t="inlineStr">
         <is>
-          <t>1147 lun. 30.</t>
+          <t>1147 Iun. 30.</t>
         </is>
       </c>
       <c r="C625" t="inlineStr">
@@ -21351,7 +21353,7 @@
       </c>
       <c r="B665" t="inlineStr">
         <is>
-          <t xml:space="preserve">1147 Septeanr.  </t>
+          <t xml:space="preserve">1147 Sept.  </t>
         </is>
       </c>
       <c r="C665" t="inlineStr">
@@ -21667,7 +21669,7 @@
       </c>
       <c r="B675" t="inlineStr">
         <is>
-          <t xml:space="preserve">140 lulOct.  </t>
+          <t xml:space="preserve">140 Oct.  </t>
         </is>
       </c>
       <c r="C675" t="inlineStr">
@@ -21677,7 +21679,7 @@
       </c>
       <c r="D675" t="inlineStr">
         <is>
-          <t>9143a</t>
+          <t>9143</t>
         </is>
       </c>
       <c r="E675" t="inlineStr">
@@ -22947,7 +22949,7 @@
       </c>
       <c r="B720" t="inlineStr">
         <is>
-          <t>1148 Lan. 13.</t>
+          <t>1148 Ian. 13.</t>
         </is>
       </c>
       <c r="C720" t="inlineStr">
@@ -22975,7 +22977,7 @@
       </c>
       <c r="B721" t="inlineStr">
         <is>
-          <t>1148 Lan. 20.</t>
+          <t>1148 Ian. 20.</t>
         </is>
       </c>
       <c r="C721" t="inlineStr">
@@ -23007,7 +23009,7 @@
       </c>
       <c r="B722" t="inlineStr">
         <is>
-          <t>1148 Lan. 20.</t>
+          <t>1148 Ian. 20.</t>
         </is>
       </c>
       <c r="C722" t="inlineStr">
@@ -23039,7 +23041,7 @@
       </c>
       <c r="B723" t="inlineStr">
         <is>
-          <t>1148 Lan. 20.</t>
+          <t>1148 Ian. 20.</t>
         </is>
       </c>
       <c r="C723" t="inlineStr">
@@ -23071,7 +23073,7 @@
       </c>
       <c r="B724" t="inlineStr">
         <is>
-          <t>1148 Lan. 27.</t>
+          <t>1148 Ian. 27.</t>
         </is>
       </c>
       <c r="C724" t="inlineStr">
@@ -23103,7 +23105,7 @@
       </c>
       <c r="B725" t="inlineStr">
         <is>
-          <t>1148 Lan. 28.</t>
+          <t>1148 Ian. 28.</t>
         </is>
       </c>
       <c r="C725" t="inlineStr">
@@ -23135,7 +23137,7 @@
       </c>
       <c r="B726" t="inlineStr">
         <is>
-          <t>1148 Lan. 28.</t>
+          <t>1148 Ian. 28.</t>
         </is>
       </c>
       <c r="C726" t="inlineStr">
@@ -23167,7 +23169,7 @@
       </c>
       <c r="B727" t="inlineStr">
         <is>
-          <t>1148 Lan. 28.</t>
+          <t>1148 Ian. 28.</t>
         </is>
       </c>
       <c r="C727" t="inlineStr">
@@ -23199,7 +23201,7 @@
       </c>
       <c r="B728" t="inlineStr">
         <is>
-          <t>1148 Lan. 31.</t>
+          <t>1148 Ian. 31.</t>
         </is>
       </c>
       <c r="C728" t="inlineStr">
@@ -23425,7 +23427,7 @@
       </c>
       <c r="D735" t="inlineStr">
         <is>
-          <t>„ 9187 (6386)</t>
+          <t xml:space="preserve"> 9187 (6386)</t>
         </is>
       </c>
       <c r="E735" t="inlineStr">
@@ -25651,7 +25653,7 @@
       </c>
       <c r="B806" t="inlineStr">
         <is>
-          <t>1148 lul. 7.</t>
+          <t>1148 Iul. 7.</t>
         </is>
       </c>
       <c r="C806" t="inlineStr">
@@ -25715,7 +25717,7 @@
       </c>
       <c r="B808" t="inlineStr">
         <is>
-          <t>1148 lul. 7.</t>
+          <t>1148 Iul. 7.</t>
         </is>
       </c>
       <c r="C808" t="inlineStr">
@@ -25747,7 +25749,7 @@
       </c>
       <c r="B809" t="inlineStr">
         <is>
-          <t>1148 lul. 7.</t>
+          <t>1148 Iul. 7.</t>
         </is>
       </c>
       <c r="C809" t="inlineStr">
@@ -25807,7 +25809,7 @@
       </c>
       <c r="B811" t="inlineStr">
         <is>
-          <t>1148 lul. 9.</t>
+          <t>1148 Iul. 9.</t>
         </is>
       </c>
       <c r="C811" t="inlineStr">
@@ -25831,7 +25833,7 @@
       </c>
       <c r="B812" t="inlineStr">
         <is>
-          <t>1148 lul. 15.</t>
+          <t>1148 Iul. 15.</t>
         </is>
       </c>
       <c r="C812" t="inlineStr">
@@ -25863,7 +25865,7 @@
       </c>
       <c r="B813" t="inlineStr">
         <is>
-          <t>1148 lul. 16.</t>
+          <t>1148 Iul. 16.</t>
         </is>
       </c>
       <c r="C813" t="inlineStr">
@@ -25895,7 +25897,7 @@
       </c>
       <c r="B814" t="inlineStr">
         <is>
-          <t>1148 lul. 21.</t>
+          <t>1148 Iul. 21.</t>
         </is>
       </c>
       <c r="C814" t="inlineStr">
@@ -25927,7 +25929,7 @@
       </c>
       <c r="B815" t="inlineStr">
         <is>
-          <t>1148 lul. 22.</t>
+          <t>1148 Iul. 22.</t>
         </is>
       </c>
       <c r="C815" t="inlineStr">
@@ -25959,7 +25961,7 @@
       </c>
       <c r="B816" t="inlineStr">
         <is>
-          <t>1148 lul. 22.</t>
+          <t>1148 Iul. 22.</t>
         </is>
       </c>
       <c r="C816" t="inlineStr">
@@ -25991,7 +25993,7 @@
       </c>
       <c r="B817" t="inlineStr">
         <is>
-          <t>1148 lul. 29.</t>
+          <t>1148 Iul. 29.</t>
         </is>
       </c>
       <c r="C817" t="inlineStr">
@@ -26899,7 +26901,7 @@
       </c>
       <c r="B847" t="inlineStr">
         <is>
-          <t>1148 Bec. 90.</t>
+          <t>1148 Dec. 90.</t>
         </is>
       </c>
       <c r="C847" t="inlineStr">
@@ -27115,7 +27117,7 @@
       </c>
       <c r="B854" t="inlineStr">
         <is>
-          <t>1149 Lan. 1.</t>
+          <t>1149 Ian. 1.</t>
         </is>
       </c>
       <c r="C854" t="inlineStr">
@@ -27147,7 +27149,7 @@
       </c>
       <c r="B855" t="inlineStr">
         <is>
-          <t>1149 Lan. 2.</t>
+          <t>1149 Ian. 2.</t>
         </is>
       </c>
       <c r="C855" t="inlineStr">
@@ -27179,7 +27181,7 @@
       </c>
       <c r="B856" t="inlineStr">
         <is>
-          <t>1149 Lan. 15.</t>
+          <t>1149 Ian. 15.</t>
         </is>
       </c>
       <c r="C856" t="inlineStr">
@@ -27211,7 +27213,7 @@
       </c>
       <c r="B857" t="inlineStr">
         <is>
-          <t>1149 Lan. 18.</t>
+          <t>1149 Ian. 18.</t>
         </is>
       </c>
       <c r="C857" t="inlineStr">
@@ -27243,7 +27245,7 @@
       </c>
       <c r="B858" t="inlineStr">
         <is>
-          <t>1149 Lan. 28.</t>
+          <t>1149 Ian. 28.</t>
         </is>
       </c>
       <c r="C858" t="inlineStr">
@@ -27253,7 +27255,7 @@
       </c>
       <c r="D858" t="inlineStr">
         <is>
-          <t>f9320</t>
+          <t>9320</t>
         </is>
       </c>
       <c r="E858" t="inlineStr">
@@ -27275,7 +27277,7 @@
       </c>
       <c r="B859" t="inlineStr">
         <is>
-          <t>1149 Lan. 31.</t>
+          <t>1149 Ian. 31.</t>
         </is>
       </c>
       <c r="C859" t="inlineStr">
@@ -27637,7 +27639,7 @@
       </c>
       <c r="D870" t="inlineStr">
         <is>
-          <t>p9332 (6480)</t>
+          <t>9332 (6480)</t>
         </is>
       </c>
       <c r="E870" t="inlineStr">
@@ -27861,7 +27863,7 @@
       </c>
       <c r="D877" t="inlineStr">
         <is>
-          <t>9339 (6483a</t>
+          <t>9339 (6483</t>
         </is>
       </c>
       <c r="E877" t="inlineStr">
@@ -27979,7 +27981,7 @@
       </c>
       <c r="B881" t="inlineStr">
         <is>
-          <t>1149 Lan. 14.</t>
+          <t>1149 Ian. 14.</t>
         </is>
       </c>
       <c r="C881" t="inlineStr">
@@ -28011,7 +28013,7 @@
       </c>
       <c r="B882" t="inlineStr">
         <is>
-          <t>1149 Lan. 23.</t>
+          <t>1149 Ian. 23.</t>
         </is>
       </c>
       <c r="C882" t="inlineStr">
@@ -28803,7 +28805,7 @@
       </c>
       <c r="B907" t="inlineStr">
         <is>
-          <t>1150 lan. 23.</t>
+          <t>1150 Ian. 23.</t>
         </is>
       </c>
       <c r="C907" t="inlineStr">
@@ -28835,7 +28837,7 @@
       </c>
       <c r="B908" t="inlineStr">
         <is>
-          <t>1150 lan. 30.</t>
+          <t>1150 Ian. 30.</t>
         </is>
       </c>
       <c r="C908" t="inlineStr">
@@ -29535,7 +29537,7 @@
       </c>
       <c r="B930" t="inlineStr">
         <is>
-          <t>1150 lun. 5.</t>
+          <t>1150 Iun. 5.</t>
         </is>
       </c>
       <c r="C930" t="inlineStr">
@@ -29567,7 +29569,7 @@
       </c>
       <c r="B931" t="inlineStr">
         <is>
-          <t>1150 lun. 10.</t>
+          <t>1150 Iun. 10.</t>
         </is>
       </c>
       <c r="C931" t="inlineStr">
@@ -29599,7 +29601,7 @@
       </c>
       <c r="B932" t="inlineStr">
         <is>
-          <t>1150 lun. 12.</t>
+          <t>1150 Iun. 12.</t>
         </is>
       </c>
       <c r="C932" t="inlineStr">
@@ -29631,7 +29633,7 @@
       </c>
       <c r="B933" t="inlineStr">
         <is>
-          <t>1150 lun. 15.</t>
+          <t>1150 Iun. 15.</t>
         </is>
       </c>
       <c r="C933" t="inlineStr">
@@ -29663,7 +29665,7 @@
       </c>
       <c r="B934" t="inlineStr">
         <is>
-          <t>1150 lun. 19.</t>
+          <t>1150 Iun. 19.</t>
         </is>
       </c>
       <c r="C934" t="inlineStr">
@@ -29695,7 +29697,7 @@
       </c>
       <c r="B935" t="inlineStr">
         <is>
-          <t>1150 lun. 22.</t>
+          <t>1150 Iun. 22.</t>
         </is>
       </c>
       <c r="C935" t="inlineStr">
@@ -29727,7 +29729,7 @@
       </c>
       <c r="B936" t="inlineStr">
         <is>
-          <t>1150 lun. 24.</t>
+          <t>1150 Iun. 24.</t>
         </is>
       </c>
       <c r="C936" t="inlineStr">
@@ -30127,7 +30129,7 @@
       </c>
       <c r="B949" t="inlineStr">
         <is>
-          <t>1150 Nor. 21.</t>
+          <t>1150 Nov. 21.</t>
         </is>
       </c>
       <c r="C949" t="inlineStr">
@@ -30159,7 +30161,7 @@
       </c>
       <c r="B950" t="inlineStr">
         <is>
-          <t>1150 Nor. 21.</t>
+          <t>1150 Nov. 21.</t>
         </is>
       </c>
       <c r="C950" t="inlineStr">
@@ -30201,7 +30203,7 @@
       </c>
       <c r="D951" t="inlineStr">
         <is>
-          <t>9412a</t>
+          <t>9412</t>
         </is>
       </c>
       <c r="E951" t="inlineStr">
@@ -30223,7 +30225,7 @@
       </c>
       <c r="B952" t="inlineStr">
         <is>
-          <t>1150 Nor. 21.</t>
+          <t>1150 Nov. 21.</t>
         </is>
       </c>
       <c r="C952" t="inlineStr">
@@ -31127,7 +31129,7 @@
       </c>
       <c r="B981" t="inlineStr">
         <is>
-          <t>1151 lan. 15.</t>
+          <t>1151 Ian. 15.</t>
         </is>
       </c>
       <c r="C981" t="inlineStr">
@@ -31159,7 +31161,7 @@
       </c>
       <c r="B982" t="inlineStr">
         <is>
-          <t>1151 lan. 13.</t>
+          <t>1151 Ian. 13.</t>
         </is>
       </c>
       <c r="C982" t="inlineStr">
@@ -31191,7 +31193,7 @@
       </c>
       <c r="B983" t="inlineStr">
         <is>
-          <t>1151 lan. 21.</t>
+          <t>1151 Ian. 21.</t>
         </is>
       </c>
       <c r="C983" t="inlineStr">
@@ -31223,7 +31225,7 @@
       </c>
       <c r="B984" t="inlineStr">
         <is>
-          <t>1151 lan. 24.</t>
+          <t>1151 Ian. 24.</t>
         </is>
       </c>
       <c r="C984" t="inlineStr">
@@ -31255,7 +31257,7 @@
       </c>
       <c r="B985" t="inlineStr">
         <is>
-          <t>1151 lan. 36.</t>
+          <t>1151 Ian. 36.</t>
         </is>
       </c>
       <c r="C985" t="inlineStr">
@@ -31287,7 +31289,7 @@
       </c>
       <c r="B986" t="inlineStr">
         <is>
-          <t>1151 lan. 26.</t>
+          <t>1151 Ian. 26.</t>
         </is>
       </c>
       <c r="C986" t="inlineStr">
@@ -32615,7 +32617,7 @@
       </c>
       <c r="B1028" t="inlineStr">
         <is>
-          <t>1151 lun. 6.</t>
+          <t>1151 Iun. 6.</t>
         </is>
       </c>
       <c r="C1028" t="inlineStr">
@@ -32647,7 +32649,7 @@
       </c>
       <c r="B1029" t="inlineStr">
         <is>
-          <t>1151 lun. 6.</t>
+          <t>1151 Iun. 6.</t>
         </is>
       </c>
       <c r="C1029" t="inlineStr">
@@ -32679,7 +32681,7 @@
       </c>
       <c r="B1030" t="inlineStr">
         <is>
-          <t>1151 lun. 13.</t>
+          <t>1151 Iun. 13.</t>
         </is>
       </c>
       <c r="C1030" t="inlineStr">
@@ -32711,7 +32713,7 @@
       </c>
       <c r="B1031" t="inlineStr">
         <is>
-          <t>1151 lun. 22.</t>
+          <t>1151 Iun. 22.</t>
         </is>
       </c>
       <c r="C1031" t="inlineStr">
@@ -32807,7 +32809,7 @@
       </c>
       <c r="B1034" t="inlineStr">
         <is>
-          <t>1151 lul. 10.</t>
+          <t>1151 Iul. 10.</t>
         </is>
       </c>
       <c r="C1034" t="inlineStr">
@@ -33547,7 +33549,7 @@
       </c>
       <c r="B1058" t="inlineStr">
         <is>
-          <t>1152 Lan. 8.</t>
+          <t>1152 Ian. 8.</t>
         </is>
       </c>
       <c r="C1058" t="inlineStr">
@@ -33579,7 +33581,7 @@
       </c>
       <c r="B1059" t="inlineStr">
         <is>
-          <t>1152 Lan. 9.</t>
+          <t>1152 Ian. 9.</t>
         </is>
       </c>
       <c r="C1059" t="inlineStr">
@@ -33611,7 +33613,7 @@
       </c>
       <c r="B1060" t="inlineStr">
         <is>
-          <t>1152 Lan. 9.</t>
+          <t>1152 Ian. 9.</t>
         </is>
       </c>
       <c r="C1060" t="inlineStr">
@@ -33643,7 +33645,7 @@
       </c>
       <c r="B1061" t="inlineStr">
         <is>
-          <t>1152 Lan. 9.</t>
+          <t>1152 Ian. 9.</t>
         </is>
       </c>
       <c r="C1061" t="inlineStr">
@@ -33675,7 +33677,7 @@
       </c>
       <c r="B1062" t="inlineStr">
         <is>
-          <t>1152 Lan. 9.</t>
+          <t>1152 Ian. 9.</t>
         </is>
       </c>
       <c r="C1062" t="inlineStr">
@@ -33707,7 +33709,7 @@
       </c>
       <c r="B1063" t="inlineStr">
         <is>
-          <t>1152 Lan. 9.</t>
+          <t>1152 Ian. 9.</t>
         </is>
       </c>
       <c r="C1063" t="inlineStr">
@@ -33735,7 +33737,7 @@
       </c>
       <c r="B1064" t="inlineStr">
         <is>
-          <t>1152 Lan. 9.</t>
+          <t>1152 Ian. 9.</t>
         </is>
       </c>
       <c r="C1064" t="inlineStr">
@@ -33767,7 +33769,7 @@
       </c>
       <c r="B1065" t="inlineStr">
         <is>
-          <t>1152 Lan. 9.</t>
+          <t>1152 Ian. 9.</t>
         </is>
       </c>
       <c r="C1065" t="inlineStr">
@@ -33799,7 +33801,7 @@
       </c>
       <c r="B1066" t="inlineStr">
         <is>
-          <t>1152 Lan. 9.</t>
+          <t>1152 Ian. 9.</t>
         </is>
       </c>
       <c r="C1066" t="inlineStr">
@@ -33831,7 +33833,7 @@
       </c>
       <c r="B1067" t="inlineStr">
         <is>
-          <t>1152 Lan. 9.</t>
+          <t>1152 Ian. 9.</t>
         </is>
       </c>
       <c r="C1067" t="inlineStr">
@@ -33863,7 +33865,7 @@
       </c>
       <c r="B1068" t="inlineStr">
         <is>
-          <t>1152 Lan. 9.</t>
+          <t>1152 Ian. 9.</t>
         </is>
       </c>
       <c r="C1068" t="inlineStr">
@@ -34399,7 +34401,7 @@
       </c>
       <c r="B1085" t="inlineStr">
         <is>
-          <t>1152 lan. 28.</t>
+          <t>1152 Ian. 28.</t>
         </is>
       </c>
       <c r="C1085" t="inlineStr">
@@ -34431,7 +34433,7 @@
       </c>
       <c r="B1086" t="inlineStr">
         <is>
-          <t>1152 lan. 29.</t>
+          <t>1152 Ian. 29.</t>
         </is>
       </c>
       <c r="C1086" t="inlineStr">
@@ -35135,7 +35137,7 @@
       </c>
       <c r="B1108" t="inlineStr">
         <is>
-          <t>1152 Api. 5.</t>
+          <t>1152 Apr. 5.</t>
         </is>
       </c>
       <c r="C1108" t="inlineStr">
@@ -35167,7 +35169,7 @@
       </c>
       <c r="B1109" t="inlineStr">
         <is>
-          <t>1152 Api. 7.</t>
+          <t>1152 Apr. 7.</t>
         </is>
       </c>
       <c r="C1109" t="inlineStr">
@@ -35199,7 +35201,7 @@
       </c>
       <c r="B1110" t="inlineStr">
         <is>
-          <t>1152 Api. 8.</t>
+          <t>1152 Apr. 8.</t>
         </is>
       </c>
       <c r="C1110" t="inlineStr">
@@ -35231,7 +35233,7 @@
       </c>
       <c r="B1111" t="inlineStr">
         <is>
-          <t>1152 Api. 15.</t>
+          <t>1152 Apr. 15.</t>
         </is>
       </c>
       <c r="C1111" t="inlineStr">
@@ -35831,7 +35833,7 @@
       </c>
       <c r="B1130" t="inlineStr">
         <is>
-          <t>1152 lun. 4.</t>
+          <t>1152 Iun. 4.</t>
         </is>
       </c>
       <c r="C1130" t="inlineStr">
@@ -35863,7 +35865,7 @@
       </c>
       <c r="B1131" t="inlineStr">
         <is>
-          <t>1152 lun. 9.</t>
+          <t>1152 Iun. 9.</t>
         </is>
       </c>
       <c r="C1131" t="inlineStr">
@@ -35895,7 +35897,7 @@
       </c>
       <c r="B1132" t="inlineStr">
         <is>
-          <t>1152 lun. 15.</t>
+          <t>1152 Iun. 15.</t>
         </is>
       </c>
       <c r="C1132" t="inlineStr">
@@ -35927,7 +35929,7 @@
       </c>
       <c r="B1133" t="inlineStr">
         <is>
-          <t>1152 lun. 15.</t>
+          <t>1152 Iun. 15.</t>
         </is>
       </c>
       <c r="C1133" t="inlineStr">
@@ -36471,7 +36473,7 @@
       </c>
       <c r="B1150" t="inlineStr">
         <is>
-          <t>1152 Oet. 1.</t>
+          <t>1152 Oct. 1.</t>
         </is>
       </c>
       <c r="C1150" t="inlineStr">
@@ -36503,7 +36505,7 @@
       </c>
       <c r="B1151" t="inlineStr">
         <is>
-          <t>1152 Oet. 9.</t>
+          <t>1152 Oct. 9.</t>
         </is>
       </c>
       <c r="C1151" t="inlineStr">
@@ -36527,7 +36529,7 @@
       </c>
       <c r="B1152" t="inlineStr">
         <is>
-          <t>1152 Oet. 19.</t>
+          <t>1152 Oct. 19.</t>
         </is>
       </c>
       <c r="C1152" t="inlineStr">
@@ -36559,7 +36561,7 @@
       </c>
       <c r="B1153" t="inlineStr">
         <is>
-          <t>1152 Oet. 23.</t>
+          <t>1152 Oct. 23.</t>
         </is>
       </c>
       <c r="C1153" t="inlineStr">
@@ -37549,7 +37551,7 @@
       </c>
       <c r="D1184" t="inlineStr">
         <is>
-          <t>p9640</t>
+          <t>9640</t>
         </is>
       </c>
       <c r="E1184" t="inlineStr">
@@ -37855,7 +37857,7 @@
       </c>
       <c r="B1194" t="inlineStr">
         <is>
-          <t>1146 lan. 115317.</t>
+          <t>1146 Ian. 115317.</t>
         </is>
       </c>
       <c r="C1194" t="inlineStr">
@@ -37887,7 +37889,7 @@
       </c>
       <c r="B1195" t="inlineStr">
         <is>
-          <t>1146 lan. 115323.</t>
+          <t>1146 Ian. 115323.</t>
         </is>
       </c>
       <c r="C1195" t="inlineStr">
@@ -38047,7 +38049,7 @@
       </c>
       <c r="B1200" t="inlineStr">
         <is>
-          <t>1150 lan. 115316.</t>
+          <t>1150 Ian. 115316.</t>
         </is>
       </c>
       <c r="C1200" t="inlineStr">
@@ -38079,7 +38081,7 @@
       </c>
       <c r="B1201" t="inlineStr">
         <is>
-          <t>1150 lan. 115324.</t>
+          <t>1150 Ian. 115324.</t>
         </is>
       </c>
       <c r="C1201" t="inlineStr">
@@ -38305,7 +38307,7 @@
       </c>
       <c r="D1208" t="inlineStr">
         <is>
-          <t>1153.</t>
+          <t>1153</t>
         </is>
       </c>
       <c r="E1208" t="inlineStr">
@@ -39435,7 +39437,7 @@
       </c>
       <c r="B1244" t="inlineStr">
         <is>
-          <t>1153 Ran. 3.</t>
+          <t>1153 Ian. 3.</t>
         </is>
       </c>
       <c r="C1244" t="inlineStr">
@@ -39463,7 +39465,7 @@
       </c>
       <c r="B1245" t="inlineStr">
         <is>
-          <t>1153 Ran. 3.</t>
+          <t>1153 Ian. 3.</t>
         </is>
       </c>
       <c r="C1245" t="inlineStr">
@@ -39495,7 +39497,7 @@
       </c>
       <c r="B1246" t="inlineStr">
         <is>
-          <t>1153 Ran. 14.</t>
+          <t>1153 Ian. 14.</t>
         </is>
       </c>
       <c r="C1246" t="inlineStr">
@@ -39559,7 +39561,7 @@
       </c>
       <c r="B1248" t="inlineStr">
         <is>
-          <t>1153 Ran. 10.</t>
+          <t>1153 Ian. 10.</t>
         </is>
       </c>
       <c r="C1248" t="inlineStr">
@@ -39655,7 +39657,7 @@
       </c>
       <c r="B1251" t="inlineStr">
         <is>
-          <t>1153 Ran. 3.</t>
+          <t>1153 Ian. 3.</t>
         </is>
       </c>
       <c r="C1251" t="inlineStr">
@@ -39687,7 +39689,7 @@
       </c>
       <c r="B1252" t="inlineStr">
         <is>
-          <t>1153 Ran. 4.</t>
+          <t>1153 Ian. 4.</t>
         </is>
       </c>
       <c r="C1252" t="inlineStr">
@@ -39719,7 +39721,7 @@
       </c>
       <c r="B1253" t="inlineStr">
         <is>
-          <t>1153 Ran. 12.</t>
+          <t>1153 Ian. 12.</t>
         </is>
       </c>
       <c r="C1253" t="inlineStr">
@@ -39751,7 +39753,7 @@
       </c>
       <c r="B1254" t="inlineStr">
         <is>
-          <t>1153 Ran. 12.</t>
+          <t>1153 Ian. 12.</t>
         </is>
       </c>
       <c r="C1254" t="inlineStr">
@@ -39783,7 +39785,7 @@
       </c>
       <c r="B1255" t="inlineStr">
         <is>
-          <t xml:space="preserve">1153 Ran.  </t>
+          <t xml:space="preserve">1153 Ian.  </t>
         </is>
       </c>
       <c r="C1255" t="inlineStr">
@@ -39815,7 +39817,7 @@
       </c>
       <c r="B1256" t="inlineStr">
         <is>
-          <t>1153 Ran. 16.</t>
+          <t>1153 Ian. 16.</t>
         </is>
       </c>
       <c r="C1256" t="inlineStr">
@@ -39843,7 +39845,7 @@
       </c>
       <c r="B1257" t="inlineStr">
         <is>
-          <t>1153 Ran. 16.</t>
+          <t>1153 Ian. 16.</t>
         </is>
       </c>
       <c r="C1257" t="inlineStr">
@@ -39875,7 +39877,7 @@
       </c>
       <c r="B1258" t="inlineStr">
         <is>
-          <t>1153 Ran. 16.</t>
+          <t>1153 Ian. 16.</t>
         </is>
       </c>
       <c r="C1258" t="inlineStr">
@@ -39999,7 +40001,7 @@
       </c>
       <c r="B1262" t="inlineStr">
         <is>
-          <t>1153 Lun. 7.</t>
+          <t>1153 Iun. 7.</t>
         </is>
       </c>
       <c r="C1262" t="inlineStr">
@@ -40031,7 +40033,7 @@
       </c>
       <c r="B1263" t="inlineStr">
         <is>
-          <t>1153 Lun. 13.</t>
+          <t>1153 Iun. 13.</t>
         </is>
       </c>
       <c r="C1263" t="inlineStr">
@@ -40063,7 +40065,7 @@
       </c>
       <c r="B1264" t="inlineStr">
         <is>
-          <t>1153 Lun. 16.</t>
+          <t>1153 Iun. 16.</t>
         </is>
       </c>
       <c r="C1264" t="inlineStr">
@@ -40095,7 +40097,7 @@
       </c>
       <c r="B1265" t="inlineStr">
         <is>
-          <t>1153 Lun. 20.</t>
+          <t>1153 Iun. 20.</t>
         </is>
       </c>
       <c r="C1265" t="inlineStr">
@@ -40127,7 +40129,7 @@
       </c>
       <c r="B1266" t="inlineStr">
         <is>
-          <t>1153 Lun. 28.</t>
+          <t>1153 Iun. 28.</t>
         </is>
       </c>
       <c r="C1266" t="inlineStr">
@@ -40159,7 +40161,7 @@
       </c>
       <c r="B1267" t="inlineStr">
         <is>
-          <t>1153 Lun. 29.</t>
+          <t>1153 Iun. 29.</t>
         </is>
       </c>
       <c r="C1267" t="inlineStr">
@@ -40191,7 +40193,7 @@
       </c>
       <c r="B1268" t="inlineStr">
         <is>
-          <t>1153 Lun. 29.</t>
+          <t>1153 Iun. 29.</t>
         </is>
       </c>
       <c r="C1268" t="inlineStr">
@@ -40407,11 +40409,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="D1275" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
+      <c r="D1275" t="inlineStr"/>
       <c r="E1275" t="inlineStr">
         <is>
           <t>„7 40 Monasterii S. Nicolai Brunwillarensis possessiones confirmat, petente Geldolpho abbate. („Dat. Romae, 3 non. Sept., anno nostro I“.) Chron. Brunwylr. in Annal. d. hist. Ver. f. d. Niederrhcin XVII. 147, (Pertz Archiv XII. 130).</t>
@@ -40601,7 +40599,7 @@
       </c>
       <c r="D1281" t="inlineStr">
         <is>
-          <t>„716</t>
+          <t>716</t>
         </is>
       </c>
       <c r="E1281" t="inlineStr">
@@ -40633,7 +40631,7 @@
       </c>
       <c r="D1282" t="inlineStr">
         <is>
-          <t>251*</t>
+          <t>251</t>
         </is>
       </c>
       <c r="E1282" t="inlineStr">
@@ -41103,7 +41101,7 @@
       </c>
       <c r="B1297" t="inlineStr">
         <is>
-          <t>1153 Dcc. 3.</t>
+          <t>1153 Dec. 3.</t>
         </is>
       </c>
       <c r="C1297" t="inlineStr">
@@ -41135,7 +41133,7 @@
       </c>
       <c r="B1298" t="inlineStr">
         <is>
-          <t>1153 Dcc. 6.</t>
+          <t>1153 Dec. 6.</t>
         </is>
       </c>
       <c r="C1298" t="inlineStr">
@@ -41167,7 +41165,7 @@
       </c>
       <c r="B1299" t="inlineStr">
         <is>
-          <t>1153 Dcc. 6.</t>
+          <t>1153 Dec. 6.</t>
         </is>
       </c>
       <c r="C1299" t="inlineStr">
@@ -41199,7 +41197,7 @@
       </c>
       <c r="B1300" t="inlineStr">
         <is>
-          <t>1153 Dcc. 7.</t>
+          <t>1153 Dec. 7.</t>
         </is>
       </c>
       <c r="C1300" t="inlineStr">
@@ -41231,7 +41229,7 @@
       </c>
       <c r="B1301" t="inlineStr">
         <is>
-          <t>1153 Dcc. 7.</t>
+          <t>1153 Dec. 7.</t>
         </is>
       </c>
       <c r="C1301" t="inlineStr">
@@ -41263,7 +41261,7 @@
       </c>
       <c r="B1302" t="inlineStr">
         <is>
-          <t>1153 Dcc. 7.</t>
+          <t>1153 Dec. 7.</t>
         </is>
       </c>
       <c r="C1302" t="inlineStr">
@@ -42245,7 +42243,7 @@
       </c>
       <c r="D1333" t="inlineStr">
         <is>
-          <t>1153—</t>
+          <t>1153</t>
         </is>
       </c>
       <c r="E1333" t="inlineStr">
@@ -44031,7 +44029,7 @@
       </c>
       <c r="B1390" t="inlineStr">
         <is>
-          <t>1154 Agr. 25.</t>
+          <t>1154 Apr. 25.</t>
         </is>
       </c>
       <c r="C1390" t="inlineStr">
@@ -44063,7 +44061,7 @@
       </c>
       <c r="B1391" t="inlineStr">
         <is>
-          <t>1154 Agr. 6.</t>
+          <t>1154 Apr. 6.</t>
         </is>
       </c>
       <c r="C1391" t="inlineStr">
@@ -44095,7 +44093,7 @@
       </c>
       <c r="B1392" t="inlineStr">
         <is>
-          <t>1154 Agr. 8.</t>
+          <t>1154 Apr. 8.</t>
         </is>
       </c>
       <c r="C1392" t="inlineStr">
@@ -44933,7 +44931,7 @@
       </c>
       <c r="D1418" t="inlineStr">
         <is>
-          <t>9684:</t>
+          <t>9684</t>
         </is>
       </c>
       <c r="E1418" t="inlineStr">
@@ -45811,7 +45809,7 @@
       </c>
       <c r="B1446" t="inlineStr">
         <is>
-          <t>904 lun. 1.</t>
+          <t>904 Iun. 1.</t>
         </is>
       </c>
       <c r="C1446" t="inlineStr">
@@ -45843,7 +45841,7 @@
       </c>
       <c r="B1447" t="inlineStr">
         <is>
-          <t>904 lun. 4.</t>
+          <t>904 Iun. 4.</t>
         </is>
       </c>
       <c r="C1447" t="inlineStr">
@@ -45875,7 +45873,7 @@
       </c>
       <c r="B1448" t="inlineStr">
         <is>
-          <t>904 lun. 5.</t>
+          <t>904 Iun. 5.</t>
         </is>
       </c>
       <c r="C1448" t="inlineStr">
@@ -45907,7 +45905,7 @@
       </c>
       <c r="B1449" t="inlineStr">
         <is>
-          <t>904 lun. 9.</t>
+          <t>904 Iun. 9.</t>
         </is>
       </c>
       <c r="C1449" t="inlineStr">
@@ -45939,7 +45937,7 @@
       </c>
       <c r="B1450" t="inlineStr">
         <is>
-          <t>904 lun. 9.</t>
+          <t>904 Iun. 9.</t>
         </is>
       </c>
       <c r="C1450" t="inlineStr">
@@ -45971,7 +45969,7 @@
       </c>
       <c r="B1451" t="inlineStr">
         <is>
-          <t>904 lun. 11.</t>
+          <t>904 Iun. 11.</t>
         </is>
       </c>
       <c r="C1451" t="inlineStr">
@@ -46035,7 +46033,7 @@
       </c>
       <c r="B1453" t="inlineStr">
         <is>
-          <t>904 lun. 25.</t>
+          <t>904 Iun. 25.</t>
         </is>
       </c>
       <c r="C1453" t="inlineStr">
@@ -46067,7 +46065,7 @@
       </c>
       <c r="B1454" t="inlineStr">
         <is>
-          <t>904 lun. 26.</t>
+          <t>904 Iun. 26.</t>
         </is>
       </c>
       <c r="C1454" t="inlineStr">
@@ -46127,7 +46125,7 @@
       </c>
       <c r="B1456" t="inlineStr">
         <is>
-          <t>1154 lul. 3.</t>
+          <t>1154 Iul. 3.</t>
         </is>
       </c>
       <c r="C1456" t="inlineStr">
@@ -46351,7 +46349,7 @@
       </c>
       <c r="B1463" t="inlineStr">
         <is>
-          <t>1154 Xov. 16.</t>
+          <t>1154 Nov. 16.</t>
         </is>
       </c>
       <c r="C1463" t="inlineStr">
@@ -46383,7 +46381,7 @@
       </c>
       <c r="B1464" t="inlineStr">
         <is>
-          <t>1154 Xov. 17.</t>
+          <t>1154 Nov. 17.</t>
         </is>
       </c>
       <c r="C1464" t="inlineStr">
@@ -46415,7 +46413,7 @@
       </c>
       <c r="B1465" t="inlineStr">
         <is>
-          <t>1154 Xov. 17.</t>
+          <t>1154 Nov. 17.</t>
         </is>
       </c>
       <c r="C1465" t="inlineStr">
@@ -46447,7 +46445,7 @@
       </c>
       <c r="B1466" t="inlineStr">
         <is>
-          <t>1154 Xov. 19.</t>
+          <t>1154 Nov. 19.</t>
         </is>
       </c>
       <c r="C1466" t="inlineStr">
@@ -46479,7 +46477,7 @@
       </c>
       <c r="B1467" t="inlineStr">
         <is>
-          <t>1154 Xov. 21.</t>
+          <t>1154 Nov. 21.</t>
         </is>
       </c>
       <c r="C1467" t="inlineStr">
@@ -46511,7 +46509,7 @@
       </c>
       <c r="B1468" t="inlineStr">
         <is>
-          <t>1154 Xov. 28.</t>
+          <t>1154 Nov. 28.</t>
         </is>
       </c>
       <c r="C1468" t="inlineStr">
@@ -46543,7 +46541,7 @@
       </c>
       <c r="B1469" t="inlineStr">
         <is>
-          <t>1154 Xov. 28.</t>
+          <t>1154 Nov. 28.</t>
         </is>
       </c>
       <c r="C1469" t="inlineStr">
@@ -49973,7 +49971,7 @@
       </c>
       <c r="D1579" t="inlineStr">
         <is>
-          <t>p10044</t>
+          <t>10044</t>
         </is>
       </c>
       <c r="E1579" t="inlineStr">
@@ -50023,7 +50021,7 @@
       </c>
       <c r="B1581" t="inlineStr">
         <is>
-          <t>1155 Nai. 1.</t>
+          <t>1155 Mai. 1.</t>
         </is>
       </c>
       <c r="C1581" t="inlineStr">
@@ -50051,7 +50049,7 @@
       </c>
       <c r="B1582" t="inlineStr">
         <is>
-          <t>1155 Nai. 2.</t>
+          <t>1155 Mai. 2.</t>
         </is>
       </c>
       <c r="C1582" t="inlineStr">
@@ -50083,7 +50081,7 @@
       </c>
       <c r="B1583" t="inlineStr">
         <is>
-          <t>1155 Nai. 2.</t>
+          <t>1155 Mai. 2.</t>
         </is>
       </c>
       <c r="C1583" t="inlineStr">
@@ -50115,7 +50113,7 @@
       </c>
       <c r="B1584" t="inlineStr">
         <is>
-          <t>1155 Nai. 4.</t>
+          <t>1155 Mai. 4.</t>
         </is>
       </c>
       <c r="C1584" t="inlineStr">
@@ -50143,7 +50141,7 @@
       </c>
       <c r="B1585" t="inlineStr">
         <is>
-          <t>1155 Nai. 6.</t>
+          <t>1155 Mai. 6.</t>
         </is>
       </c>
       <c r="C1585" t="inlineStr">
@@ -50175,7 +50173,7 @@
       </c>
       <c r="B1586" t="inlineStr">
         <is>
-          <t>1155 Nai. 6.</t>
+          <t>1155 Mai. 6.</t>
         </is>
       </c>
       <c r="C1586" t="inlineStr">
@@ -50207,7 +50205,7 @@
       </c>
       <c r="B1587" t="inlineStr">
         <is>
-          <t>1155 Nai. 7.</t>
+          <t>1155 Mai. 7.</t>
         </is>
       </c>
       <c r="C1587" t="inlineStr">
@@ -50239,7 +50237,7 @@
       </c>
       <c r="B1588" t="inlineStr">
         <is>
-          <t>1155 Nai. 7.</t>
+          <t>1155 Mai. 7.</t>
         </is>
       </c>
       <c r="C1588" t="inlineStr">
@@ -50271,7 +50269,7 @@
       </c>
       <c r="B1589" t="inlineStr">
         <is>
-          <t>1155 Nai. 9.</t>
+          <t>1155 Mai. 9.</t>
         </is>
       </c>
       <c r="C1589" t="inlineStr">
@@ -50303,7 +50301,7 @@
       </c>
       <c r="B1590" t="inlineStr">
         <is>
-          <t>1155 Nai. 10.</t>
+          <t>1155 Mai. 10.</t>
         </is>
       </c>
       <c r="C1590" t="inlineStr">
@@ -51227,7 +51225,7 @@
       </c>
       <c r="B1620" t="inlineStr">
         <is>
-          <t>1155 lun. 19.</t>
+          <t>1155 Iun. 19.</t>
         </is>
       </c>
       <c r="C1620" t="inlineStr">
@@ -51613,7 +51611,7 @@
       </c>
       <c r="D1634" t="inlineStr">
         <is>
-          <t>10085 0.</t>
+          <t>10085 0</t>
         </is>
       </c>
       <c r="E1634" t="inlineStr">
@@ -52513,7 +52511,7 @@
       </c>
       <c r="D1664" t="inlineStr">
         <is>
-          <t>10111a</t>
+          <t>10111</t>
         </is>
       </c>
       <c r="E1664" t="inlineStr">
@@ -52775,7 +52773,7 @@
       </c>
       <c r="B1673" t="inlineStr">
         <is>
-          <t>1156 Lan. 2.</t>
+          <t>1156 Ian. 2.</t>
         </is>
       </c>
       <c r="C1673" t="inlineStr">
@@ -52803,7 +52801,7 @@
       </c>
       <c r="B1674" t="inlineStr">
         <is>
-          <t>1156 Lan. 5.</t>
+          <t>1156 Ian. 5.</t>
         </is>
       </c>
       <c r="C1674" t="inlineStr">
@@ -52835,7 +52833,7 @@
       </c>
       <c r="B1675" t="inlineStr">
         <is>
-          <t>1156 Lan. 11.</t>
+          <t>1156 Ian. 11.</t>
         </is>
       </c>
       <c r="C1675" t="inlineStr">
@@ -52867,7 +52865,7 @@
       </c>
       <c r="B1676" t="inlineStr">
         <is>
-          <t>1156 Lan. 13.</t>
+          <t>1156 Ian. 13.</t>
         </is>
       </c>
       <c r="C1676" t="inlineStr">
@@ -52899,7 +52897,7 @@
       </c>
       <c r="B1677" t="inlineStr">
         <is>
-          <t>1156 Lan. 13.</t>
+          <t>1156 Ian. 13.</t>
         </is>
       </c>
       <c r="C1677" t="inlineStr">
@@ -52931,7 +52929,7 @@
       </c>
       <c r="B1678" t="inlineStr">
         <is>
-          <t>1156 Lan. 19.</t>
+          <t>1156 Ian. 19.</t>
         </is>
       </c>
       <c r="C1678" t="inlineStr">
@@ -52963,7 +52961,7 @@
       </c>
       <c r="B1679" t="inlineStr">
         <is>
-          <t>1156 Lan. 20.</t>
+          <t>1156 Ian. 20.</t>
         </is>
       </c>
       <c r="C1679" t="inlineStr">
@@ -52995,7 +52993,7 @@
       </c>
       <c r="B1680" t="inlineStr">
         <is>
-          <t>1156 Lan. 23.</t>
+          <t>1156 Ian. 23.</t>
         </is>
       </c>
       <c r="C1680" t="inlineStr">
@@ -53027,7 +53025,7 @@
       </c>
       <c r="B1681" t="inlineStr">
         <is>
-          <t>1156 Lan. 23.</t>
+          <t>1156 Ian. 23.</t>
         </is>
       </c>
       <c r="C1681" t="inlineStr">
@@ -53059,7 +53057,7 @@
       </c>
       <c r="B1682" t="inlineStr">
         <is>
-          <t>1156 Lan. 23.</t>
+          <t>1156 Ian. 23.</t>
         </is>
       </c>
       <c r="C1682" t="inlineStr">
@@ -53091,7 +53089,7 @@
       </c>
       <c r="B1683" t="inlineStr">
         <is>
-          <t>1156 Lan. 25.</t>
+          <t>1156 Ian. 25.</t>
         </is>
       </c>
       <c r="C1683" t="inlineStr">
@@ -53123,7 +53121,7 @@
       </c>
       <c r="B1684" t="inlineStr">
         <is>
-          <t>1156 Lan. 25.</t>
+          <t>1156 Ian. 25.</t>
         </is>
       </c>
       <c r="C1684" t="inlineStr">
@@ -53155,7 +53153,7 @@
       </c>
       <c r="B1685" t="inlineStr">
         <is>
-          <t>1156 Lan. 27.</t>
+          <t>1156 Ian. 27.</t>
         </is>
       </c>
       <c r="C1685" t="inlineStr">
@@ -53187,7 +53185,7 @@
       </c>
       <c r="B1686" t="inlineStr">
         <is>
-          <t>1156 Lan. 27.</t>
+          <t>1156 Ian. 27.</t>
         </is>
       </c>
       <c r="C1686" t="inlineStr">
@@ -54117,7 +54115,7 @@
       </c>
       <c r="D1715" t="inlineStr">
         <is>
-          <t>f 10163</t>
+          <t xml:space="preserve"> 10163</t>
         </is>
       </c>
       <c r="E1715" t="inlineStr">
@@ -54683,7 +54681,7 @@
       </c>
       <c r="B1733" t="inlineStr">
         <is>
-          <t>1156 lun. 1.</t>
+          <t>1156 Iun. 1.</t>
         </is>
       </c>
       <c r="C1733" t="inlineStr">
@@ -54715,7 +54713,7 @@
       </c>
       <c r="B1734" t="inlineStr">
         <is>
-          <t>1156 lun. 1.</t>
+          <t>1156 Iun. 1.</t>
         </is>
       </c>
       <c r="C1734" t="inlineStr">
@@ -54747,7 +54745,7 @@
       </c>
       <c r="B1735" t="inlineStr">
         <is>
-          <t>1156 lun. 6.</t>
+          <t>1156 Iun. 6.</t>
         </is>
       </c>
       <c r="C1735" t="inlineStr">
@@ -54779,7 +54777,7 @@
       </c>
       <c r="B1736" t="inlineStr">
         <is>
-          <t>1156 lun. 7.</t>
+          <t>1156 Iun. 7.</t>
         </is>
       </c>
       <c r="C1736" t="inlineStr">
@@ -54811,7 +54809,7 @@
       </c>
       <c r="B1737" t="inlineStr">
         <is>
-          <t>1156 lun. 7.</t>
+          <t>1156 Iun. 7.</t>
         </is>
       </c>
       <c r="C1737" t="inlineStr">
@@ -54843,7 +54841,7 @@
       </c>
       <c r="B1738" t="inlineStr">
         <is>
-          <t>1156 lun. 8.</t>
+          <t>1156 Iun. 8.</t>
         </is>
       </c>
       <c r="C1738" t="inlineStr">
@@ -54875,7 +54873,7 @@
       </c>
       <c r="B1739" t="inlineStr">
         <is>
-          <t>1156 lun. 9.</t>
+          <t>1156 Iun. 9.</t>
         </is>
       </c>
       <c r="C1739" t="inlineStr">
@@ -54911,11 +54909,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="D1740" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
+      <c r="D1740" t="inlineStr"/>
       <c r="E1740" t="inlineStr">
         <is>
           <t>„Apostolice sedis“.</t>
@@ -54931,7 +54925,7 @@
       </c>
       <c r="B1741" t="inlineStr">
         <is>
-          <t>1156 lun. 9.</t>
+          <t>1156 Iun. 9.</t>
         </is>
       </c>
       <c r="C1741" t="inlineStr">
@@ -54963,7 +54957,7 @@
       </c>
       <c r="B1742" t="inlineStr">
         <is>
-          <t>1156 lun. 9.</t>
+          <t>1156 Iun. 9.</t>
         </is>
       </c>
       <c r="C1742" t="inlineStr">
@@ -54995,7 +54989,7 @@
       </c>
       <c r="B1743" t="inlineStr">
         <is>
-          <t>1156 lun. 11.</t>
+          <t>1156 Iun. 11.</t>
         </is>
       </c>
       <c r="C1743" t="inlineStr">
@@ -55005,7 +54999,7 @@
       </c>
       <c r="D1743" t="inlineStr">
         <is>
-          <t>10189a</t>
+          <t>10189</t>
         </is>
       </c>
       <c r="E1743" t="inlineStr">
@@ -55091,7 +55085,7 @@
       </c>
       <c r="B1746" t="inlineStr">
         <is>
-          <t>1156 lun. 18.</t>
+          <t>1156 Iun. 18.</t>
         </is>
       </c>
       <c r="C1746" t="inlineStr">
@@ -55183,7 +55177,7 @@
       </c>
       <c r="B1749" t="inlineStr">
         <is>
-          <t>1156 lul. 3.</t>
+          <t>1156 Iul. 3.</t>
         </is>
       </c>
       <c r="C1749" t="inlineStr">
@@ -55215,7 +55209,7 @@
       </c>
       <c r="B1750" t="inlineStr">
         <is>
-          <t>1156 lul. 3.</t>
+          <t>1156 Iul. 3.</t>
         </is>
       </c>
       <c r="C1750" t="inlineStr">
@@ -55279,7 +55273,7 @@
       </c>
       <c r="B1752" t="inlineStr">
         <is>
-          <t>1156 lul. 10.</t>
+          <t>1156 Iul. 10.</t>
         </is>
       </c>
       <c r="C1752" t="inlineStr">
@@ -56695,7 +56689,7 @@
       </c>
       <c r="B1798" t="inlineStr">
         <is>
-          <t>1157 lan. 4.</t>
+          <t>1157 Ian. 4.</t>
         </is>
       </c>
       <c r="C1798" t="inlineStr">
@@ -56727,7 +56721,7 @@
       </c>
       <c r="B1799" t="inlineStr">
         <is>
-          <t>1157 lan. 1.</t>
+          <t>1157 Ian. 1.</t>
         </is>
       </c>
       <c r="C1799" t="inlineStr">
@@ -56759,7 +56753,7 @@
       </c>
       <c r="B1800" t="inlineStr">
         <is>
-          <t>1157 lan. 1.</t>
+          <t>1157 Ian. 1.</t>
         </is>
       </c>
       <c r="C1800" t="inlineStr">
@@ -56791,7 +56785,7 @@
       </c>
       <c r="B1801" t="inlineStr">
         <is>
-          <t>1157 lan. 4.</t>
+          <t>1157 Ian. 4.</t>
         </is>
       </c>
       <c r="C1801" t="inlineStr">
@@ -56823,7 +56817,7 @@
       </c>
       <c r="B1802" t="inlineStr">
         <is>
-          <t>1157 lan. 13.</t>
+          <t>1157 Ian. 13.</t>
         </is>
       </c>
       <c r="C1802" t="inlineStr">
@@ -56855,7 +56849,7 @@
       </c>
       <c r="B1803" t="inlineStr">
         <is>
-          <t>1157 lan. 13.</t>
+          <t>1157 Ian. 13.</t>
         </is>
       </c>
       <c r="C1803" t="inlineStr">
@@ -56887,7 +56881,7 @@
       </c>
       <c r="B1804" t="inlineStr">
         <is>
-          <t>1157 lan. 19.</t>
+          <t>1157 Ian. 19.</t>
         </is>
       </c>
       <c r="C1804" t="inlineStr">
@@ -56919,7 +56913,7 @@
       </c>
       <c r="B1805" t="inlineStr">
         <is>
-          <t>1157 lan. 20.</t>
+          <t>1157 Ian. 20.</t>
         </is>
       </c>
       <c r="C1805" t="inlineStr">
@@ -58479,11 +58473,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="D1854" t="inlineStr">
-        <is>
-          <t>s</t>
-        </is>
-      </c>
+      <c r="D1854" t="inlineStr"/>
       <c r="E1854" t="inlineStr">
         <is>
           <t>commendat. Nunciat, eidem ab (Lampridio) archiepiscopo Iadertino promissam obedientiam esse. Ughelli It. sacr. V. 1128, Mansi XXI. 825, Migne 188 p. 1520.</t>
@@ -58567,7 +58557,7 @@
       </c>
       <c r="B1857" t="inlineStr">
         <is>
-          <t>1157 Aor. 28.</t>
+          <t>1157 Apr. 28.</t>
         </is>
       </c>
       <c r="C1857" t="inlineStr">
@@ -58599,7 +58589,7 @@
       </c>
       <c r="B1858" t="inlineStr">
         <is>
-          <t>1030 Aor. 10.</t>
+          <t>1030 Apr. 10.</t>
         </is>
       </c>
       <c r="C1858" t="inlineStr">
@@ -59593,7 +59583,7 @@
       </c>
       <c r="D1889" t="inlineStr">
         <is>
-          <t>f10333</t>
+          <t>10333</t>
         </is>
       </c>
       <c r="E1889" t="inlineStr">
@@ -59625,7 +59615,7 @@
       </c>
       <c r="D1890" t="inlineStr">
         <is>
-          <t>p10334</t>
+          <t>10334</t>
         </is>
       </c>
       <c r="E1890" t="inlineStr">
@@ -60799,7 +60789,7 @@
       </c>
       <c r="B1927" t="inlineStr">
         <is>
-          <t>1157 lun. 11581.</t>
+          <t>1157 Iun. 11581.</t>
         </is>
       </c>
       <c r="C1927" t="inlineStr">
@@ -60831,7 +60821,7 @@
       </c>
       <c r="B1928" t="inlineStr">
         <is>
-          <t>1157 lun. 11581.</t>
+          <t>1157 Iun. 11581.</t>
         </is>
       </c>
       <c r="C1928" t="inlineStr">
@@ -60863,7 +60853,7 @@
       </c>
       <c r="B1929" t="inlineStr">
         <is>
-          <t>1157 Lun. 11581.</t>
+          <t>1157 Iun. 11581.</t>
         </is>
       </c>
       <c r="C1929" t="inlineStr">
@@ -60895,7 +60885,7 @@
       </c>
       <c r="B1930" t="inlineStr">
         <is>
-          <t>1157 Lun. 11584.</t>
+          <t>1157 Iun. 11584.</t>
         </is>
       </c>
       <c r="C1930" t="inlineStr">
@@ -60991,7 +60981,7 @@
       </c>
       <c r="B1933" t="inlineStr">
         <is>
-          <t>1158 lan. 3.</t>
+          <t>1158 Ian. 3.</t>
         </is>
       </c>
       <c r="C1933" t="inlineStr">
@@ -61055,7 +61045,7 @@
       </c>
       <c r="B1935" t="inlineStr">
         <is>
-          <t>1158 lan. 12.</t>
+          <t>1158 Ian. 12.</t>
         </is>
       </c>
       <c r="C1935" t="inlineStr">
@@ -61087,7 +61077,7 @@
       </c>
       <c r="B1936" t="inlineStr">
         <is>
-          <t>1158 lan. 21.</t>
+          <t>1158 Ian. 21.</t>
         </is>
       </c>
       <c r="C1936" t="inlineStr">
@@ -61119,7 +61109,7 @@
       </c>
       <c r="B1937" t="inlineStr">
         <is>
-          <t>1158 lan. 21.</t>
+          <t>1158 Ian. 21.</t>
         </is>
       </c>
       <c r="C1937" t="inlineStr">
@@ -61151,7 +61141,7 @@
       </c>
       <c r="B1938" t="inlineStr">
         <is>
-          <t>1158 lan. 22.</t>
+          <t>1158 Ian. 22.</t>
         </is>
       </c>
       <c r="C1938" t="inlineStr">
@@ -61183,7 +61173,7 @@
       </c>
       <c r="B1939" t="inlineStr">
         <is>
-          <t>1158 lan. 23.</t>
+          <t>1158 Ian. 23.</t>
         </is>
       </c>
       <c r="C1939" t="inlineStr">
@@ -61215,7 +61205,7 @@
       </c>
       <c r="B1940" t="inlineStr">
         <is>
-          <t>1158 lan. 25.</t>
+          <t>1158 Ian. 25.</t>
         </is>
       </c>
       <c r="C1940" t="inlineStr">
@@ -61247,7 +61237,7 @@
       </c>
       <c r="B1941" t="inlineStr">
         <is>
-          <t>1158 lan. 29.</t>
+          <t>1158 Ian. 29.</t>
         </is>
       </c>
       <c r="C1941" t="inlineStr">
@@ -61343,7 +61333,7 @@
       </c>
       <c r="B1944" t="inlineStr">
         <is>
-          <t>1158 lan. 15.</t>
+          <t>1158 Ian. 15.</t>
         </is>
       </c>
       <c r="C1944" t="inlineStr">
@@ -61375,7 +61365,7 @@
       </c>
       <c r="B1945" t="inlineStr">
         <is>
-          <t>1158 lan. 27.</t>
+          <t>1158 Ian. 27.</t>
         </is>
       </c>
       <c r="C1945" t="inlineStr">
@@ -61417,7 +61407,7 @@
       </c>
       <c r="D1946" t="inlineStr">
         <is>
-          <t>10389a</t>
+          <t>10389</t>
         </is>
       </c>
       <c r="E1946" t="inlineStr">
@@ -61911,7 +61901,7 @@
       </c>
       <c r="B1962" t="inlineStr">
         <is>
-          <t>1158 Nai. 10.</t>
+          <t>1158 Mai. 10.</t>
         </is>
       </c>
       <c r="C1962" t="inlineStr">
@@ -61943,7 +61933,7 @@
       </c>
       <c r="B1963" t="inlineStr">
         <is>
-          <t>1158 Nai. 11.</t>
+          <t>1158 Mai. 11.</t>
         </is>
       </c>
       <c r="C1963" t="inlineStr">
@@ -61975,7 +61965,7 @@
       </c>
       <c r="B1964" t="inlineStr">
         <is>
-          <t>1158 Nai. 14.</t>
+          <t>1158 Mai. 14.</t>
         </is>
       </c>
       <c r="C1964" t="inlineStr">
@@ -62007,7 +61997,7 @@
       </c>
       <c r="B1965" t="inlineStr">
         <is>
-          <t>1158 Nai. 16.</t>
+          <t>1158 Mai. 16.</t>
         </is>
       </c>
       <c r="C1965" t="inlineStr">
@@ -62039,7 +62029,7 @@
       </c>
       <c r="B1966" t="inlineStr">
         <is>
-          <t>1158 Nai. 20.</t>
+          <t>1158 Mai. 20.</t>
         </is>
       </c>
       <c r="C1966" t="inlineStr">
@@ -62387,7 +62377,7 @@
       </c>
       <c r="B1977" t="inlineStr">
         <is>
-          <t>1158 lun. 26.</t>
+          <t>1158 Iun. 26.</t>
         </is>
       </c>
       <c r="C1977" t="inlineStr">
@@ -62397,7 +62387,7 @@
       </c>
       <c r="D1977" t="inlineStr">
         <is>
-          <t>f10421</t>
+          <t>10421</t>
         </is>
       </c>
       <c r="E1977" t="inlineStr">
@@ -62419,7 +62409,7 @@
       </c>
       <c r="B1978" t="inlineStr">
         <is>
-          <t>1158 lul. 26.</t>
+          <t>1158 Iul. 26.</t>
         </is>
       </c>
       <c r="C1978" t="inlineStr">
@@ -62483,7 +62473,7 @@
       </c>
       <c r="B1980" t="inlineStr">
         <is>
-          <t>1158 lul. 19.</t>
+          <t>1158 Iul. 19.</t>
         </is>
       </c>
       <c r="C1980" t="inlineStr">
@@ -62597,7 +62587,7 @@
       </c>
       <c r="D1984" t="inlineStr">
         <is>
-          <t>f10425</t>
+          <t>10425</t>
         </is>
       </c>
       <c r="E1984" t="inlineStr">
@@ -63169,7 +63159,7 @@
       </c>
       <c r="D2002" t="inlineStr">
         <is>
-          <t>10443 (7065a</t>
+          <t>10443 (7065</t>
         </is>
       </c>
       <c r="E2002" t="inlineStr">
@@ -63795,7 +63785,7 @@
       </c>
       <c r="B2022" t="inlineStr">
         <is>
-          <t>1155 Iui. 11596.</t>
+          <t>1155 Iun. 11596.</t>
         </is>
       </c>
       <c r="C2022" t="inlineStr">
@@ -64019,7 +64009,7 @@
       </c>
       <c r="B2029" t="inlineStr">
         <is>
-          <t>1157 Lan. 11594.</t>
+          <t>1157 Ian. 11594.</t>
         </is>
       </c>
       <c r="C2029" t="inlineStr">
@@ -64051,7 +64041,7 @@
       </c>
       <c r="B2030" t="inlineStr">
         <is>
-          <t>1157 Lan. 11599.</t>
+          <t>1157 Ian. 11599.</t>
         </is>
       </c>
       <c r="C2030" t="inlineStr">
@@ -64083,7 +64073,7 @@
       </c>
       <c r="B2031" t="inlineStr">
         <is>
-          <t>1157 Lan. 115918.</t>
+          <t>1157 Ian. 115918.</t>
         </is>
       </c>
       <c r="C2031" t="inlineStr">
@@ -64115,7 +64105,7 @@
       </c>
       <c r="B2032" t="inlineStr">
         <is>
-          <t>1157 Lan. 115921.</t>
+          <t>1157 Ian. 115921.</t>
         </is>
       </c>
       <c r="C2032" t="inlineStr">
@@ -65427,7 +65417,7 @@
       </c>
       <c r="B2073" t="inlineStr">
         <is>
-          <t>1157 Nai. 115927.</t>
+          <t>1157 Mai. 115927.</t>
         </is>
       </c>
       <c r="C2073" t="inlineStr">
@@ -65459,7 +65449,7 @@
       </c>
       <c r="B2074" t="inlineStr">
         <is>
-          <t>1157 Nai. 11597.</t>
+          <t>1157 Mai. 11597.</t>
         </is>
       </c>
       <c r="C2074" t="inlineStr">
@@ -65491,7 +65481,7 @@
       </c>
       <c r="B2075" t="inlineStr">
         <is>
-          <t>1157 Nai. 11599.</t>
+          <t>1157 Mai. 11599.</t>
         </is>
       </c>
       <c r="C2075" t="inlineStr">
@@ -65523,7 +65513,7 @@
       </c>
       <c r="B2076" t="inlineStr">
         <is>
-          <t>1157 Nai. 115910.</t>
+          <t>1157 Mai. 115910.</t>
         </is>
       </c>
       <c r="C2076" t="inlineStr">
@@ -65555,7 +65545,7 @@
       </c>
       <c r="B2077" t="inlineStr">
         <is>
-          <t>1157 Nai. 115911.</t>
+          <t>1157 Mai. 115911.</t>
         </is>
       </c>
       <c r="C2077" t="inlineStr">
@@ -65587,7 +65577,7 @@
       </c>
       <c r="B2078" t="inlineStr">
         <is>
-          <t>1157 Nai. 115911.</t>
+          <t>1157 Mai. 115911.</t>
         </is>
       </c>
       <c r="C2078" t="inlineStr">
@@ -65619,7 +65609,7 @@
       </c>
       <c r="B2079" t="inlineStr">
         <is>
-          <t>1157 Nai. 115911.</t>
+          <t>1157 Mai. 115911.</t>
         </is>
       </c>
       <c r="C2079" t="inlineStr">
@@ -65651,7 +65641,7 @@
       </c>
       <c r="B2080" t="inlineStr">
         <is>
-          <t>1157 Nai. 115911.</t>
+          <t>1157 Mai. 115911.</t>
         </is>
       </c>
       <c r="C2080" t="inlineStr">
@@ -65683,7 +65673,7 @@
       </c>
       <c r="B2081" t="inlineStr">
         <is>
-          <t>1157 Nai. 115911.</t>
+          <t>1157 Mai. 115911.</t>
         </is>
       </c>
       <c r="C2081" t="inlineStr">
@@ -65715,7 +65705,7 @@
       </c>
       <c r="B2082" t="inlineStr">
         <is>
-          <t>1157 Nai. 115911.</t>
+          <t>1157 Mai. 115911.</t>
         </is>
       </c>
       <c r="C2082" t="inlineStr">
@@ -66191,7 +66181,7 @@
       </c>
       <c r="B2097" t="inlineStr">
         <is>
-          <t>1159 lan. 24.</t>
+          <t>1159 Ian. 24.</t>
         </is>
       </c>
       <c r="C2097" t="inlineStr">
@@ -66223,7 +66213,7 @@
       </c>
       <c r="B2098" t="inlineStr">
         <is>
-          <t>1159 lan. 29.</t>
+          <t>1159 Ian. 29.</t>
         </is>
       </c>
       <c r="C2098" t="inlineStr">
@@ -67259,7 +67249,7 @@
       </c>
       <c r="B2131" t="inlineStr">
         <is>
-          <t>1159 Noi. 27.</t>
+          <t>1159 Nov. 27.</t>
         </is>
       </c>
       <c r="C2131" t="inlineStr">
@@ -67291,7 +67281,7 @@
       </c>
       <c r="B2132" t="inlineStr">
         <is>
-          <t>1159 Noi. 30.</t>
+          <t>1159 Nov. 30.</t>
         </is>
       </c>
       <c r="C2132" t="inlineStr">
@@ -67323,7 +67313,7 @@
       </c>
       <c r="B2133" t="inlineStr">
         <is>
-          <t>1159 Noi. 30.</t>
+          <t>1159 Nov. 30.</t>
         </is>
       </c>
       <c r="C2133" t="inlineStr">
@@ -67355,7 +67345,7 @@
       </c>
       <c r="B2134" t="inlineStr">
         <is>
-          <t>1159 lun. 15.</t>
+          <t>1159 Iun. 15.</t>
         </is>
       </c>
       <c r="C2134" t="inlineStr">
@@ -67363,8 +67353,10 @@
           <t>Anagniae</t>
         </is>
       </c>
-      <c r="D2134" t="n">
-        <v>10574</v>
+      <c r="D2134" t="inlineStr">
+        <is>
+          <t>10574</t>
+        </is>
       </c>
       <c r="E2134" t="inlineStr">
         <is>
@@ -67381,7 +67373,7 @@
       </c>
       <c r="B2135" t="inlineStr">
         <is>
-          <t>1159 lun. 21.</t>
+          <t>1159 Iun. 21.</t>
         </is>
       </c>
       <c r="C2135" t="inlineStr">
@@ -67391,7 +67383,7 @@
       </c>
       <c r="D2135" t="inlineStr">
         <is>
-          <t>f10575 (7121)</t>
+          <t>10575 (7121)</t>
         </is>
       </c>
       <c r="E2135" t="inlineStr">
@@ -67413,7 +67405,7 @@
       </c>
       <c r="B2136" t="inlineStr">
         <is>
-          <t>1159 lun. 25.</t>
+          <t>1159 Iun. 25.</t>
         </is>
       </c>
       <c r="C2136" t="inlineStr">
@@ -67445,7 +67437,7 @@
       </c>
       <c r="B2137" t="inlineStr">
         <is>
-          <t>1159 lun. 28.</t>
+          <t>1159 Iun. 28.</t>
         </is>
       </c>
       <c r="C2137" t="inlineStr">
@@ -67477,7 +67469,7 @@
       </c>
       <c r="B2138" t="inlineStr">
         <is>
-          <t>1159 lun. 28.</t>
+          <t>1159 Iun. 28.</t>
         </is>
       </c>
       <c r="C2138" t="inlineStr">

--- a/data/postprocessed/postprocessed_jaffe2_preAlexander.xlsx
+++ b/data/postprocessed/postprocessed_jaffe2_preAlexander.xlsx
@@ -729,7 +729,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t xml:space="preserve">450 Nov.  </t>
+          <t xml:space="preserve">450 Nov. </t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1205,7 +1205,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t xml:space="preserve">453    </t>
+          <t xml:space="preserve">453  </t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t xml:space="preserve">453    </t>
+          <t xml:space="preserve">453  </t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1809,7 +1809,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t xml:space="preserve">1144    </t>
+          <t xml:space="preserve">1144  </t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2061,7 +2061,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t xml:space="preserve">1144    </t>
+          <t xml:space="preserve">1144  </t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2093,7 +2093,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t xml:space="preserve">1144    </t>
+          <t xml:space="preserve">1144  </t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2125,7 +2125,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t xml:space="preserve">1144    </t>
+          <t xml:space="preserve">1144  </t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2153,7 +2153,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t xml:space="preserve">1144    </t>
+          <t xml:space="preserve">1144  </t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2185,7 +2185,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t xml:space="preserve">1144    </t>
+          <t xml:space="preserve">1144  </t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2217,7 +2217,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t xml:space="preserve">1144    </t>
+          <t xml:space="preserve">1144  </t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2249,7 +2249,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t xml:space="preserve">1144    </t>
+          <t xml:space="preserve">1144  </t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2281,7 +2281,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t xml:space="preserve">1144 S.  </t>
+          <t xml:space="preserve">1144 S. </t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2337,7 +2337,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t xml:space="preserve">1144    </t>
+          <t xml:space="preserve">1144  </t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2777,7 +2777,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t xml:space="preserve">1144    </t>
+          <t xml:space="preserve">1144  </t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -2809,7 +2809,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>1144   29.</t>
+          <t>1144  29.</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -2841,7 +2841,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>1144   21.</t>
+          <t>1144  21.</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -2873,7 +2873,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>1144   21.</t>
+          <t>1144  21.</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -2905,7 +2905,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>1144   21.</t>
+          <t>1144  21.</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -2933,7 +2933,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t xml:space="preserve">1144    </t>
+          <t xml:space="preserve">1144  </t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -3221,7 +3221,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t xml:space="preserve">1144    </t>
+          <t xml:space="preserve">1144  </t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -3253,7 +3253,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t xml:space="preserve">1144    </t>
+          <t xml:space="preserve">1144  </t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -3285,7 +3285,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>1144   25.</t>
+          <t>1144  25.</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -3313,7 +3313,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>1144   25.</t>
+          <t>1144  25.</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -3345,7 +3345,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>1144   28.</t>
+          <t>1144  28.</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -3377,7 +3377,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>1144   28.</t>
+          <t>1144  28.</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -3917,7 +3917,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t xml:space="preserve">566 Apr.  </t>
+          <t xml:space="preserve">566 Apr. </t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -4457,7 +4457,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t xml:space="preserve">1144    </t>
+          <t xml:space="preserve">1144  </t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -4681,7 +4681,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>1144 Mai. 1.</t>
+          <t>1144 Rai(). 1.</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -4993,7 +4993,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t xml:space="preserve">1144    </t>
+          <t xml:space="preserve">1144  </t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -5025,7 +5025,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t xml:space="preserve">   1   1.</t>
+          <t xml:space="preserve">  11.</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -5057,7 +5057,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t xml:space="preserve">   1   4.</t>
+          <t xml:space="preserve">  14.</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -5089,7 +5089,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t xml:space="preserve">   1   5.</t>
+          <t xml:space="preserve">  15.</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -5469,7 +5469,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t xml:space="preserve">1144    </t>
+          <t xml:space="preserve">1144  </t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -5501,7 +5501,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>1144   26.</t>
+          <t>1144  26.</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -5533,7 +5533,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>631   27.</t>
+          <t>631  27.</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -5565,7 +5565,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>634   29.</t>
+          <t>634  29.</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -5693,7 +5693,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t xml:space="preserve">1144    </t>
+          <t xml:space="preserve">1144  </t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -5725,7 +5725,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t xml:space="preserve">1144    </t>
+          <t xml:space="preserve">1144  </t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -5749,7 +5749,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>1144   6.</t>
+          <t>1144  6.</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -5781,7 +5781,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>1144   2.</t>
+          <t>1144  2.</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -5813,7 +5813,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>1144   16.</t>
+          <t>1144  16.</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -5845,7 +5845,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>1144   16.</t>
+          <t>1144  16.</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -5877,7 +5877,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>1144   17.</t>
+          <t>1144  17.</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -5941,7 +5941,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t xml:space="preserve">1144    </t>
+          <t xml:space="preserve">1144  </t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -5973,7 +5973,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>1144   10.</t>
+          <t>1144  10.</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -6005,7 +6005,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>1144   12.</t>
+          <t>1144  12.</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -6037,7 +6037,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t xml:space="preserve">1144    </t>
+          <t xml:space="preserve">1144  </t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -6165,7 +6165,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t xml:space="preserve">1144 Oct.  </t>
+          <t xml:space="preserve">1144 Oct. </t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -7093,7 +7093,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t xml:space="preserve">1144    </t>
+          <t xml:space="preserve">1144  </t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -7125,7 +7125,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t xml:space="preserve">1144    </t>
+          <t xml:space="preserve">1144  </t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -7157,7 +7157,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t xml:space="preserve">1144    </t>
+          <t xml:space="preserve">1144  </t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -7189,7 +7189,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t xml:space="preserve">1144    </t>
+          <t xml:space="preserve">1144  </t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -7221,7 +7221,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t xml:space="preserve">1144    </t>
+          <t xml:space="preserve">1144  </t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -7249,7 +7249,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t xml:space="preserve">1144    </t>
+          <t xml:space="preserve">1144  </t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -7277,7 +7277,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t xml:space="preserve">1144    </t>
+          <t xml:space="preserve">1144  </t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -7305,7 +7305,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>1144   1145.</t>
+          <t xml:space="preserve">1144—1145  </t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -7337,7 +7337,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>1144   1145.</t>
+          <t xml:space="preserve">1144—1145  </t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -7369,7 +7369,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>1144   1145.</t>
+          <t xml:space="preserve">1144—1145  </t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -7401,7 +7401,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>1144   1145.</t>
+          <t xml:space="preserve">1144—1145  </t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -7433,7 +7433,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>1144   1145.</t>
+          <t xml:space="preserve">1144—1145  </t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -7465,7 +7465,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>1144   1145.</t>
+          <t xml:space="preserve">1144—1145  </t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -7497,7 +7497,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>1144   1145.</t>
+          <t xml:space="preserve">1144—1145  </t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -7529,7 +7529,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>1144   1145.</t>
+          <t xml:space="preserve">1144—1145  </t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -7557,7 +7557,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>1144   1145.</t>
+          <t xml:space="preserve">1144—1145  </t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -7585,7 +7585,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>1144   1145.</t>
+          <t xml:space="preserve">1144—1145  </t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -8053,7 +8053,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t xml:space="preserve"> rar   14.</t>
+          <t xml:space="preserve"> rar(). 14.</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -8081,7 +8081,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t xml:space="preserve"> rar adpatriar. 15.</t>
+          <t xml:space="preserve"> raradpatriar. 15.</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -8105,7 +8105,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t xml:space="preserve"> rar   17.</t>
+          <t xml:space="preserve"> rar. 17.</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -8133,7 +8133,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t xml:space="preserve"> rar   18.</t>
+          <t xml:space="preserve"> rar. 18.</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -8161,7 +8161,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Mar t. 2.</t>
+          <t xml:space="preserve"> Mart. 2.</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
@@ -8193,7 +8193,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Mar t. 10.</t>
+          <t xml:space="preserve"> Mart. 10.</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -8225,7 +8225,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Mar t. 14.</t>
+          <t xml:space="preserve"> Mart. 14.</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -8257,7 +8257,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Mar t. 14.</t>
+          <t xml:space="preserve"> Mart. 14.</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -8289,7 +8289,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Mar t. 16.</t>
+          <t xml:space="preserve"> Mart. 16.</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -8513,7 +8513,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t xml:space="preserve">1145    </t>
+          <t xml:space="preserve">1145  </t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
@@ -8733,7 +8733,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t xml:space="preserve">1145    </t>
+          <t xml:space="preserve">1145  </t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
@@ -8885,7 +8885,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t xml:space="preserve">1145    </t>
+          <t xml:space="preserve">1145  </t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
@@ -9973,7 +9973,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t xml:space="preserve">1145    </t>
+          <t xml:space="preserve">1145  </t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
@@ -10133,7 +10133,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t xml:space="preserve">1145    </t>
+          <t xml:space="preserve">1145  </t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
@@ -10229,7 +10229,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t xml:space="preserve">1145    </t>
+          <t xml:space="preserve">1145  </t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -10901,7 +10901,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t xml:space="preserve">1145    </t>
+          <t xml:space="preserve">1145  </t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
@@ -10933,7 +10933,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t xml:space="preserve">1145    </t>
+          <t xml:space="preserve">1145  </t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
@@ -10965,7 +10965,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>1145   18.</t>
+          <t>1145  18.</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
@@ -10997,7 +10997,7 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>1145   21.</t>
+          <t>1145  21.</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
@@ -11029,7 +11029,7 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>1145   24.</t>
+          <t>1145  24.</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
@@ -11061,7 +11061,7 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>1145   25.</t>
+          <t>1145  25.</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
@@ -11085,7 +11085,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>1145   30.</t>
+          <t>1145  30.</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
@@ -11117,7 +11117,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>1145   30.</t>
+          <t>1145  30.</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
@@ -11149,7 +11149,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>1145   31.</t>
+          <t>1145  31.</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
@@ -11181,7 +11181,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>1145   31.</t>
+          <t>1145  31.</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
@@ -11213,7 +11213,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t xml:space="preserve">1145    </t>
+          <t xml:space="preserve">1145  </t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
@@ -11245,7 +11245,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>1145 Mai. 11465.</t>
+          <t>1145—1146 Mai. 5.</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
@@ -11309,7 +11309,7 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t xml:space="preserve">816    </t>
+          <t xml:space="preserve">816  </t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
@@ -11341,7 +11341,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>1145 Iun. 114616.</t>
+          <t>1145 — 1146 Iun. 16.</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
@@ -11373,7 +11373,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>1145 Iul. 114612.</t>
+          <t>1145 — 1146 Iul. 12.</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
@@ -11405,7 +11405,7 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>1145 Iul. 114616.</t>
+          <t>1145 — 1146 Iul. 16.</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
@@ -11437,7 +11437,7 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>1145 Iul. 114622.</t>
+          <t>1145 — 1146 Iul. 22.</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
@@ -11469,7 +11469,7 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>1145 Aug. 114616.</t>
+          <t>1145 — 1146 Aug. 16.</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
@@ -11501,7 +11501,7 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>1145 Sept. 11464.</t>
+          <t>1145 — 1146 Sept. 4.</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
@@ -11533,7 +11533,7 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>1145 Sept. 11461.</t>
+          <t>1145 — 1146 Sept. 1.</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
@@ -11565,7 +11565,7 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>1145 Oct. 114617.</t>
+          <t>1145 — 1146 Oct. 17.</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
@@ -11597,7 +11597,7 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>1145 Oct. 114622.</t>
+          <t>1145 — 1146 Oct. 22.</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
@@ -11629,7 +11629,7 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>1145 Oct. 114637.</t>
+          <t>1145 — 1146 Oct. 37.</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
@@ -11661,7 +11661,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>1145 Oct. 114627.</t>
+          <t>1145 — 1146 Oct. 27.</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
@@ -11693,7 +11693,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>1145 Nov. 1146.</t>
+          <t xml:space="preserve">1145 — 1146 Nov. </t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
@@ -11725,7 +11725,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>1145 Nov. 114621.</t>
+          <t>1145 — 1146 Nov. 21.</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
@@ -11757,7 +11757,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>1145 Nov. 114628.</t>
+          <t>1145 — 1146 Nov. 28.</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
@@ -11789,7 +11789,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>1145 Nov. 114629.</t>
+          <t>1145 — 1146 Nov. 29.</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
@@ -11821,7 +11821,7 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t xml:space="preserve">1146    </t>
+          <t xml:space="preserve">1146  </t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
@@ -12493,7 +12493,7 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t xml:space="preserve">854    </t>
+          <t xml:space="preserve">854  </t>
         </is>
       </c>
       <c r="C383" t="inlineStr">
@@ -12525,7 +12525,7 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>854   15.</t>
+          <t>854  15.</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
@@ -12557,7 +12557,7 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>854   15.</t>
+          <t>854  15.</t>
         </is>
       </c>
       <c r="C385" t="inlineStr">
@@ -12589,7 +12589,7 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>854   20.</t>
+          <t>854  20.</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
@@ -12621,7 +12621,7 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>854   20.</t>
+          <t>854  20.</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
@@ -12653,7 +12653,7 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>854   21.</t>
+          <t>854  21.</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
@@ -12685,7 +12685,7 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>854   23.</t>
+          <t>854  23.</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
@@ -12717,7 +12717,7 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>854   21.</t>
+          <t>854  21.</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
@@ -12749,7 +12749,7 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>854   21.</t>
+          <t>854 (). 21.</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
@@ -12781,7 +12781,7 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>854   21.</t>
+          <t>854  21.</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
@@ -12813,7 +12813,7 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>854   21.</t>
+          <t>854 (). 21.</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
@@ -12845,7 +12845,7 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>854   25.</t>
+          <t>854  25.</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
@@ -12877,7 +12877,7 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t xml:space="preserve">854    </t>
+          <t xml:space="preserve">854  </t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
@@ -13353,7 +13353,7 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t xml:space="preserve">1146    </t>
+          <t xml:space="preserve">1146  </t>
         </is>
       </c>
       <c r="C410" t="inlineStr">
@@ -13385,7 +13385,7 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t xml:space="preserve">1146    </t>
+          <t xml:space="preserve">1146  </t>
         </is>
       </c>
       <c r="C411" t="inlineStr">
@@ -13417,7 +13417,7 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>1146   15.</t>
+          <t>1146  15.</t>
         </is>
       </c>
       <c r="C412" t="inlineStr">
@@ -13449,7 +13449,7 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>1146   15.</t>
+          <t>1146  15.</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
@@ -13569,7 +13569,7 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t xml:space="preserve">1146    </t>
+          <t xml:space="preserve">1146  </t>
         </is>
       </c>
       <c r="C417" t="inlineStr">
@@ -13601,7 +13601,7 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t xml:space="preserve">1146    </t>
+          <t xml:space="preserve">1146  </t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
@@ -13633,7 +13633,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>1146   16.</t>
+          <t>1146  16.</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
@@ -13665,7 +13665,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>1146   25.</t>
+          <t>1146  25.</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
@@ -13697,7 +13697,7 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t xml:space="preserve">1146    </t>
+          <t xml:space="preserve">1146  </t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
@@ -13729,7 +13729,7 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t xml:space="preserve">1146    </t>
+          <t xml:space="preserve">1146  </t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
@@ -13761,7 +13761,7 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t xml:space="preserve">1146 Apr.  </t>
+          <t xml:space="preserve">1146 Apr. </t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
@@ -13945,7 +13945,7 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t xml:space="preserve">1146    </t>
+          <t xml:space="preserve">1146  </t>
         </is>
       </c>
       <c r="C429" t="inlineStr">
@@ -14233,7 +14233,7 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t xml:space="preserve">1146 Apr Mai.  </t>
+          <t xml:space="preserve">1146 Apr Mai. </t>
         </is>
       </c>
       <c r="C438" t="inlineStr">
@@ -14297,7 +14297,7 @@
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t xml:space="preserve">1146    </t>
+          <t xml:space="preserve">1146  </t>
         </is>
       </c>
       <c r="C440" t="inlineStr">
@@ -14329,7 +14329,7 @@
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t xml:space="preserve">1146    </t>
+          <t xml:space="preserve">1146  </t>
         </is>
       </c>
       <c r="C441" t="inlineStr">
@@ -14361,7 +14361,7 @@
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t xml:space="preserve">1146    </t>
+          <t xml:space="preserve">1146  </t>
         </is>
       </c>
       <c r="C442" t="inlineStr">
@@ -14393,7 +14393,7 @@
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t xml:space="preserve">nan    </t>
+          <t xml:space="preserve"> Ian. </t>
         </is>
       </c>
       <c r="C443" t="inlineStr">
@@ -14425,7 +14425,7 @@
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Mai   7.</t>
+          <t xml:space="preserve"> Mai. 7.</t>
         </is>
       </c>
       <c r="C444" t="inlineStr">
@@ -14457,7 +14457,7 @@
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Mai   13.</t>
+          <t xml:space="preserve"> Mai. 13.</t>
         </is>
       </c>
       <c r="C445" t="inlineStr">
@@ -14489,7 +14489,7 @@
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Mai   15.</t>
+          <t xml:space="preserve"> Mai. 15.</t>
         </is>
       </c>
       <c r="C446" t="inlineStr">
@@ -14521,7 +14521,7 @@
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Mai   16.</t>
+          <t xml:space="preserve"> Mai. 16.</t>
         </is>
       </c>
       <c r="C447" t="inlineStr">
@@ -14553,7 +14553,7 @@
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Mai Viterbii. 23.</t>
+          <t xml:space="preserve"> MaiViterbii. 23.</t>
         </is>
       </c>
       <c r="C448" t="inlineStr">
@@ -14585,7 +14585,7 @@
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Mai   25.</t>
+          <t xml:space="preserve"> Mai. 25.</t>
         </is>
       </c>
       <c r="C449" t="inlineStr">
@@ -15445,7 +15445,7 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t xml:space="preserve">1146    </t>
+          <t xml:space="preserve">1146  </t>
         </is>
       </c>
       <c r="C476" t="inlineStr">
@@ -15601,7 +15601,7 @@
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t xml:space="preserve">1146 Dec.  </t>
+          <t xml:space="preserve">1146 Dec. </t>
         </is>
       </c>
       <c r="C481" t="inlineStr">
@@ -16109,7 +16109,7 @@
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t xml:space="preserve">1146    </t>
+          <t xml:space="preserve">1146  </t>
         </is>
       </c>
       <c r="C497" t="inlineStr">
@@ -16141,7 +16141,7 @@
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t xml:space="preserve">1146    </t>
+          <t xml:space="preserve">1146  </t>
         </is>
       </c>
       <c r="C498" t="inlineStr">
@@ -16173,7 +16173,7 @@
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t xml:space="preserve">1146    </t>
+          <t xml:space="preserve">1146  </t>
         </is>
       </c>
       <c r="C499" t="inlineStr">
@@ -16201,7 +16201,7 @@
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t xml:space="preserve">1146    </t>
+          <t xml:space="preserve">1146  </t>
         </is>
       </c>
       <c r="C500" t="inlineStr">
@@ -16233,7 +16233,7 @@
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t xml:space="preserve">1146    </t>
+          <t xml:space="preserve">1146  </t>
         </is>
       </c>
       <c r="C501" t="inlineStr">
@@ -16257,7 +16257,7 @@
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t xml:space="preserve">1146    </t>
+          <t xml:space="preserve">1146  </t>
         </is>
       </c>
       <c r="C502" t="inlineStr">
@@ -16289,7 +16289,7 @@
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>1145   1147.</t>
+          <t xml:space="preserve">1145— 1147  </t>
         </is>
       </c>
       <c r="C503" t="inlineStr">
@@ -16321,7 +16321,7 @@
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>1145   1147.</t>
+          <t xml:space="preserve">1145— 1147  </t>
         </is>
       </c>
       <c r="C504" t="inlineStr">
@@ -16353,7 +16353,7 @@
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>1145   1147.</t>
+          <t xml:space="preserve">1145— 1147  </t>
         </is>
       </c>
       <c r="C505" t="inlineStr">
@@ -16385,7 +16385,7 @@
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>1145   1147.</t>
+          <t xml:space="preserve">1145— 1147  </t>
         </is>
       </c>
       <c r="C506" t="inlineStr">
@@ -16417,7 +16417,7 @@
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>1145   1147.</t>
+          <t xml:space="preserve">1145— 1147  </t>
         </is>
       </c>
       <c r="C507" t="inlineStr">
@@ -16449,7 +16449,7 @@
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>1145   1147.</t>
+          <t xml:space="preserve">1145— 1147  </t>
         </is>
       </c>
       <c r="C508" t="inlineStr">
@@ -16481,7 +16481,7 @@
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>1145   1147.</t>
+          <t xml:space="preserve">1145— 1147  </t>
         </is>
       </c>
       <c r="C509" t="inlineStr">
@@ -16513,7 +16513,7 @@
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>1145   1147.</t>
+          <t xml:space="preserve">1145— 1147  </t>
         </is>
       </c>
       <c r="C510" t="inlineStr">
@@ -16541,7 +16541,7 @@
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t xml:space="preserve">1147    </t>
+          <t xml:space="preserve">1147  </t>
         </is>
       </c>
       <c r="C511" t="inlineStr">
@@ -16821,7 +16821,7 @@
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t xml:space="preserve">1147 Ian–Febr.  </t>
+          <t xml:space="preserve">1147 Ian–Febr. </t>
         </is>
       </c>
       <c r="C520" t="inlineStr">
@@ -16945,7 +16945,7 @@
       </c>
       <c r="B524" t="inlineStr">
         <is>
-          <t xml:space="preserve">1147 lanS.  </t>
+          <t xml:space="preserve">1147 lanS. </t>
         </is>
       </c>
       <c r="C524" t="inlineStr">
@@ -17217,7 +17217,7 @@
       </c>
       <c r="B533" t="inlineStr">
         <is>
-          <t xml:space="preserve">1147 Marraclantaci.  </t>
+          <t xml:space="preserve">1147 Marraclantaci. </t>
         </is>
       </c>
       <c r="C533" t="inlineStr">
@@ -17333,7 +17333,7 @@
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t xml:space="preserve">1147    </t>
+          <t xml:space="preserve">1147  </t>
         </is>
       </c>
       <c r="C537" t="inlineStr">
@@ -18241,7 +18241,7 @@
       </c>
       <c r="B566" t="inlineStr">
         <is>
-          <t xml:space="preserve">1147    </t>
+          <t xml:space="preserve">1147  </t>
         </is>
       </c>
       <c r="C566" t="inlineStr">
@@ -18305,7 +18305,7 @@
       </c>
       <c r="B568" t="inlineStr">
         <is>
-          <t xml:space="preserve">1147    </t>
+          <t xml:space="preserve">1147  </t>
         </is>
       </c>
       <c r="C568" t="inlineStr">
@@ -18337,7 +18337,7 @@
       </c>
       <c r="B569" t="inlineStr">
         <is>
-          <t>1147   9.</t>
+          <t>1147  9.</t>
         </is>
       </c>
       <c r="C569" t="inlineStr">
@@ -18369,7 +18369,7 @@
       </c>
       <c r="B570" t="inlineStr">
         <is>
-          <t>1147   11.</t>
+          <t>1147  11.</t>
         </is>
       </c>
       <c r="C570" t="inlineStr">
@@ -18401,7 +18401,7 @@
       </c>
       <c r="B571" t="inlineStr">
         <is>
-          <t>1147   11.</t>
+          <t>1147  11.</t>
         </is>
       </c>
       <c r="C571" t="inlineStr">
@@ -18433,7 +18433,7 @@
       </c>
       <c r="B572" t="inlineStr">
         <is>
-          <t>1147   13.</t>
+          <t>1147  13.</t>
         </is>
       </c>
       <c r="C572" t="inlineStr">
@@ -18465,7 +18465,7 @@
       </c>
       <c r="B573" t="inlineStr">
         <is>
-          <t>1147   13.</t>
+          <t>1147  13.</t>
         </is>
       </c>
       <c r="C573" t="inlineStr">
@@ -18497,7 +18497,7 @@
       </c>
       <c r="B574" t="inlineStr">
         <is>
-          <t>1147   13.</t>
+          <t>1147  13.</t>
         </is>
       </c>
       <c r="C574" t="inlineStr">
@@ -18529,7 +18529,7 @@
       </c>
       <c r="B575" t="inlineStr">
         <is>
-          <t>1147   14.</t>
+          <t>1147  14.</t>
         </is>
       </c>
       <c r="C575" t="inlineStr">
@@ -18561,7 +18561,7 @@
       </c>
       <c r="B576" t="inlineStr">
         <is>
-          <t>1147   15.</t>
+          <t>1147  15.</t>
         </is>
       </c>
       <c r="C576" t="inlineStr">
@@ -18593,7 +18593,7 @@
       </c>
       <c r="B577" t="inlineStr">
         <is>
-          <t>1147   15.</t>
+          <t>1147  15.</t>
         </is>
       </c>
       <c r="C577" t="inlineStr">
@@ -18625,7 +18625,7 @@
       </c>
       <c r="B578" t="inlineStr">
         <is>
-          <t>1147   16.</t>
+          <t>1147  16.</t>
         </is>
       </c>
       <c r="C578" t="inlineStr">
@@ -18657,7 +18657,7 @@
       </c>
       <c r="B579" t="inlineStr">
         <is>
-          <t>1147   17.</t>
+          <t>1147  17.</t>
         </is>
       </c>
       <c r="C579" t="inlineStr">
@@ -18689,7 +18689,7 @@
       </c>
       <c r="B580" t="inlineStr">
         <is>
-          <t>1147   17.</t>
+          <t>1147  17.</t>
         </is>
       </c>
       <c r="C580" t="inlineStr">
@@ -18721,7 +18721,7 @@
       </c>
       <c r="B581" t="inlineStr">
         <is>
-          <t>1147   18.</t>
+          <t>1147  18.</t>
         </is>
       </c>
       <c r="C581" t="inlineStr">
@@ -18753,7 +18753,7 @@
       </c>
       <c r="B582" t="inlineStr">
         <is>
-          <t>1147   21.</t>
+          <t>1147  21.</t>
         </is>
       </c>
       <c r="C582" t="inlineStr">
@@ -18785,7 +18785,7 @@
       </c>
       <c r="B583" t="inlineStr">
         <is>
-          <t>1147   21.</t>
+          <t>1147  21.</t>
         </is>
       </c>
       <c r="C583" t="inlineStr">
@@ -18817,7 +18817,7 @@
       </c>
       <c r="B584" t="inlineStr">
         <is>
-          <t>1147   22.</t>
+          <t>1147  22.</t>
         </is>
       </c>
       <c r="C584" t="inlineStr">
@@ -19513,7 +19513,7 @@
       </c>
       <c r="B606" t="inlineStr">
         <is>
-          <t xml:space="preserve">1147 Arrta.  </t>
+          <t xml:space="preserve">1147 Arrta. </t>
         </is>
       </c>
       <c r="C606" t="inlineStr">
@@ -19781,7 +19781,7 @@
       </c>
       <c r="B615" t="inlineStr">
         <is>
-          <t xml:space="preserve">1147    </t>
+          <t xml:space="preserve">1147  </t>
         </is>
       </c>
       <c r="C615" t="inlineStr">
@@ -19809,7 +19809,7 @@
       </c>
       <c r="B616" t="inlineStr">
         <is>
-          <t>1147   22.</t>
+          <t>1147  22.</t>
         </is>
       </c>
       <c r="C616" t="inlineStr">
@@ -20369,7 +20369,7 @@
       </c>
       <c r="B634" t="inlineStr">
         <is>
-          <t>1147   23.</t>
+          <t>1147  23.</t>
         </is>
       </c>
       <c r="C634" t="inlineStr">
@@ -20401,7 +20401,7 @@
       </c>
       <c r="B635" t="inlineStr">
         <is>
-          <t>1147   23.</t>
+          <t>1147  23.</t>
         </is>
       </c>
       <c r="C635" t="inlineStr">
@@ -20433,7 +20433,7 @@
       </c>
       <c r="B636" t="inlineStr">
         <is>
-          <t xml:space="preserve">1147    </t>
+          <t xml:space="preserve">1147  </t>
         </is>
       </c>
       <c r="C636" t="inlineStr">
@@ -20465,7 +20465,7 @@
       </c>
       <c r="B637" t="inlineStr">
         <is>
-          <t xml:space="preserve">1147    </t>
+          <t xml:space="preserve">1147  </t>
         </is>
       </c>
       <c r="C637" t="inlineStr">
@@ -20497,7 +20497,7 @@
       </c>
       <c r="B638" t="inlineStr">
         <is>
-          <t>1147   28.</t>
+          <t>1147  28.</t>
         </is>
       </c>
       <c r="C638" t="inlineStr">
@@ -20529,7 +20529,7 @@
       </c>
       <c r="B639" t="inlineStr">
         <is>
-          <t>1147   29.</t>
+          <t>1147  29.</t>
         </is>
       </c>
       <c r="C639" t="inlineStr">
@@ -20561,7 +20561,7 @@
       </c>
       <c r="B640" t="inlineStr">
         <is>
-          <t>1147   29.</t>
+          <t>1147  29.</t>
         </is>
       </c>
       <c r="C640" t="inlineStr">
@@ -20593,7 +20593,7 @@
       </c>
       <c r="B641" t="inlineStr">
         <is>
-          <t xml:space="preserve">1147    </t>
+          <t xml:space="preserve">1147  </t>
         </is>
       </c>
       <c r="C641" t="inlineStr">
@@ -20625,7 +20625,7 @@
       </c>
       <c r="B642" t="inlineStr">
         <is>
-          <t>1147   31.</t>
+          <t>1147  31.</t>
         </is>
       </c>
       <c r="C642" t="inlineStr">
@@ -20657,7 +20657,7 @@
       </c>
       <c r="B643" t="inlineStr">
         <is>
-          <t xml:space="preserve">1147    </t>
+          <t xml:space="preserve">1147  </t>
         </is>
       </c>
       <c r="C643" t="inlineStr">
@@ -20785,7 +20785,7 @@
       </c>
       <c r="B647" t="inlineStr">
         <is>
-          <t xml:space="preserve">1147 Aug.  </t>
+          <t xml:space="preserve">1147 Aug. </t>
         </is>
       </c>
       <c r="C647" t="inlineStr">
@@ -20977,7 +20977,7 @@
       </c>
       <c r="B653" t="inlineStr">
         <is>
-          <t xml:space="preserve">1147    </t>
+          <t xml:space="preserve">1147  </t>
         </is>
       </c>
       <c r="C653" t="inlineStr">
@@ -21321,7 +21321,7 @@
       </c>
       <c r="B664" t="inlineStr">
         <is>
-          <t xml:space="preserve">1147    </t>
+          <t xml:space="preserve">1147  </t>
         </is>
       </c>
       <c r="C664" t="inlineStr">
@@ -21353,7 +21353,7 @@
       </c>
       <c r="B665" t="inlineStr">
         <is>
-          <t xml:space="preserve">1147 Sept.  </t>
+          <t xml:space="preserve">1147 Sept. </t>
         </is>
       </c>
       <c r="C665" t="inlineStr">
@@ -21481,7 +21481,7 @@
       </c>
       <c r="B669" t="inlineStr">
         <is>
-          <t>113   3.</t>
+          <t>113  3.</t>
         </is>
       </c>
       <c r="C669" t="inlineStr">
@@ -21513,7 +21513,7 @@
       </c>
       <c r="B670" t="inlineStr">
         <is>
-          <t xml:space="preserve">1147    </t>
+          <t xml:space="preserve">1147  </t>
         </is>
       </c>
       <c r="C670" t="inlineStr">
@@ -21541,7 +21541,7 @@
       </c>
       <c r="B671" t="inlineStr">
         <is>
-          <t>1147   17.</t>
+          <t>1147  17.</t>
         </is>
       </c>
       <c r="C671" t="inlineStr">
@@ -21573,7 +21573,7 @@
       </c>
       <c r="B672" t="inlineStr">
         <is>
-          <t>140   25.</t>
+          <t>140  25.</t>
         </is>
       </c>
       <c r="C672" t="inlineStr">
@@ -21605,7 +21605,7 @@
       </c>
       <c r="B673" t="inlineStr">
         <is>
-          <t>140   27.</t>
+          <t>140  27.</t>
         </is>
       </c>
       <c r="C673" t="inlineStr">
@@ -21637,7 +21637,7 @@
       </c>
       <c r="B674" t="inlineStr">
         <is>
-          <t>140   29.</t>
+          <t>140  29.</t>
         </is>
       </c>
       <c r="C674" t="inlineStr">
@@ -21669,7 +21669,7 @@
       </c>
       <c r="B675" t="inlineStr">
         <is>
-          <t xml:space="preserve">140 Oct.  </t>
+          <t xml:space="preserve">140 Oct. </t>
         </is>
       </c>
       <c r="C675" t="inlineStr">
@@ -22105,7 +22105,7 @@
       </c>
       <c r="B689" t="inlineStr">
         <is>
-          <t xml:space="preserve">1147    </t>
+          <t xml:space="preserve">1147  </t>
         </is>
       </c>
       <c r="C689" t="inlineStr">
@@ -22241,7 +22241,7 @@
       </c>
       <c r="B694" t="inlineStr">
         <is>
-          <t xml:space="preserve">1147    </t>
+          <t xml:space="preserve">1147  </t>
         </is>
       </c>
       <c r="C694" t="inlineStr">
@@ -22649,7 +22649,7 @@
       </c>
       <c r="B708" t="inlineStr">
         <is>
-          <t xml:space="preserve">1147    </t>
+          <t xml:space="preserve">1147  </t>
         </is>
       </c>
       <c r="C708" t="inlineStr">
@@ -22697,7 +22697,7 @@
       </c>
       <c r="B710" t="inlineStr">
         <is>
-          <t xml:space="preserve">170    </t>
+          <t xml:space="preserve">170  </t>
         </is>
       </c>
       <c r="C710" t="inlineStr">
@@ -22721,7 +22721,7 @@
       </c>
       <c r="B711" t="inlineStr">
         <is>
-          <t xml:space="preserve">170    </t>
+          <t xml:space="preserve">170  </t>
         </is>
       </c>
       <c r="C711" t="inlineStr">
@@ -22769,7 +22769,7 @@
       </c>
       <c r="B713" t="inlineStr">
         <is>
-          <t xml:space="preserve">171    </t>
+          <t xml:space="preserve">171  </t>
         </is>
       </c>
       <c r="C713" t="inlineStr">
@@ -22793,7 +22793,7 @@
       </c>
       <c r="B714" t="inlineStr">
         <is>
-          <t xml:space="preserve">171    </t>
+          <t xml:space="preserve">171  </t>
         </is>
       </c>
       <c r="C714" t="inlineStr">
@@ -22821,7 +22821,7 @@
       </c>
       <c r="B715" t="inlineStr">
         <is>
-          <t xml:space="preserve">171    </t>
+          <t xml:space="preserve">171  </t>
         </is>
       </c>
       <c r="C715" t="inlineStr">
@@ -22873,7 +22873,7 @@
       </c>
       <c r="B717" t="inlineStr">
         <is>
-          <t xml:space="preserve">173    </t>
+          <t xml:space="preserve">173  </t>
         </is>
       </c>
       <c r="C717" t="inlineStr">
@@ -22893,7 +22893,7 @@
       </c>
       <c r="B718" t="inlineStr">
         <is>
-          <t xml:space="preserve">173    </t>
+          <t xml:space="preserve">173  </t>
         </is>
       </c>
       <c r="C718" t="inlineStr">
@@ -22921,7 +22921,7 @@
       </c>
       <c r="B719" t="inlineStr">
         <is>
-          <t xml:space="preserve">173    </t>
+          <t xml:space="preserve">173  </t>
         </is>
       </c>
       <c r="C719" t="inlineStr">
@@ -23385,7 +23385,7 @@
       </c>
       <c r="B734" t="inlineStr">
         <is>
-          <t xml:space="preserve">1148    </t>
+          <t xml:space="preserve">1148  </t>
         </is>
       </c>
       <c r="C734" t="inlineStr">
@@ -23417,7 +23417,7 @@
       </c>
       <c r="B735" t="inlineStr">
         <is>
-          <t xml:space="preserve">1148    </t>
+          <t xml:space="preserve">1148  </t>
         </is>
       </c>
       <c r="C735" t="inlineStr">
@@ -23449,7 +23449,7 @@
       </c>
       <c r="B736" t="inlineStr">
         <is>
-          <t xml:space="preserve">1148    </t>
+          <t xml:space="preserve">1148  </t>
         </is>
       </c>
       <c r="C736" t="inlineStr">
@@ -23481,7 +23481,7 @@
       </c>
       <c r="B737" t="inlineStr">
         <is>
-          <t xml:space="preserve">1148    </t>
+          <t xml:space="preserve">1148  </t>
         </is>
       </c>
       <c r="C737" t="inlineStr">
@@ -23577,7 +23577,7 @@
       </c>
       <c r="B740" t="inlineStr">
         <is>
-          <t>1148   26.</t>
+          <t>1148  26.</t>
         </is>
       </c>
       <c r="C740" t="inlineStr">
@@ -23609,7 +23609,7 @@
       </c>
       <c r="B741" t="inlineStr">
         <is>
-          <t xml:space="preserve">1148    </t>
+          <t xml:space="preserve">1148  </t>
         </is>
       </c>
       <c r="C741" t="inlineStr">
@@ -23729,7 +23729,7 @@
       </c>
       <c r="B745" t="inlineStr">
         <is>
-          <t xml:space="preserve">1148    </t>
+          <t xml:space="preserve">1148  </t>
         </is>
       </c>
       <c r="C745" t="inlineStr">
@@ -23761,7 +23761,7 @@
       </c>
       <c r="B746" t="inlineStr">
         <is>
-          <t>1148   18.</t>
+          <t>1148  18.</t>
         </is>
       </c>
       <c r="C746" t="inlineStr">
@@ -24229,7 +24229,7 @@
       </c>
       <c r="B761" t="inlineStr">
         <is>
-          <t xml:space="preserve">1148 Apr Mai.  </t>
+          <t xml:space="preserve">1148 Apr Mai. </t>
         </is>
       </c>
       <c r="C761" t="inlineStr">
@@ -25309,7 +25309,7 @@
       </c>
       <c r="B795" t="inlineStr">
         <is>
-          <t xml:space="preserve">1148    </t>
+          <t xml:space="preserve">1148  </t>
         </is>
       </c>
       <c r="C795" t="inlineStr">
@@ -25341,7 +25341,7 @@
       </c>
       <c r="B796" t="inlineStr">
         <is>
-          <t>1148   20.</t>
+          <t>1148  20.</t>
         </is>
       </c>
       <c r="C796" t="inlineStr">
@@ -25373,7 +25373,7 @@
       </c>
       <c r="B797" t="inlineStr">
         <is>
-          <t xml:space="preserve">1148    </t>
+          <t xml:space="preserve">1148  </t>
         </is>
       </c>
       <c r="C797" t="inlineStr">
@@ -25405,7 +25405,7 @@
       </c>
       <c r="B798" t="inlineStr">
         <is>
-          <t>1148   25.</t>
+          <t>1148  25.</t>
         </is>
       </c>
       <c r="C798" t="inlineStr">
@@ -26025,7 +26025,7 @@
       </c>
       <c r="B818" t="inlineStr">
         <is>
-          <t xml:space="preserve">1148    </t>
+          <t xml:space="preserve">1148  </t>
         </is>
       </c>
       <c r="C818" t="inlineStr">
@@ -26057,7 +26057,7 @@
       </c>
       <c r="B819" t="inlineStr">
         <is>
-          <t xml:space="preserve">1148    </t>
+          <t xml:space="preserve">1148  </t>
         </is>
       </c>
       <c r="C819" t="inlineStr">
@@ -26085,7 +26085,7 @@
       </c>
       <c r="B820" t="inlineStr">
         <is>
-          <t xml:space="preserve">1148    </t>
+          <t xml:space="preserve">1148  </t>
         </is>
       </c>
       <c r="C820" t="inlineStr">
@@ -26433,7 +26433,7 @@
       </c>
       <c r="B832" t="inlineStr">
         <is>
-          <t xml:space="preserve">1148    </t>
+          <t xml:space="preserve">1148  </t>
         </is>
       </c>
       <c r="C832" t="inlineStr">
@@ -26749,7 +26749,7 @@
       </c>
       <c r="B842" t="inlineStr">
         <is>
-          <t xml:space="preserve">1148    </t>
+          <t xml:space="preserve">1148  </t>
         </is>
       </c>
       <c r="C842" t="inlineStr">
@@ -26813,7 +26813,7 @@
       </c>
       <c r="B844" t="inlineStr">
         <is>
-          <t>1148   23.</t>
+          <t>1148  23.</t>
         </is>
       </c>
       <c r="C844" t="inlineStr">
@@ -26869,7 +26869,7 @@
       </c>
       <c r="B846" t="inlineStr">
         <is>
-          <t>1148   29.</t>
+          <t>1148  29.</t>
         </is>
       </c>
       <c r="C846" t="inlineStr">
@@ -26925,7 +26925,7 @@
       </c>
       <c r="B848" t="inlineStr">
         <is>
-          <t xml:space="preserve">1148    </t>
+          <t xml:space="preserve">1148  </t>
         </is>
       </c>
       <c r="C848" t="inlineStr">
@@ -26957,7 +26957,7 @@
       </c>
       <c r="B849" t="inlineStr">
         <is>
-          <t xml:space="preserve">1148    </t>
+          <t xml:space="preserve">1148  </t>
         </is>
       </c>
       <c r="C849" t="inlineStr">
@@ -26989,7 +26989,7 @@
       </c>
       <c r="B850" t="inlineStr">
         <is>
-          <t xml:space="preserve">1148    </t>
+          <t xml:space="preserve">1148  </t>
         </is>
       </c>
       <c r="C850" t="inlineStr">
@@ -27021,7 +27021,7 @@
       </c>
       <c r="B851" t="inlineStr">
         <is>
-          <t xml:space="preserve">1148    </t>
+          <t xml:space="preserve">1148  </t>
         </is>
       </c>
       <c r="C851" t="inlineStr">
@@ -27053,7 +27053,7 @@
       </c>
       <c r="B852" t="inlineStr">
         <is>
-          <t>1145   1149.</t>
+          <t xml:space="preserve">1145—1149  </t>
         </is>
       </c>
       <c r="C852" t="inlineStr">
@@ -27085,7 +27085,7 @@
       </c>
       <c r="B853" t="inlineStr">
         <is>
-          <t>1145   1149.</t>
+          <t xml:space="preserve">1145—1149  </t>
         </is>
       </c>
       <c r="C853" t="inlineStr">
@@ -27309,7 +27309,7 @@
       </c>
       <c r="B860" t="inlineStr">
         <is>
-          <t xml:space="preserve">1149 Febr.  </t>
+          <t xml:space="preserve">1149 Febr. </t>
         </is>
       </c>
       <c r="C860" t="inlineStr">
@@ -27917,7 +27917,7 @@
       </c>
       <c r="B879" t="inlineStr">
         <is>
-          <t xml:space="preserve">1149    </t>
+          <t xml:space="preserve">1149  </t>
         </is>
       </c>
       <c r="C879" t="inlineStr">
@@ -27949,7 +27949,7 @@
       </c>
       <c r="B880" t="inlineStr">
         <is>
-          <t xml:space="preserve">1149    </t>
+          <t xml:space="preserve">1149  </t>
         </is>
       </c>
       <c r="C880" t="inlineStr">
@@ -28269,7 +28269,7 @@
       </c>
       <c r="B890" t="inlineStr">
         <is>
-          <t xml:space="preserve">1149    </t>
+          <t xml:space="preserve">1149  </t>
         </is>
       </c>
       <c r="C890" t="inlineStr">
@@ -28301,7 +28301,7 @@
       </c>
       <c r="B891" t="inlineStr">
         <is>
-          <t xml:space="preserve">1149    </t>
+          <t xml:space="preserve">1149  </t>
         </is>
       </c>
       <c r="C891" t="inlineStr">
@@ -28333,7 +28333,7 @@
       </c>
       <c r="B892" t="inlineStr">
         <is>
-          <t xml:space="preserve">1149    </t>
+          <t xml:space="preserve">1149  </t>
         </is>
       </c>
       <c r="C892" t="inlineStr">
@@ -28365,7 +28365,7 @@
       </c>
       <c r="B893" t="inlineStr">
         <is>
-          <t xml:space="preserve">1149 Xonr.  </t>
+          <t xml:space="preserve">1149 Xonr. </t>
         </is>
       </c>
       <c r="C893" t="inlineStr">
@@ -28397,7 +28397,7 @@
       </c>
       <c r="B894" t="inlineStr">
         <is>
-          <t xml:space="preserve">1149 Xonr.  </t>
+          <t xml:space="preserve">1149 Xonr. </t>
         </is>
       </c>
       <c r="C894" t="inlineStr">
@@ -28649,7 +28649,7 @@
       </c>
       <c r="B902" t="inlineStr">
         <is>
-          <t xml:space="preserve">1149    </t>
+          <t xml:space="preserve">1149  </t>
         </is>
       </c>
       <c r="C902" t="inlineStr">
@@ -28681,7 +28681,7 @@
       </c>
       <c r="B903" t="inlineStr">
         <is>
-          <t xml:space="preserve">1149    </t>
+          <t xml:space="preserve">1149  </t>
         </is>
       </c>
       <c r="C903" t="inlineStr">
@@ -28713,7 +28713,7 @@
       </c>
       <c r="B904" t="inlineStr">
         <is>
-          <t xml:space="preserve">1149    </t>
+          <t xml:space="preserve">1149  </t>
         </is>
       </c>
       <c r="C904" t="inlineStr">
@@ -28745,7 +28745,7 @@
       </c>
       <c r="B905" t="inlineStr">
         <is>
-          <t xml:space="preserve">1149    </t>
+          <t xml:space="preserve">1149  </t>
         </is>
       </c>
       <c r="C905" t="inlineStr">
@@ -28773,7 +28773,7 @@
       </c>
       <c r="B906" t="inlineStr">
         <is>
-          <t>1145   1150.</t>
+          <t xml:space="preserve">1145— 1150  </t>
         </is>
       </c>
       <c r="C906" t="inlineStr">
@@ -29313,7 +29313,7 @@
       </c>
       <c r="B923" t="inlineStr">
         <is>
-          <t xml:space="preserve">1150    </t>
+          <t xml:space="preserve">1150  </t>
         </is>
       </c>
       <c r="C923" t="inlineStr">
@@ -29761,7 +29761,7 @@
       </c>
       <c r="B937" t="inlineStr">
         <is>
-          <t xml:space="preserve">1150    </t>
+          <t xml:space="preserve">1150  </t>
         </is>
       </c>
       <c r="C937" t="inlineStr">
@@ -29793,7 +29793,7 @@
       </c>
       <c r="B938" t="inlineStr">
         <is>
-          <t xml:space="preserve">1150    </t>
+          <t xml:space="preserve">1150  </t>
         </is>
       </c>
       <c r="C938" t="inlineStr">
@@ -29825,7 +29825,7 @@
       </c>
       <c r="B939" t="inlineStr">
         <is>
-          <t xml:space="preserve">1150    </t>
+          <t xml:space="preserve">1150  </t>
         </is>
       </c>
       <c r="C939" t="inlineStr">
@@ -29857,7 +29857,7 @@
       </c>
       <c r="B940" t="inlineStr">
         <is>
-          <t xml:space="preserve">1150    </t>
+          <t xml:space="preserve">1150  </t>
         </is>
       </c>
       <c r="C940" t="inlineStr">
@@ -29881,7 +29881,7 @@
       </c>
       <c r="B941" t="inlineStr">
         <is>
-          <t xml:space="preserve">1150    </t>
+          <t xml:space="preserve">1150  </t>
         </is>
       </c>
       <c r="C941" t="inlineStr">
@@ -30065,7 +30065,7 @@
       </c>
       <c r="B947" t="inlineStr">
         <is>
-          <t xml:space="preserve">1150    </t>
+          <t xml:space="preserve">1150  </t>
         </is>
       </c>
       <c r="C947" t="inlineStr">
@@ -30097,7 +30097,7 @@
       </c>
       <c r="B948" t="inlineStr">
         <is>
-          <t xml:space="preserve">1150    </t>
+          <t xml:space="preserve">1150  </t>
         </is>
       </c>
       <c r="C948" t="inlineStr">
@@ -30257,7 +30257,7 @@
       </c>
       <c r="B953" t="inlineStr">
         <is>
-          <t xml:space="preserve">1150    </t>
+          <t xml:space="preserve">1150  </t>
         </is>
       </c>
       <c r="C953" t="inlineStr">
@@ -30733,7 +30733,7 @@
       </c>
       <c r="B968" t="inlineStr">
         <is>
-          <t xml:space="preserve">1150    </t>
+          <t xml:space="preserve">1150  </t>
         </is>
       </c>
       <c r="C968" t="inlineStr">
@@ -30765,7 +30765,7 @@
       </c>
       <c r="B969" t="inlineStr">
         <is>
-          <t xml:space="preserve">1150    </t>
+          <t xml:space="preserve">1150  </t>
         </is>
       </c>
       <c r="C969" t="inlineStr">
@@ -30789,7 +30789,7 @@
       </c>
       <c r="B970" t="inlineStr">
         <is>
-          <t xml:space="preserve">1150    </t>
+          <t xml:space="preserve">1150  </t>
         </is>
       </c>
       <c r="C970" t="inlineStr">
@@ -30821,7 +30821,7 @@
       </c>
       <c r="B971" t="inlineStr">
         <is>
-          <t xml:space="preserve">1150    </t>
+          <t xml:space="preserve">1150  </t>
         </is>
       </c>
       <c r="C971" t="inlineStr">
@@ -30853,7 +30853,7 @@
       </c>
       <c r="B972" t="inlineStr">
         <is>
-          <t xml:space="preserve">1150    </t>
+          <t xml:space="preserve">1150  </t>
         </is>
       </c>
       <c r="C972" t="inlineStr">
@@ -30885,7 +30885,7 @@
       </c>
       <c r="B973" t="inlineStr">
         <is>
-          <t xml:space="preserve">1150    </t>
+          <t xml:space="preserve">1150  </t>
         </is>
       </c>
       <c r="C973" t="inlineStr">
@@ -30913,7 +30913,7 @@
       </c>
       <c r="B974" t="inlineStr">
         <is>
-          <t xml:space="preserve">nan    </t>
+          <t xml:space="preserve"> Ian. </t>
         </is>
       </c>
       <c r="C974" t="inlineStr">
@@ -30941,7 +30941,7 @@
       </c>
       <c r="B975" t="inlineStr">
         <is>
-          <t>1145   1151.</t>
+          <t xml:space="preserve">1145— 1151  </t>
         </is>
       </c>
       <c r="C975" t="inlineStr">
@@ -30973,7 +30973,7 @@
       </c>
       <c r="B976" t="inlineStr">
         <is>
-          <t>1145   1151.</t>
+          <t xml:space="preserve">1145— 1151  </t>
         </is>
       </c>
       <c r="C976" t="inlineStr">
@@ -31005,7 +31005,7 @@
       </c>
       <c r="B977" t="inlineStr">
         <is>
-          <t>1145   1151.</t>
+          <t xml:space="preserve">1145— 1151  </t>
         </is>
       </c>
       <c r="C977" t="inlineStr">
@@ -31037,7 +31037,7 @@
       </c>
       <c r="B978" t="inlineStr">
         <is>
-          <t>1150 Ner. 115116.</t>
+          <t>1150—1151 Ner. 16.</t>
         </is>
       </c>
       <c r="C978" t="inlineStr">
@@ -31069,7 +31069,7 @@
       </c>
       <c r="B979" t="inlineStr">
         <is>
-          <t>1150 Ner. 115111.</t>
+          <t>1150—1151 Ner. 11.</t>
         </is>
       </c>
       <c r="C979" t="inlineStr">
@@ -31101,7 +31101,7 @@
       </c>
       <c r="B980" t="inlineStr">
         <is>
-          <t xml:space="preserve">1151    </t>
+          <t xml:space="preserve">1151  </t>
         </is>
       </c>
       <c r="C980" t="inlineStr">
@@ -31353,7 +31353,7 @@
       </c>
       <c r="B988" t="inlineStr">
         <is>
-          <t xml:space="preserve">1151    </t>
+          <t xml:space="preserve">1151  </t>
         </is>
       </c>
       <c r="C988" t="inlineStr">
@@ -31545,7 +31545,7 @@
       </c>
       <c r="B994" t="inlineStr">
         <is>
-          <t xml:space="preserve">1151    </t>
+          <t xml:space="preserve">1151  </t>
         </is>
       </c>
       <c r="C994" t="inlineStr">
@@ -31577,7 +31577,7 @@
       </c>
       <c r="B995" t="inlineStr">
         <is>
-          <t>1151   25.</t>
+          <t>1151  25.</t>
         </is>
       </c>
       <c r="C995" t="inlineStr">
@@ -31609,7 +31609,7 @@
       </c>
       <c r="B996" t="inlineStr">
         <is>
-          <t>1151   25.</t>
+          <t>1151  25.</t>
         </is>
       </c>
       <c r="C996" t="inlineStr">
@@ -32145,7 +32145,7 @@
       </c>
       <c r="B1013" t="inlineStr">
         <is>
-          <t>1151 Apr. 20.</t>
+          <t>1151 (Apr). 20.</t>
         </is>
       </c>
       <c r="C1013" t="inlineStr">
@@ -32273,7 +32273,7 @@
       </c>
       <c r="B1017" t="inlineStr">
         <is>
-          <t>1151 Apr. 20.</t>
+          <t>1151 (Apr). 20.</t>
         </is>
       </c>
       <c r="C1017" t="inlineStr">
@@ -32649,7 +32649,7 @@
       </c>
       <c r="B1029" t="inlineStr">
         <is>
-          <t>1151 Iun. 6.</t>
+          <t>1151 lun(). 6.</t>
         </is>
       </c>
       <c r="C1029" t="inlineStr">
@@ -32745,7 +32745,7 @@
       </c>
       <c r="B1032" t="inlineStr">
         <is>
-          <t xml:space="preserve">1151    </t>
+          <t xml:space="preserve">1151  </t>
         </is>
       </c>
       <c r="C1032" t="inlineStr">
@@ -32777,7 +32777,7 @@
       </c>
       <c r="B1033" t="inlineStr">
         <is>
-          <t xml:space="preserve">1151    </t>
+          <t xml:space="preserve">1151  </t>
         </is>
       </c>
       <c r="C1033" t="inlineStr">
@@ -33153,7 +33153,7 @@
       </c>
       <c r="B1045" t="inlineStr">
         <is>
-          <t xml:space="preserve">1151    </t>
+          <t xml:space="preserve">1151  </t>
         </is>
       </c>
       <c r="C1045" t="inlineStr">
@@ -33185,7 +33185,7 @@
       </c>
       <c r="B1046" t="inlineStr">
         <is>
-          <t xml:space="preserve">1151    </t>
+          <t xml:space="preserve">1151  </t>
         </is>
       </c>
       <c r="C1046" t="inlineStr">
@@ -33213,7 +33213,7 @@
       </c>
       <c r="B1047" t="inlineStr">
         <is>
-          <t>1145 Sept. 115222.</t>
+          <t>1145—1152 Sept. 22.</t>
         </is>
       </c>
       <c r="C1047" t="inlineStr">
@@ -33245,7 +33245,7 @@
       </c>
       <c r="B1048" t="inlineStr">
         <is>
-          <t>1150 lutSigniae. 115227.</t>
+          <t>1150—1152 lutSigniae. 27.</t>
         </is>
       </c>
       <c r="C1048" t="inlineStr">
@@ -33277,7 +33277,7 @@
       </c>
       <c r="B1049" t="inlineStr">
         <is>
-          <t>1150 Aug. 115221.</t>
+          <t>1150—1152 Aug. 21.</t>
         </is>
       </c>
       <c r="C1049" t="inlineStr">
@@ -33309,7 +33309,7 @@
       </c>
       <c r="B1050" t="inlineStr">
         <is>
-          <t>1150 Oct. 11525.</t>
+          <t>1150—1152 Oct. 5.</t>
         </is>
       </c>
       <c r="C1050" t="inlineStr">
@@ -33341,7 +33341,7 @@
       </c>
       <c r="B1051" t="inlineStr">
         <is>
-          <t>1150   1152.</t>
+          <t xml:space="preserve">1150—1152  </t>
         </is>
       </c>
       <c r="C1051" t="inlineStr">
@@ -33369,7 +33369,7 @@
       </c>
       <c r="B1052" t="inlineStr">
         <is>
-          <t>1151 Sept. 115225.</t>
+          <t>1151—1152 Sept. 25.</t>
         </is>
       </c>
       <c r="C1052" t="inlineStr">
@@ -33401,7 +33401,7 @@
       </c>
       <c r="B1053" t="inlineStr">
         <is>
-          <t>1151   1152.</t>
+          <t xml:space="preserve">1151—1152  </t>
         </is>
       </c>
       <c r="C1053" t="inlineStr">
@@ -33429,7 +33429,7 @@
       </c>
       <c r="B1054" t="inlineStr">
         <is>
-          <t>1151   1152.</t>
+          <t xml:space="preserve">1151—1152  </t>
         </is>
       </c>
       <c r="C1054" t="inlineStr">
@@ -33457,7 +33457,7 @@
       </c>
       <c r="B1055" t="inlineStr">
         <is>
-          <t xml:space="preserve">1152    </t>
+          <t xml:space="preserve">1152  </t>
         </is>
       </c>
       <c r="C1055" t="inlineStr">
@@ -33517,7 +33517,7 @@
       </c>
       <c r="B1057" t="inlineStr">
         <is>
-          <t xml:space="preserve">1152 LanS.  </t>
+          <t xml:space="preserve">1152 LanS. </t>
         </is>
       </c>
       <c r="C1057" t="inlineStr">
@@ -33929,7 +33929,7 @@
       </c>
       <c r="B1070" t="inlineStr">
         <is>
-          <t xml:space="preserve">1152    </t>
+          <t xml:space="preserve">1152  </t>
         </is>
       </c>
       <c r="C1070" t="inlineStr">
@@ -33961,7 +33961,7 @@
       </c>
       <c r="B1071" t="inlineStr">
         <is>
-          <t>1152   2.</t>
+          <t>1152  2.</t>
         </is>
       </c>
       <c r="C1071" t="inlineStr">
@@ -33989,7 +33989,7 @@
       </c>
       <c r="B1072" t="inlineStr">
         <is>
-          <t>1152   9.</t>
+          <t>1152  9.</t>
         </is>
       </c>
       <c r="C1072" t="inlineStr">
@@ -34021,7 +34021,7 @@
       </c>
       <c r="B1073" t="inlineStr">
         <is>
-          <t>1152   9.</t>
+          <t>1152  9.</t>
         </is>
       </c>
       <c r="C1073" t="inlineStr">
@@ -34053,7 +34053,7 @@
       </c>
       <c r="B1074" t="inlineStr">
         <is>
-          <t>1152   15.</t>
+          <t>1152  15.</t>
         </is>
       </c>
       <c r="C1074" t="inlineStr">
@@ -34085,7 +34085,7 @@
       </c>
       <c r="B1075" t="inlineStr">
         <is>
-          <t>1152   15.</t>
+          <t>1152  15.</t>
         </is>
       </c>
       <c r="C1075" t="inlineStr">
@@ -34117,7 +34117,7 @@
       </c>
       <c r="B1076" t="inlineStr">
         <is>
-          <t>1152   19.</t>
+          <t>1152  19.</t>
         </is>
       </c>
       <c r="C1076" t="inlineStr">
@@ -34149,7 +34149,7 @@
       </c>
       <c r="B1077" t="inlineStr">
         <is>
-          <t>1152   19.</t>
+          <t>1152  19.</t>
         </is>
       </c>
       <c r="C1077" t="inlineStr">
@@ -34181,7 +34181,7 @@
       </c>
       <c r="B1078" t="inlineStr">
         <is>
-          <t>1152   20.</t>
+          <t>1152  20.</t>
         </is>
       </c>
       <c r="C1078" t="inlineStr">
@@ -34213,7 +34213,7 @@
       </c>
       <c r="B1079" t="inlineStr">
         <is>
-          <t>1152   20.</t>
+          <t>1152  20.</t>
         </is>
       </c>
       <c r="C1079" t="inlineStr">
@@ -34245,7 +34245,7 @@
       </c>
       <c r="B1080" t="inlineStr">
         <is>
-          <t>1152   21.</t>
+          <t>1152  21.</t>
         </is>
       </c>
       <c r="C1080" t="inlineStr">
@@ -34277,7 +34277,7 @@
       </c>
       <c r="B1081" t="inlineStr">
         <is>
-          <t>1152   24.</t>
+          <t>1152  24.</t>
         </is>
       </c>
       <c r="C1081" t="inlineStr">
@@ -34309,7 +34309,7 @@
       </c>
       <c r="B1082" t="inlineStr">
         <is>
-          <t>1152   26.</t>
+          <t>1152  26.</t>
         </is>
       </c>
       <c r="C1082" t="inlineStr">
@@ -34337,7 +34337,7 @@
       </c>
       <c r="B1083" t="inlineStr">
         <is>
-          <t>1152   27.</t>
+          <t>1152  27.</t>
         </is>
       </c>
       <c r="C1083" t="inlineStr">
@@ -34369,7 +34369,7 @@
       </c>
       <c r="B1084" t="inlineStr">
         <is>
-          <t>1152   27.</t>
+          <t>1152  27.</t>
         </is>
       </c>
       <c r="C1084" t="inlineStr">
@@ -34465,7 +34465,7 @@
       </c>
       <c r="B1087" t="inlineStr">
         <is>
-          <t xml:space="preserve">1152    </t>
+          <t xml:space="preserve">1152  </t>
         </is>
       </c>
       <c r="C1087" t="inlineStr">
@@ -34657,7 +34657,7 @@
       </c>
       <c r="B1093" t="inlineStr">
         <is>
-          <t xml:space="preserve">1152    </t>
+          <t xml:space="preserve">1152  </t>
         </is>
       </c>
       <c r="C1093" t="inlineStr">
@@ -34689,7 +34689,7 @@
       </c>
       <c r="B1094" t="inlineStr">
         <is>
-          <t xml:space="preserve">1152    </t>
+          <t xml:space="preserve">1152  </t>
         </is>
       </c>
       <c r="C1094" t="inlineStr">
@@ -34721,7 +34721,7 @@
       </c>
       <c r="B1095" t="inlineStr">
         <is>
-          <t xml:space="preserve">1152    </t>
+          <t xml:space="preserve">1152  </t>
         </is>
       </c>
       <c r="C1095" t="inlineStr">
@@ -34753,7 +34753,7 @@
       </c>
       <c r="B1096" t="inlineStr">
         <is>
-          <t>1152   11.</t>
+          <t>1152  11.</t>
         </is>
       </c>
       <c r="C1096" t="inlineStr">
@@ -34785,7 +34785,7 @@
       </c>
       <c r="B1097" t="inlineStr">
         <is>
-          <t>1152   11.</t>
+          <t>1152  11.</t>
         </is>
       </c>
       <c r="C1097" t="inlineStr">
@@ -34817,7 +34817,7 @@
       </c>
       <c r="B1098" t="inlineStr">
         <is>
-          <t>1152   14.</t>
+          <t>1152  14.</t>
         </is>
       </c>
       <c r="C1098" t="inlineStr">
@@ -34849,7 +34849,7 @@
       </c>
       <c r="B1099" t="inlineStr">
         <is>
-          <t>1152   20.</t>
+          <t>1152  20.</t>
         </is>
       </c>
       <c r="C1099" t="inlineStr">
@@ -35105,7 +35105,7 @@
       </c>
       <c r="B1107" t="inlineStr">
         <is>
-          <t xml:space="preserve">1152    </t>
+          <t xml:space="preserve">1152  </t>
         </is>
       </c>
       <c r="C1107" t="inlineStr">
@@ -35961,7 +35961,7 @@
       </c>
       <c r="B1134" t="inlineStr">
         <is>
-          <t xml:space="preserve">1152 (ra.  </t>
+          <t xml:space="preserve">1152 (ra. </t>
         </is>
       </c>
       <c r="C1134" t="inlineStr">
@@ -36121,7 +36121,7 @@
       </c>
       <c r="B1139" t="inlineStr">
         <is>
-          <t xml:space="preserve">1152    </t>
+          <t xml:space="preserve">1152  </t>
         </is>
       </c>
       <c r="C1139" t="inlineStr">
@@ -36153,7 +36153,7 @@
       </c>
       <c r="B1140" t="inlineStr">
         <is>
-          <t xml:space="preserve">1152    </t>
+          <t xml:space="preserve">1152  </t>
         </is>
       </c>
       <c r="C1140" t="inlineStr">
@@ -36185,7 +36185,7 @@
       </c>
       <c r="B1141" t="inlineStr">
         <is>
-          <t xml:space="preserve">1152    </t>
+          <t xml:space="preserve">1152  </t>
         </is>
       </c>
       <c r="C1141" t="inlineStr">
@@ -36345,7 +36345,7 @@
       </c>
       <c r="B1146" t="inlineStr">
         <is>
-          <t xml:space="preserve">1152    </t>
+          <t xml:space="preserve">1152  </t>
         </is>
       </c>
       <c r="C1146" t="inlineStr">
@@ -36377,7 +36377,7 @@
       </c>
       <c r="B1147" t="inlineStr">
         <is>
-          <t xml:space="preserve">1152    </t>
+          <t xml:space="preserve">1152  </t>
         </is>
       </c>
       <c r="C1147" t="inlineStr">
@@ -36409,7 +36409,7 @@
       </c>
       <c r="B1148" t="inlineStr">
         <is>
-          <t>1152   20.</t>
+          <t>1152  20.</t>
         </is>
       </c>
       <c r="C1148" t="inlineStr">
@@ -36441,7 +36441,7 @@
       </c>
       <c r="B1149" t="inlineStr">
         <is>
-          <t>1152   27.</t>
+          <t>1152  27.</t>
         </is>
       </c>
       <c r="C1149" t="inlineStr">
@@ -37061,7 +37061,7 @@
       </c>
       <c r="B1169" t="inlineStr">
         <is>
-          <t xml:space="preserve">1152    </t>
+          <t xml:space="preserve">1152  </t>
         </is>
       </c>
       <c r="C1169" t="inlineStr">
@@ -37093,7 +37093,7 @@
       </c>
       <c r="B1170" t="inlineStr">
         <is>
-          <t xml:space="preserve">1152    </t>
+          <t xml:space="preserve">1152  </t>
         </is>
       </c>
       <c r="C1170" t="inlineStr">
@@ -37125,7 +37125,7 @@
       </c>
       <c r="B1171" t="inlineStr">
         <is>
-          <t xml:space="preserve">1152    </t>
+          <t xml:space="preserve">1152  </t>
         </is>
       </c>
       <c r="C1171" t="inlineStr">
@@ -37157,7 +37157,7 @@
       </c>
       <c r="B1172" t="inlineStr">
         <is>
-          <t>1145   1153.</t>
+          <t xml:space="preserve">1145—1153  </t>
         </is>
       </c>
       <c r="C1172" t="inlineStr">
@@ -37189,7 +37189,7 @@
       </c>
       <c r="B1173" t="inlineStr">
         <is>
-          <t>1145   1153.</t>
+          <t xml:space="preserve">1145—1153  </t>
         </is>
       </c>
       <c r="C1173" t="inlineStr">
@@ -37221,7 +37221,7 @@
       </c>
       <c r="B1174" t="inlineStr">
         <is>
-          <t>1145   1153.</t>
+          <t xml:space="preserve">1145—1153  </t>
         </is>
       </c>
       <c r="C1174" t="inlineStr">
@@ -37253,7 +37253,7 @@
       </c>
       <c r="B1175" t="inlineStr">
         <is>
-          <t>1145   1153.</t>
+          <t xml:space="preserve">1145—1153  </t>
         </is>
       </c>
       <c r="C1175" t="inlineStr">
@@ -37285,7 +37285,7 @@
       </c>
       <c r="B1176" t="inlineStr">
         <is>
-          <t>1145   1153.</t>
+          <t xml:space="preserve">1145— 1153  </t>
         </is>
       </c>
       <c r="C1176" t="inlineStr">
@@ -37317,7 +37317,7 @@
       </c>
       <c r="B1177" t="inlineStr">
         <is>
-          <t>1145   1153.</t>
+          <t xml:space="preserve">1145— 1153  </t>
         </is>
       </c>
       <c r="C1177" t="inlineStr">
@@ -37349,7 +37349,7 @@
       </c>
       <c r="B1178" t="inlineStr">
         <is>
-          <t>1145   1153.</t>
+          <t xml:space="preserve">1145— 1153  </t>
         </is>
       </c>
       <c r="C1178" t="inlineStr">
@@ -37381,7 +37381,7 @@
       </c>
       <c r="B1179" t="inlineStr">
         <is>
-          <t>1145   1153.</t>
+          <t xml:space="preserve">1145— 1153  </t>
         </is>
       </c>
       <c r="C1179" t="inlineStr">
@@ -37413,7 +37413,7 @@
       </c>
       <c r="B1180" t="inlineStr">
         <is>
-          <t>1145   1153.</t>
+          <t xml:space="preserve">1145— 1153  </t>
         </is>
       </c>
       <c r="C1180" t="inlineStr">
@@ -37445,7 +37445,7 @@
       </c>
       <c r="B1181" t="inlineStr">
         <is>
-          <t>1145   1153.</t>
+          <t xml:space="preserve">1145— 1153  </t>
         </is>
       </c>
       <c r="C1181" t="inlineStr">
@@ -37477,7 +37477,7 @@
       </c>
       <c r="B1182" t="inlineStr">
         <is>
-          <t>1145   1153.</t>
+          <t xml:space="preserve">1145— 1153  </t>
         </is>
       </c>
       <c r="C1182" t="inlineStr">
@@ -37509,7 +37509,7 @@
       </c>
       <c r="B1183" t="inlineStr">
         <is>
-          <t>1145   1153.</t>
+          <t xml:space="preserve">1145— 1153  </t>
         </is>
       </c>
       <c r="C1183" t="inlineStr">
@@ -37541,7 +37541,7 @@
       </c>
       <c r="B1184" t="inlineStr">
         <is>
-          <t>1145   1153.</t>
+          <t xml:space="preserve">1145— 1153  </t>
         </is>
       </c>
       <c r="C1184" t="inlineStr">
@@ -37573,7 +37573,7 @@
       </c>
       <c r="B1185" t="inlineStr">
         <is>
-          <t>1145   1153.</t>
+          <t xml:space="preserve">1145— 1153  </t>
         </is>
       </c>
       <c r="C1185" t="inlineStr">
@@ -37605,7 +37605,7 @@
       </c>
       <c r="B1186" t="inlineStr">
         <is>
-          <t>1145   1153.</t>
+          <t xml:space="preserve">1145— 1153  </t>
         </is>
       </c>
       <c r="C1186" t="inlineStr">
@@ -37637,7 +37637,7 @@
       </c>
       <c r="B1187" t="inlineStr">
         <is>
-          <t>1145   1153.</t>
+          <t xml:space="preserve">1145— 1153  </t>
         </is>
       </c>
       <c r="C1187" t="inlineStr">
@@ -37669,7 +37669,7 @@
       </c>
       <c r="B1188" t="inlineStr">
         <is>
-          <t>1145   1153.</t>
+          <t xml:space="preserve">1145— 1153  </t>
         </is>
       </c>
       <c r="C1188" t="inlineStr">
@@ -37701,7 +37701,7 @@
       </c>
       <c r="B1189" t="inlineStr">
         <is>
-          <t>1145   1153.</t>
+          <t xml:space="preserve">1145— 1153  </t>
         </is>
       </c>
       <c r="C1189" t="inlineStr">
@@ -37733,7 +37733,7 @@
       </c>
       <c r="B1190" t="inlineStr">
         <is>
-          <t>1145   1153.</t>
+          <t xml:space="preserve">1145— 1153  </t>
         </is>
       </c>
       <c r="C1190" t="inlineStr">
@@ -37765,7 +37765,7 @@
       </c>
       <c r="B1191" t="inlineStr">
         <is>
-          <t>1145   1153.</t>
+          <t xml:space="preserve">1145— 1153  </t>
         </is>
       </c>
       <c r="C1191" t="inlineStr">
@@ -37797,7 +37797,7 @@
       </c>
       <c r="B1192" t="inlineStr">
         <is>
-          <t>1145   1153.</t>
+          <t xml:space="preserve">1145— 1153  </t>
         </is>
       </c>
       <c r="C1192" t="inlineStr">
@@ -37829,7 +37829,7 @@
       </c>
       <c r="B1193" t="inlineStr">
         <is>
-          <t>1145   1153.</t>
+          <t xml:space="preserve">1145— 1153  </t>
         </is>
       </c>
       <c r="C1193" t="inlineStr">
@@ -37857,7 +37857,7 @@
       </c>
       <c r="B1194" t="inlineStr">
         <is>
-          <t>1146 Ian. 115317.</t>
+          <t>1146— 1153 Ian. 17.</t>
         </is>
       </c>
       <c r="C1194" t="inlineStr">
@@ -37889,7 +37889,7 @@
       </c>
       <c r="B1195" t="inlineStr">
         <is>
-          <t>1146 Ian. 115323.</t>
+          <t>1146— 1153 Ian. 23.</t>
         </is>
       </c>
       <c r="C1195" t="inlineStr">
@@ -37921,7 +37921,7 @@
       </c>
       <c r="B1196" t="inlineStr">
         <is>
-          <t>1146   1153.</t>
+          <t xml:space="preserve">1146— 1153  </t>
         </is>
       </c>
       <c r="C1196" t="inlineStr">
@@ -37953,7 +37953,7 @@
       </c>
       <c r="B1197" t="inlineStr">
         <is>
-          <t>1147   1153.</t>
+          <t xml:space="preserve">1147—1153  </t>
         </is>
       </c>
       <c r="C1197" t="inlineStr">
@@ -37985,7 +37985,7 @@
       </c>
       <c r="B1198" t="inlineStr">
         <is>
-          <t>1148   1153.</t>
+          <t xml:space="preserve">1148—1153  </t>
         </is>
       </c>
       <c r="C1198" t="inlineStr">
@@ -38017,7 +38017,7 @@
       </c>
       <c r="B1199" t="inlineStr">
         <is>
-          <t>1148   1153.</t>
+          <t xml:space="preserve">1148—1153  </t>
         </is>
       </c>
       <c r="C1199" t="inlineStr">
@@ -38049,7 +38049,7 @@
       </c>
       <c r="B1200" t="inlineStr">
         <is>
-          <t>1150 Ian. 115316.</t>
+          <t>1150—1153 Ian. 16.</t>
         </is>
       </c>
       <c r="C1200" t="inlineStr">
@@ -38081,7 +38081,7 @@
       </c>
       <c r="B1201" t="inlineStr">
         <is>
-          <t>1150 Ian. 115324.</t>
+          <t>1150—1153 Ian. 24.</t>
         </is>
       </c>
       <c r="C1201" t="inlineStr">
@@ -38113,7 +38113,7 @@
       </c>
       <c r="B1202" t="inlineStr">
         <is>
-          <t>1152   1153.</t>
+          <t xml:space="preserve">1152—1153  </t>
         </is>
       </c>
       <c r="C1202" t="inlineStr">
@@ -38145,7 +38145,7 @@
       </c>
       <c r="B1203" t="inlineStr">
         <is>
-          <t>1152   1153.</t>
+          <t xml:space="preserve">1152—1153  </t>
         </is>
       </c>
       <c r="C1203" t="inlineStr">
@@ -38177,7 +38177,7 @@
       </c>
       <c r="B1204" t="inlineStr">
         <is>
-          <t>1152   1153.</t>
+          <t xml:space="preserve">1152—1153  </t>
         </is>
       </c>
       <c r="C1204" t="inlineStr">
@@ -38209,7 +38209,7 @@
       </c>
       <c r="B1205" t="inlineStr">
         <is>
-          <t>1152   1153.</t>
+          <t xml:space="preserve">1152—1153  </t>
         </is>
       </c>
       <c r="C1205" t="inlineStr">
@@ -38241,7 +38241,7 @@
       </c>
       <c r="B1206" t="inlineStr">
         <is>
-          <t>1152   1153.</t>
+          <t xml:space="preserve">1152—1153  </t>
         </is>
       </c>
       <c r="C1206" t="inlineStr">
@@ -38265,7 +38265,7 @@
       </c>
       <c r="B1207" t="inlineStr">
         <is>
-          <t>1152   1153.</t>
+          <t xml:space="preserve">1152—1153  </t>
         </is>
       </c>
       <c r="C1207" t="inlineStr">
@@ -38297,7 +38297,7 @@
       </c>
       <c r="B1208" t="inlineStr">
         <is>
-          <t>1152   1153.</t>
+          <t xml:space="preserve">1152—1153  </t>
         </is>
       </c>
       <c r="C1208" t="inlineStr">
@@ -38325,7 +38325,7 @@
       </c>
       <c r="B1209" t="inlineStr">
         <is>
-          <t>1152 Ian. 11532.</t>
+          <t>1152—1153 Ian. 2.</t>
         </is>
       </c>
       <c r="C1209" t="inlineStr">
@@ -38581,7 +38581,7 @@
       </c>
       <c r="B1217" t="inlineStr">
         <is>
-          <t xml:space="preserve">677    </t>
+          <t xml:space="preserve">677  </t>
         </is>
       </c>
       <c r="C1217" t="inlineStr">
@@ -38609,7 +38609,7 @@
       </c>
       <c r="B1218" t="inlineStr">
         <is>
-          <t xml:space="preserve">677    </t>
+          <t xml:space="preserve">677  </t>
         </is>
       </c>
       <c r="C1218" t="inlineStr">
@@ -38861,7 +38861,7 @@
       </c>
       <c r="B1226" t="inlineStr">
         <is>
-          <t xml:space="preserve">677    </t>
+          <t xml:space="preserve">677  </t>
         </is>
       </c>
       <c r="C1226" t="inlineStr">
@@ -38893,7 +38893,7 @@
       </c>
       <c r="B1227" t="inlineStr">
         <is>
-          <t xml:space="preserve">1153    </t>
+          <t xml:space="preserve">1153  </t>
         </is>
       </c>
       <c r="C1227" t="inlineStr">
@@ -38925,7 +38925,7 @@
       </c>
       <c r="B1228" t="inlineStr">
         <is>
-          <t>1153   6.</t>
+          <t>1153  6.</t>
         </is>
       </c>
       <c r="C1228" t="inlineStr">
@@ -38957,7 +38957,7 @@
       </c>
       <c r="B1229" t="inlineStr">
         <is>
-          <t>1153   8.</t>
+          <t>1153  8.</t>
         </is>
       </c>
       <c r="C1229" t="inlineStr">
@@ -38989,7 +38989,7 @@
       </c>
       <c r="B1230" t="inlineStr">
         <is>
-          <t>1153   9.</t>
+          <t>1153  9.</t>
         </is>
       </c>
       <c r="C1230" t="inlineStr">
@@ -39021,7 +39021,7 @@
       </c>
       <c r="B1231" t="inlineStr">
         <is>
-          <t>1153   10.</t>
+          <t>1153  10.</t>
         </is>
       </c>
       <c r="C1231" t="inlineStr">
@@ -39053,7 +39053,7 @@
       </c>
       <c r="B1232" t="inlineStr">
         <is>
-          <t>1153   13.</t>
+          <t>1153  13.</t>
         </is>
       </c>
       <c r="C1232" t="inlineStr">
@@ -39085,7 +39085,7 @@
       </c>
       <c r="B1233" t="inlineStr">
         <is>
-          <t>1153   13.</t>
+          <t>1153  13.</t>
         </is>
       </c>
       <c r="C1233" t="inlineStr">
@@ -39117,7 +39117,7 @@
       </c>
       <c r="B1234" t="inlineStr">
         <is>
-          <t>1153   13.</t>
+          <t>1153  13.</t>
         </is>
       </c>
       <c r="C1234" t="inlineStr">
@@ -39149,7 +39149,7 @@
       </c>
       <c r="B1235" t="inlineStr">
         <is>
-          <t>1153   13.</t>
+          <t>1153  13.</t>
         </is>
       </c>
       <c r="C1235" t="inlineStr">
@@ -39181,7 +39181,7 @@
       </c>
       <c r="B1236" t="inlineStr">
         <is>
-          <t>1153   13.</t>
+          <t>1153  13.</t>
         </is>
       </c>
       <c r="C1236" t="inlineStr">
@@ -39213,7 +39213,7 @@
       </c>
       <c r="B1237" t="inlineStr">
         <is>
-          <t>1153   17.</t>
+          <t>1153  17.</t>
         </is>
       </c>
       <c r="C1237" t="inlineStr">
@@ -39245,7 +39245,7 @@
       </c>
       <c r="B1238" t="inlineStr">
         <is>
-          <t>1153   17.</t>
+          <t>1153  17.</t>
         </is>
       </c>
       <c r="C1238" t="inlineStr">
@@ -39277,7 +39277,7 @@
       </c>
       <c r="B1239" t="inlineStr">
         <is>
-          <t>1153   19.</t>
+          <t>1153  19.</t>
         </is>
       </c>
       <c r="C1239" t="inlineStr">
@@ -39309,7 +39309,7 @@
       </c>
       <c r="B1240" t="inlineStr">
         <is>
-          <t>1153   19.</t>
+          <t>1153  19.</t>
         </is>
       </c>
       <c r="C1240" t="inlineStr">
@@ -39341,7 +39341,7 @@
       </c>
       <c r="B1241" t="inlineStr">
         <is>
-          <t>1153   26.</t>
+          <t>1153  26.</t>
         </is>
       </c>
       <c r="C1241" t="inlineStr">
@@ -39373,7 +39373,7 @@
       </c>
       <c r="B1242" t="inlineStr">
         <is>
-          <t xml:space="preserve">1153 RanI.  </t>
+          <t xml:space="preserve">1153 RanI. </t>
         </is>
       </c>
       <c r="C1242" t="inlineStr">
@@ -39405,7 +39405,7 @@
       </c>
       <c r="B1243" t="inlineStr">
         <is>
-          <t xml:space="preserve">1153    </t>
+          <t xml:space="preserve">1153  </t>
         </is>
       </c>
       <c r="C1243" t="inlineStr">
@@ -39529,7 +39529,7 @@
       </c>
       <c r="B1247" t="inlineStr">
         <is>
-          <t xml:space="preserve">1153    </t>
+          <t xml:space="preserve">1153  </t>
         </is>
       </c>
       <c r="C1247" t="inlineStr">
@@ -39625,7 +39625,7 @@
       </c>
       <c r="B1250" t="inlineStr">
         <is>
-          <t xml:space="preserve">1153    </t>
+          <t xml:space="preserve">1153  </t>
         </is>
       </c>
       <c r="C1250" t="inlineStr">
@@ -39785,7 +39785,7 @@
       </c>
       <c r="B1255" t="inlineStr">
         <is>
-          <t xml:space="preserve">1153 Ian.  </t>
+          <t xml:space="preserve">1153 Ian. </t>
         </is>
       </c>
       <c r="C1255" t="inlineStr">
@@ -39937,7 +39937,7 @@
       </c>
       <c r="B1260" t="inlineStr">
         <is>
-          <t>1153 Iun. 16.</t>
+          <t>1153 (Iun). 16.</t>
         </is>
       </c>
       <c r="C1260" t="inlineStr">
@@ -40493,7 +40493,7 @@
       </c>
       <c r="B1278" t="inlineStr">
         <is>
-          <t xml:space="preserve">1153    </t>
+          <t xml:space="preserve">1153  </t>
         </is>
       </c>
       <c r="C1278" t="inlineStr">
@@ -40525,7 +40525,7 @@
       </c>
       <c r="B1279" t="inlineStr">
         <is>
-          <t>1153   2.</t>
+          <t>1153  2.</t>
         </is>
       </c>
       <c r="C1279" t="inlineStr">
@@ -40557,7 +40557,7 @@
       </c>
       <c r="B1280" t="inlineStr">
         <is>
-          <t xml:space="preserve">1153    </t>
+          <t xml:space="preserve">1153  </t>
         </is>
       </c>
       <c r="C1280" t="inlineStr">
@@ -40621,7 +40621,7 @@
       </c>
       <c r="B1282" t="inlineStr">
         <is>
-          <t>271   7.</t>
+          <t xml:space="preserve">  2717.</t>
         </is>
       </c>
       <c r="C1282" t="inlineStr">
@@ -40717,7 +40717,7 @@
       </c>
       <c r="B1285" t="inlineStr">
         <is>
-          <t xml:space="preserve">1153    </t>
+          <t xml:space="preserve">1153  </t>
         </is>
       </c>
       <c r="C1285" t="inlineStr">
@@ -40749,7 +40749,7 @@
       </c>
       <c r="B1286" t="inlineStr">
         <is>
-          <t>1153   26.</t>
+          <t>1153  26.</t>
         </is>
       </c>
       <c r="C1286" t="inlineStr">
@@ -40781,7 +40781,7 @@
       </c>
       <c r="B1287" t="inlineStr">
         <is>
-          <t>1153   29.</t>
+          <t>1153  29.</t>
         </is>
       </c>
       <c r="C1287" t="inlineStr">
@@ -40813,7 +40813,7 @@
       </c>
       <c r="B1288" t="inlineStr">
         <is>
-          <t>1153   31.</t>
+          <t>1153  31.</t>
         </is>
       </c>
       <c r="C1288" t="inlineStr">
@@ -41325,7 +41325,7 @@
       </c>
       <c r="B1304" t="inlineStr">
         <is>
-          <t xml:space="preserve">1153 Dec.  </t>
+          <t xml:space="preserve">1153 Dec. </t>
         </is>
       </c>
       <c r="C1304" t="inlineStr">
@@ -41825,7 +41825,7 @@
       </c>
       <c r="B1320" t="inlineStr">
         <is>
-          <t xml:space="preserve">784    </t>
+          <t xml:space="preserve">784  </t>
         </is>
       </c>
       <c r="C1320" t="inlineStr">
@@ -41857,7 +41857,7 @@
       </c>
       <c r="B1321" t="inlineStr">
         <is>
-          <t xml:space="preserve">784    </t>
+          <t xml:space="preserve">784  </t>
         </is>
       </c>
       <c r="C1321" t="inlineStr">
@@ -41889,7 +41889,7 @@
       </c>
       <c r="B1322" t="inlineStr">
         <is>
-          <t xml:space="preserve">784    </t>
+          <t xml:space="preserve">784  </t>
         </is>
       </c>
       <c r="C1322" t="inlineStr">
@@ -41921,7 +41921,7 @@
       </c>
       <c r="B1323" t="inlineStr">
         <is>
-          <t xml:space="preserve">784    </t>
+          <t xml:space="preserve">784  </t>
         </is>
       </c>
       <c r="C1323" t="inlineStr">
@@ -41953,7 +41953,7 @@
       </c>
       <c r="B1324" t="inlineStr">
         <is>
-          <t xml:space="preserve">784    </t>
+          <t xml:space="preserve">784  </t>
         </is>
       </c>
       <c r="C1324" t="inlineStr">
@@ -41985,7 +41985,7 @@
       </c>
       <c r="B1325" t="inlineStr">
         <is>
-          <t>784   26.</t>
+          <t>784  26.</t>
         </is>
       </c>
       <c r="C1325" t="inlineStr">
@@ -42017,7 +42017,7 @@
       </c>
       <c r="B1326" t="inlineStr">
         <is>
-          <t>784   30.</t>
+          <t>784  30.</t>
         </is>
       </c>
       <c r="C1326" t="inlineStr">
@@ -42049,7 +42049,7 @@
       </c>
       <c r="B1327" t="inlineStr">
         <is>
-          <t>784   30.</t>
+          <t>784  30.</t>
         </is>
       </c>
       <c r="C1327" t="inlineStr">
@@ -42081,7 +42081,7 @@
       </c>
       <c r="B1328" t="inlineStr">
         <is>
-          <t>784   30.</t>
+          <t>784  30.</t>
         </is>
       </c>
       <c r="C1328" t="inlineStr">
@@ -42113,7 +42113,7 @@
       </c>
       <c r="B1329" t="inlineStr">
         <is>
-          <t xml:space="preserve">784    </t>
+          <t xml:space="preserve">784  </t>
         </is>
       </c>
       <c r="C1329" t="inlineStr">
@@ -42145,7 +42145,7 @@
       </c>
       <c r="B1330" t="inlineStr">
         <is>
-          <t xml:space="preserve">784    </t>
+          <t xml:space="preserve">784  </t>
         </is>
       </c>
       <c r="C1330" t="inlineStr">
@@ -42173,7 +42173,7 @@
       </c>
       <c r="B1331" t="inlineStr">
         <is>
-          <t xml:space="preserve">784    </t>
+          <t xml:space="preserve">784  </t>
         </is>
       </c>
       <c r="C1331" t="inlineStr">
@@ -42201,7 +42201,7 @@
       </c>
       <c r="B1332" t="inlineStr">
         <is>
-          <t xml:space="preserve">784    </t>
+          <t xml:space="preserve">784  </t>
         </is>
       </c>
       <c r="C1332" t="inlineStr">
@@ -42233,7 +42233,7 @@
       </c>
       <c r="B1333" t="inlineStr">
         <is>
-          <t xml:space="preserve">784    </t>
+          <t xml:space="preserve">784  </t>
         </is>
       </c>
       <c r="C1333" t="inlineStr">
@@ -42293,7 +42293,7 @@
       </c>
       <c r="B1335" t="inlineStr">
         <is>
-          <t>1153   1154.</t>
+          <t xml:space="preserve">1153—1154  </t>
         </is>
       </c>
       <c r="C1335" t="inlineStr">
@@ -42321,7 +42321,7 @@
       </c>
       <c r="B1336" t="inlineStr">
         <is>
-          <t>1153 NovLaterani. 115422.</t>
+          <t>1153—1154 NovLaterani. 22.</t>
         </is>
       </c>
       <c r="C1336" t="inlineStr">
@@ -42353,7 +42353,7 @@
       </c>
       <c r="B1337" t="inlineStr">
         <is>
-          <t>1153 NovLaterani. 115422.</t>
+          <t>1153—1154 NovLaterani. 22.</t>
         </is>
       </c>
       <c r="C1337" t="inlineStr">
@@ -42385,7 +42385,7 @@
       </c>
       <c r="B1338" t="inlineStr">
         <is>
-          <t>1153   1154.</t>
+          <t xml:space="preserve">1153—1154  </t>
         </is>
       </c>
       <c r="C1338" t="inlineStr">
@@ -42417,7 +42417,7 @@
       </c>
       <c r="B1339" t="inlineStr">
         <is>
-          <t>1153   1154.</t>
+          <t xml:space="preserve">1153—1154  </t>
         </is>
       </c>
       <c r="C1339" t="inlineStr">
@@ -42449,7 +42449,7 @@
       </c>
       <c r="B1340" t="inlineStr">
         <is>
-          <t>1153   1154.</t>
+          <t xml:space="preserve">1153—1154  </t>
         </is>
       </c>
       <c r="C1340" t="inlineStr">
@@ -42481,7 +42481,7 @@
       </c>
       <c r="B1341" t="inlineStr">
         <is>
-          <t>1153   1154.</t>
+          <t xml:space="preserve">1153—1154  </t>
         </is>
       </c>
       <c r="C1341" t="inlineStr">
@@ -42513,7 +42513,7 @@
       </c>
       <c r="B1342" t="inlineStr">
         <is>
-          <t>1153   1154.</t>
+          <t xml:space="preserve">1153—1154  </t>
         </is>
       </c>
       <c r="C1342" t="inlineStr">
@@ -42545,7 +42545,7 @@
       </c>
       <c r="B1343" t="inlineStr">
         <is>
-          <t>1153   1154.</t>
+          <t xml:space="preserve">1153—1154  </t>
         </is>
       </c>
       <c r="C1343" t="inlineStr">
@@ -42573,7 +42573,7 @@
       </c>
       <c r="B1344" t="inlineStr">
         <is>
-          <t>1153   1154.</t>
+          <t xml:space="preserve">1153—1154  </t>
         </is>
       </c>
       <c r="C1344" t="inlineStr">
@@ -42601,7 +42601,7 @@
       </c>
       <c r="B1345" t="inlineStr">
         <is>
-          <t xml:space="preserve">1154    </t>
+          <t xml:space="preserve">1154  </t>
         </is>
       </c>
       <c r="C1345" t="inlineStr">
@@ -42633,7 +42633,7 @@
       </c>
       <c r="B1346" t="inlineStr">
         <is>
-          <t xml:space="preserve">1154    </t>
+          <t xml:space="preserve">1154  </t>
         </is>
       </c>
       <c r="C1346" t="inlineStr">
@@ -42761,7 +42761,7 @@
       </c>
       <c r="B1350" t="inlineStr">
         <is>
-          <t xml:space="preserve">1154    </t>
+          <t xml:space="preserve">1154  </t>
         </is>
       </c>
       <c r="C1350" t="inlineStr">
@@ -43209,7 +43209,7 @@
       </c>
       <c r="B1364" t="inlineStr">
         <is>
-          <t xml:space="preserve">1154 Febr.  </t>
+          <t xml:space="preserve">1154 Febr. </t>
         </is>
       </c>
       <c r="C1364" t="inlineStr">
@@ -44125,7 +44125,7 @@
       </c>
       <c r="B1393" t="inlineStr">
         <is>
-          <t xml:space="preserve">1154    </t>
+          <t xml:space="preserve">1154  </t>
         </is>
       </c>
       <c r="C1393" t="inlineStr">
@@ -44157,7 +44157,7 @@
       </c>
       <c r="B1394" t="inlineStr">
         <is>
-          <t>1154   8.</t>
+          <t>1154  8.</t>
         </is>
       </c>
       <c r="C1394" t="inlineStr">
@@ -44189,7 +44189,7 @@
       </c>
       <c r="B1395" t="inlineStr">
         <is>
-          <t>1154   8.</t>
+          <t>1154  8.</t>
         </is>
       </c>
       <c r="C1395" t="inlineStr">
@@ -44221,7 +44221,7 @@
       </c>
       <c r="B1396" t="inlineStr">
         <is>
-          <t>1154   12.</t>
+          <t>1154  12.</t>
         </is>
       </c>
       <c r="C1396" t="inlineStr">
@@ -44253,7 +44253,7 @@
       </c>
       <c r="B1397" t="inlineStr">
         <is>
-          <t>1154   13.</t>
+          <t>1154  13.</t>
         </is>
       </c>
       <c r="C1397" t="inlineStr">
@@ -44285,7 +44285,7 @@
       </c>
       <c r="B1398" t="inlineStr">
         <is>
-          <t>1154   13.</t>
+          <t>1154  13.</t>
         </is>
       </c>
       <c r="C1398" t="inlineStr">
@@ -44317,7 +44317,7 @@
       </c>
       <c r="B1399" t="inlineStr">
         <is>
-          <t>1154   16.</t>
+          <t>1154  16.</t>
         </is>
       </c>
       <c r="C1399" t="inlineStr">
@@ -44349,7 +44349,7 @@
       </c>
       <c r="B1400" t="inlineStr">
         <is>
-          <t>1154   18.</t>
+          <t>1154  18.</t>
         </is>
       </c>
       <c r="C1400" t="inlineStr">
@@ -44381,7 +44381,7 @@
       </c>
       <c r="B1401" t="inlineStr">
         <is>
-          <t>1154   20.</t>
+          <t>1154  20.</t>
         </is>
       </c>
       <c r="C1401" t="inlineStr">
@@ -44445,7 +44445,7 @@
       </c>
       <c r="B1403" t="inlineStr">
         <is>
-          <t>1154   24.</t>
+          <t>1154  24.</t>
         </is>
       </c>
       <c r="C1403" t="inlineStr">
@@ -44477,7 +44477,7 @@
       </c>
       <c r="B1404" t="inlineStr">
         <is>
-          <t>1154   24.</t>
+          <t>1154  24.</t>
         </is>
       </c>
       <c r="C1404" t="inlineStr">
@@ -44509,7 +44509,7 @@
       </c>
       <c r="B1405" t="inlineStr">
         <is>
-          <t>1154   24.</t>
+          <t>1154  24.</t>
         </is>
       </c>
       <c r="C1405" t="inlineStr">
@@ -44541,7 +44541,7 @@
       </c>
       <c r="B1406" t="inlineStr">
         <is>
-          <t>1154   24.</t>
+          <t>1154  24.</t>
         </is>
       </c>
       <c r="C1406" t="inlineStr">
@@ -44569,7 +44569,7 @@
       </c>
       <c r="B1407" t="inlineStr">
         <is>
-          <t>1154   25.</t>
+          <t>1154  25.</t>
         </is>
       </c>
       <c r="C1407" t="inlineStr">
@@ -44601,7 +44601,7 @@
       </c>
       <c r="B1408" t="inlineStr">
         <is>
-          <t>1154   25.</t>
+          <t>1154  25.</t>
         </is>
       </c>
       <c r="C1408" t="inlineStr">
@@ -44633,7 +44633,7 @@
       </c>
       <c r="B1409" t="inlineStr">
         <is>
-          <t>1154   25.</t>
+          <t>1154  25.</t>
         </is>
       </c>
       <c r="C1409" t="inlineStr">
@@ -44665,7 +44665,7 @@
       </c>
       <c r="B1410" t="inlineStr">
         <is>
-          <t>1154   25.</t>
+          <t>1154  25.</t>
         </is>
       </c>
       <c r="C1410" t="inlineStr">
@@ -44697,7 +44697,7 @@
       </c>
       <c r="B1411" t="inlineStr">
         <is>
-          <t>1154   30.</t>
+          <t>1154  30.</t>
         </is>
       </c>
       <c r="C1411" t="inlineStr">
@@ -44729,7 +44729,7 @@
       </c>
       <c r="B1412" t="inlineStr">
         <is>
-          <t>1154   30.</t>
+          <t>1154  30.</t>
         </is>
       </c>
       <c r="C1412" t="inlineStr">
@@ -44793,7 +44793,7 @@
       </c>
       <c r="B1414" t="inlineStr">
         <is>
-          <t xml:space="preserve">1154    </t>
+          <t xml:space="preserve">1154  </t>
         </is>
       </c>
       <c r="C1414" t="inlineStr">
@@ -44825,7 +44825,7 @@
       </c>
       <c r="B1415" t="inlineStr">
         <is>
-          <t>1154   1.</t>
+          <t>1154  1.</t>
         </is>
       </c>
       <c r="C1415" t="inlineStr">
@@ -44857,7 +44857,7 @@
       </c>
       <c r="B1416" t="inlineStr">
         <is>
-          <t>1154   1.</t>
+          <t>1154  1.</t>
         </is>
       </c>
       <c r="C1416" t="inlineStr">
@@ -44889,7 +44889,7 @@
       </c>
       <c r="B1417" t="inlineStr">
         <is>
-          <t>1154   1.</t>
+          <t>1154  1.</t>
         </is>
       </c>
       <c r="C1417" t="inlineStr">
@@ -46097,7 +46097,7 @@
       </c>
       <c r="B1455" t="inlineStr">
         <is>
-          <t xml:space="preserve">1154 Iul.  </t>
+          <t xml:space="preserve">1154 Iul. </t>
         </is>
       </c>
       <c r="C1455" t="inlineStr">
@@ -46637,7 +46637,7 @@
       </c>
       <c r="B1472" t="inlineStr">
         <is>
-          <t xml:space="preserve">1154    </t>
+          <t xml:space="preserve">1154  </t>
         </is>
       </c>
       <c r="C1472" t="inlineStr">
@@ -46697,7 +46697,7 @@
       </c>
       <c r="B1474" t="inlineStr">
         <is>
-          <t xml:space="preserve">1154    </t>
+          <t xml:space="preserve">1154  </t>
         </is>
       </c>
       <c r="C1474" t="inlineStr">
@@ -47073,7 +47073,7 @@
       </c>
       <c r="B1486" t="inlineStr">
         <is>
-          <t xml:space="preserve">1154    </t>
+          <t xml:space="preserve">1154  </t>
         </is>
       </c>
       <c r="C1486" t="inlineStr">
@@ -47517,7 +47517,7 @@
       </c>
       <c r="B1500" t="inlineStr">
         <is>
-          <t xml:space="preserve">1154    </t>
+          <t xml:space="preserve">1154  </t>
         </is>
       </c>
       <c r="C1500" t="inlineStr">
@@ -47545,7 +47545,7 @@
       </c>
       <c r="B1501" t="inlineStr">
         <is>
-          <t>1154   1155.</t>
+          <t xml:space="preserve">1154 —1155  </t>
         </is>
       </c>
       <c r="C1501" t="inlineStr">
@@ -47573,7 +47573,7 @@
       </c>
       <c r="B1502" t="inlineStr">
         <is>
-          <t xml:space="preserve">1155    </t>
+          <t xml:space="preserve">1155  </t>
         </is>
       </c>
       <c r="C1502" t="inlineStr">
@@ -47733,7 +47733,7 @@
       </c>
       <c r="B1507" t="inlineStr">
         <is>
-          <t xml:space="preserve">1155    </t>
+          <t xml:space="preserve">1155  </t>
         </is>
       </c>
       <c r="C1507" t="inlineStr">
@@ -47765,7 +47765,7 @@
       </c>
       <c r="B1508" t="inlineStr">
         <is>
-          <t>1155   2.</t>
+          <t>1155  2.</t>
         </is>
       </c>
       <c r="C1508" t="inlineStr">
@@ -47797,7 +47797,7 @@
       </c>
       <c r="B1509" t="inlineStr">
         <is>
-          <t>1155   10.</t>
+          <t>1155  10.</t>
         </is>
       </c>
       <c r="C1509" t="inlineStr">
@@ -47829,7 +47829,7 @@
       </c>
       <c r="B1510" t="inlineStr">
         <is>
-          <t>1155   12.</t>
+          <t>1155  12.</t>
         </is>
       </c>
       <c r="C1510" t="inlineStr">
@@ -47861,7 +47861,7 @@
       </c>
       <c r="B1511" t="inlineStr">
         <is>
-          <t>1155   12.</t>
+          <t>1155  12.</t>
         </is>
       </c>
       <c r="C1511" t="inlineStr">
@@ -47893,7 +47893,7 @@
       </c>
       <c r="B1512" t="inlineStr">
         <is>
-          <t>1155   17.</t>
+          <t>1155  17.</t>
         </is>
       </c>
       <c r="C1512" t="inlineStr">
@@ -47925,7 +47925,7 @@
       </c>
       <c r="B1513" t="inlineStr">
         <is>
-          <t>1155   18.</t>
+          <t>1155  18.</t>
         </is>
       </c>
       <c r="C1513" t="inlineStr">
@@ -47957,7 +47957,7 @@
       </c>
       <c r="B1514" t="inlineStr">
         <is>
-          <t>1155   19.</t>
+          <t>1155  19.</t>
         </is>
       </c>
       <c r="C1514" t="inlineStr">
@@ -47989,7 +47989,7 @@
       </c>
       <c r="B1515" t="inlineStr">
         <is>
-          <t>1155 (). 19.</t>
+          <t>1155 ()(). 19.</t>
         </is>
       </c>
       <c r="C1515" t="inlineStr">
@@ -48017,7 +48017,7 @@
       </c>
       <c r="B1516" t="inlineStr">
         <is>
-          <t>1155   19.</t>
+          <t>1155  19.</t>
         </is>
       </c>
       <c r="C1516" t="inlineStr">
@@ -48049,7 +48049,7 @@
       </c>
       <c r="B1517" t="inlineStr">
         <is>
-          <t>1155   20.</t>
+          <t>1155  20.</t>
         </is>
       </c>
       <c r="C1517" t="inlineStr">
@@ -48081,7 +48081,7 @@
       </c>
       <c r="B1518" t="inlineStr">
         <is>
-          <t>1155   21.</t>
+          <t>1155  21.</t>
         </is>
       </c>
       <c r="C1518" t="inlineStr">
@@ -48113,7 +48113,7 @@
       </c>
       <c r="B1519" t="inlineStr">
         <is>
-          <t>1155   21.</t>
+          <t>1155  21.</t>
         </is>
       </c>
       <c r="C1519" t="inlineStr">
@@ -48145,7 +48145,7 @@
       </c>
       <c r="B1520" t="inlineStr">
         <is>
-          <t xml:space="preserve">1155    </t>
+          <t xml:space="preserve">1155  </t>
         </is>
       </c>
       <c r="C1520" t="inlineStr">
@@ -48177,7 +48177,7 @@
       </c>
       <c r="B1521" t="inlineStr">
         <is>
-          <t>1155   21.</t>
+          <t>1155  21.</t>
         </is>
       </c>
       <c r="C1521" t="inlineStr">
@@ -48209,7 +48209,7 @@
       </c>
       <c r="B1522" t="inlineStr">
         <is>
-          <t>1155   27.</t>
+          <t>1155  27.</t>
         </is>
       </c>
       <c r="C1522" t="inlineStr">
@@ -48241,7 +48241,7 @@
       </c>
       <c r="B1523" t="inlineStr">
         <is>
-          <t>1155   29.</t>
+          <t>1155  29.</t>
         </is>
       </c>
       <c r="C1523" t="inlineStr">
@@ -48561,7 +48561,7 @@
       </c>
       <c r="B1533" t="inlineStr">
         <is>
-          <t xml:space="preserve">1155    </t>
+          <t xml:space="preserve">1155  </t>
         </is>
       </c>
       <c r="C1533" t="inlineStr">
@@ -48593,7 +48593,7 @@
       </c>
       <c r="B1534" t="inlineStr">
         <is>
-          <t xml:space="preserve">1155 reairNr.  </t>
+          <t xml:space="preserve">1155 reairNr. </t>
         </is>
       </c>
       <c r="C1534" t="inlineStr">
@@ -48653,7 +48653,7 @@
       </c>
       <c r="B1536" t="inlineStr">
         <is>
-          <t xml:space="preserve">1155    </t>
+          <t xml:space="preserve">1155  </t>
         </is>
       </c>
       <c r="C1536" t="inlineStr">
@@ -48685,7 +48685,7 @@
       </c>
       <c r="B1537" t="inlineStr">
         <is>
-          <t xml:space="preserve">1155    </t>
+          <t xml:space="preserve">1155  </t>
         </is>
       </c>
       <c r="C1537" t="inlineStr">
@@ -48717,7 +48717,7 @@
       </c>
       <c r="B1538" t="inlineStr">
         <is>
-          <t>1155   2.</t>
+          <t>1155  2.</t>
         </is>
       </c>
       <c r="C1538" t="inlineStr">
@@ -48749,7 +48749,7 @@
       </c>
       <c r="B1539" t="inlineStr">
         <is>
-          <t>1155   4.</t>
+          <t>1155  4.</t>
         </is>
       </c>
       <c r="C1539" t="inlineStr">
@@ -48781,7 +48781,7 @@
       </c>
       <c r="B1540" t="inlineStr">
         <is>
-          <t>1155   1.</t>
+          <t>1155  1.</t>
         </is>
       </c>
       <c r="C1540" t="inlineStr">
@@ -48813,7 +48813,7 @@
       </c>
       <c r="B1541" t="inlineStr">
         <is>
-          <t>1155   5.</t>
+          <t>1155  5.</t>
         </is>
       </c>
       <c r="C1541" t="inlineStr">
@@ -48845,7 +48845,7 @@
       </c>
       <c r="B1542" t="inlineStr">
         <is>
-          <t>1155   10.</t>
+          <t>1155  10.</t>
         </is>
       </c>
       <c r="C1542" t="inlineStr">
@@ -48877,7 +48877,7 @@
       </c>
       <c r="B1543" t="inlineStr">
         <is>
-          <t>1155   11.</t>
+          <t>1155  11.</t>
         </is>
       </c>
       <c r="C1543" t="inlineStr">
@@ -48909,7 +48909,7 @@
       </c>
       <c r="B1544" t="inlineStr">
         <is>
-          <t>1155   11.</t>
+          <t>1155  11.</t>
         </is>
       </c>
       <c r="C1544" t="inlineStr">
@@ -48941,7 +48941,7 @@
       </c>
       <c r="B1545" t="inlineStr">
         <is>
-          <t>1155   14.</t>
+          <t>1155  14.</t>
         </is>
       </c>
       <c r="C1545" t="inlineStr">
@@ -48973,7 +48973,7 @@
       </c>
       <c r="B1546" t="inlineStr">
         <is>
-          <t>1155   14.</t>
+          <t>1155  14.</t>
         </is>
       </c>
       <c r="C1546" t="inlineStr">
@@ -49005,7 +49005,7 @@
       </c>
       <c r="B1547" t="inlineStr">
         <is>
-          <t>1155   14.</t>
+          <t>1155  14.</t>
         </is>
       </c>
       <c r="C1547" t="inlineStr">
@@ -49037,7 +49037,7 @@
       </c>
       <c r="B1548" t="inlineStr">
         <is>
-          <t>1155   14.</t>
+          <t>1155  14.</t>
         </is>
       </c>
       <c r="C1548" t="inlineStr">
@@ -49069,7 +49069,7 @@
       </c>
       <c r="B1549" t="inlineStr">
         <is>
-          <t xml:space="preserve">1155    </t>
+          <t xml:space="preserve">1155  </t>
         </is>
       </c>
       <c r="C1549" t="inlineStr">
@@ -49101,7 +49101,7 @@
       </c>
       <c r="B1550" t="inlineStr">
         <is>
-          <t xml:space="preserve">1155    </t>
+          <t xml:space="preserve">1155  </t>
         </is>
       </c>
       <c r="C1550" t="inlineStr">
@@ -49149,7 +49149,7 @@
       </c>
       <c r="B1552" t="inlineStr">
         <is>
-          <t>1155   25.</t>
+          <t>1155  25.</t>
         </is>
       </c>
       <c r="C1552" t="inlineStr">
@@ -49173,7 +49173,7 @@
       </c>
       <c r="B1553" t="inlineStr">
         <is>
-          <t>1155   26.</t>
+          <t>1155  26.</t>
         </is>
       </c>
       <c r="C1553" t="inlineStr">
@@ -49197,7 +49197,7 @@
       </c>
       <c r="B1554" t="inlineStr">
         <is>
-          <t>1155   27.</t>
+          <t>1155  27.</t>
         </is>
       </c>
       <c r="C1554" t="inlineStr">
@@ -49221,7 +49221,7 @@
       </c>
       <c r="B1555" t="inlineStr">
         <is>
-          <t>1155   28.</t>
+          <t>1155  28.</t>
         </is>
       </c>
       <c r="C1555" t="inlineStr">
@@ -49245,7 +49245,7 @@
       </c>
       <c r="B1556" t="inlineStr">
         <is>
-          <t>1155   29.</t>
+          <t>1155  29.</t>
         </is>
       </c>
       <c r="C1556" t="inlineStr">
@@ -49269,7 +49269,7 @@
       </c>
       <c r="B1557" t="inlineStr">
         <is>
-          <t>1155   30.</t>
+          <t>1155  30.</t>
         </is>
       </c>
       <c r="C1557" t="inlineStr">
@@ -49293,7 +49293,7 @@
       </c>
       <c r="B1558" t="inlineStr">
         <is>
-          <t>1155   30.</t>
+          <t>1155  30.</t>
         </is>
       </c>
       <c r="C1558" t="inlineStr">
@@ -49325,7 +49325,7 @@
       </c>
       <c r="B1559" t="inlineStr">
         <is>
-          <t xml:space="preserve">1155    </t>
+          <t xml:space="preserve">1155  </t>
         </is>
       </c>
       <c r="C1559" t="inlineStr">
@@ -49353,7 +49353,7 @@
       </c>
       <c r="B1560" t="inlineStr">
         <is>
-          <t>1155   14.</t>
+          <t>1155  14.</t>
         </is>
       </c>
       <c r="C1560" t="inlineStr">
@@ -49385,7 +49385,7 @@
       </c>
       <c r="B1561" t="inlineStr">
         <is>
-          <t>1155   14.</t>
+          <t>1155  14.</t>
         </is>
       </c>
       <c r="C1561" t="inlineStr">
@@ -49417,7 +49417,7 @@
       </c>
       <c r="B1562" t="inlineStr">
         <is>
-          <t xml:space="preserve">1155    </t>
+          <t xml:space="preserve">1155  </t>
         </is>
       </c>
       <c r="C1562" t="inlineStr">
@@ -49449,7 +49449,7 @@
       </c>
       <c r="B1563" t="inlineStr">
         <is>
-          <t>1155   16.</t>
+          <t>1155  16.</t>
         </is>
       </c>
       <c r="C1563" t="inlineStr">
@@ -49481,7 +49481,7 @@
       </c>
       <c r="B1564" t="inlineStr">
         <is>
-          <t>1155   17.</t>
+          <t>1155  17.</t>
         </is>
       </c>
       <c r="C1564" t="inlineStr">
@@ -49513,7 +49513,7 @@
       </c>
       <c r="B1565" t="inlineStr">
         <is>
-          <t>1155   17.</t>
+          <t>1155  17.</t>
         </is>
       </c>
       <c r="C1565" t="inlineStr">
@@ -49545,7 +49545,7 @@
       </c>
       <c r="B1566" t="inlineStr">
         <is>
-          <t>1155   18.</t>
+          <t>1155  18.</t>
         </is>
       </c>
       <c r="C1566" t="inlineStr">
@@ -49577,7 +49577,7 @@
       </c>
       <c r="B1567" t="inlineStr">
         <is>
-          <t>1155   19.</t>
+          <t>1155  19.</t>
         </is>
       </c>
       <c r="C1567" t="inlineStr">
@@ -49609,7 +49609,7 @@
       </c>
       <c r="B1568" t="inlineStr">
         <is>
-          <t>1155   20.</t>
+          <t>1155  20.</t>
         </is>
       </c>
       <c r="C1568" t="inlineStr">
@@ -49641,7 +49641,7 @@
       </c>
       <c r="B1569" t="inlineStr">
         <is>
-          <t>1155   20.</t>
+          <t>1155  20.</t>
         </is>
       </c>
       <c r="C1569" t="inlineStr">
@@ -49673,7 +49673,7 @@
       </c>
       <c r="B1570" t="inlineStr">
         <is>
-          <t>1155   20.</t>
+          <t>1155  20.</t>
         </is>
       </c>
       <c r="C1570" t="inlineStr">
@@ -49705,7 +49705,7 @@
       </c>
       <c r="B1571" t="inlineStr">
         <is>
-          <t>1155   20.</t>
+          <t>1155  20.</t>
         </is>
       </c>
       <c r="C1571" t="inlineStr">
@@ -49737,7 +49737,7 @@
       </c>
       <c r="B1572" t="inlineStr">
         <is>
-          <t xml:space="preserve">1155    </t>
+          <t xml:space="preserve">1155  </t>
         </is>
       </c>
       <c r="C1572" t="inlineStr">
@@ -49993,7 +49993,7 @@
       </c>
       <c r="B1580" t="inlineStr">
         <is>
-          <t xml:space="preserve">1155    </t>
+          <t xml:space="preserve">1155  </t>
         </is>
       </c>
       <c r="C1580" t="inlineStr">
@@ -50333,7 +50333,7 @@
       </c>
       <c r="B1591" t="inlineStr">
         <is>
-          <t xml:space="preserve">1155    </t>
+          <t xml:space="preserve">1155  </t>
         </is>
       </c>
       <c r="C1591" t="inlineStr">
@@ -50873,7 +50873,7 @@
       </c>
       <c r="B1608" t="inlineStr">
         <is>
-          <t xml:space="preserve">1155    </t>
+          <t xml:space="preserve">1155  </t>
         </is>
       </c>
       <c r="C1608" t="inlineStr">
@@ -50905,7 +50905,7 @@
       </c>
       <c r="B1609" t="inlineStr">
         <is>
-          <t>1155   4.</t>
+          <t>1155  4.</t>
         </is>
       </c>
       <c r="C1609" t="inlineStr">
@@ -50937,7 +50937,7 @@
       </c>
       <c r="B1610" t="inlineStr">
         <is>
-          <t>1155   4.</t>
+          <t>1155  4.</t>
         </is>
       </c>
       <c r="C1610" t="inlineStr">
@@ -50969,7 +50969,7 @@
       </c>
       <c r="B1611" t="inlineStr">
         <is>
-          <t xml:space="preserve">1155    </t>
+          <t xml:space="preserve">1155  </t>
         </is>
       </c>
       <c r="C1611" t="inlineStr">
@@ -50993,7 +50993,7 @@
       </c>
       <c r="B1612" t="inlineStr">
         <is>
-          <t>1155   8.</t>
+          <t>1155  8.</t>
         </is>
       </c>
       <c r="C1612" t="inlineStr">
@@ -51049,7 +51049,7 @@
       </c>
       <c r="B1614" t="inlineStr">
         <is>
-          <t>1155   10.</t>
+          <t>1155  10.</t>
         </is>
       </c>
       <c r="C1614" t="inlineStr">
@@ -51165,7 +51165,7 @@
       </c>
       <c r="B1618" t="inlineStr">
         <is>
-          <t>1155   15.</t>
+          <t>1155  15.</t>
         </is>
       </c>
       <c r="C1618" t="inlineStr">
@@ -51197,7 +51197,7 @@
       </c>
       <c r="B1619" t="inlineStr">
         <is>
-          <t>1155   18.</t>
+          <t>1155  18.</t>
         </is>
       </c>
       <c r="C1619" t="inlineStr">
@@ -51273,7 +51273,7 @@
       </c>
       <c r="B1622" t="inlineStr">
         <is>
-          <t xml:space="preserve">1155    </t>
+          <t xml:space="preserve">1155  </t>
         </is>
       </c>
       <c r="C1622" t="inlineStr">
@@ -51297,7 +51297,7 @@
       </c>
       <c r="B1623" t="inlineStr">
         <is>
-          <t xml:space="preserve">1155    </t>
+          <t xml:space="preserve">1155  </t>
         </is>
       </c>
       <c r="C1623" t="inlineStr">
@@ -51321,7 +51321,7 @@
       </c>
       <c r="B1624" t="inlineStr">
         <is>
-          <t xml:space="preserve">1155    </t>
+          <t xml:space="preserve">1155  </t>
         </is>
       </c>
       <c r="C1624" t="inlineStr">
@@ -51345,7 +51345,7 @@
       </c>
       <c r="B1625" t="inlineStr">
         <is>
-          <t xml:space="preserve">1155    </t>
+          <t xml:space="preserve">1155  </t>
         </is>
       </c>
       <c r="C1625" t="inlineStr">
@@ -51369,7 +51369,7 @@
       </c>
       <c r="B1626" t="inlineStr">
         <is>
-          <t xml:space="preserve">1155    </t>
+          <t xml:space="preserve">1155  </t>
         </is>
       </c>
       <c r="C1626" t="inlineStr">
@@ -51393,7 +51393,7 @@
       </c>
       <c r="B1627" t="inlineStr">
         <is>
-          <t>1155   28.</t>
+          <t>1155  28.</t>
         </is>
       </c>
       <c r="C1627" t="inlineStr">
@@ -51417,7 +51417,7 @@
       </c>
       <c r="B1628" t="inlineStr">
         <is>
-          <t>1155   29.</t>
+          <t>1155  29.</t>
         </is>
       </c>
       <c r="C1628" t="inlineStr">
@@ -51445,7 +51445,7 @@
       </c>
       <c r="B1629" t="inlineStr">
         <is>
-          <t xml:space="preserve">1155    </t>
+          <t xml:space="preserve">1155  </t>
         </is>
       </c>
       <c r="C1629" t="inlineStr">
@@ -51541,7 +51541,7 @@
       </c>
       <c r="B1632" t="inlineStr">
         <is>
-          <t>1155   9.</t>
+          <t>1155  9.</t>
         </is>
       </c>
       <c r="C1632" t="inlineStr">
@@ -51569,7 +51569,7 @@
       </c>
       <c r="B1633" t="inlineStr">
         <is>
-          <t>1008   11.</t>
+          <t>1008  11.</t>
         </is>
       </c>
       <c r="C1633" t="inlineStr">
@@ -51601,7 +51601,7 @@
       </c>
       <c r="B1634" t="inlineStr">
         <is>
-          <t>1008   11.</t>
+          <t>1008  11.</t>
         </is>
       </c>
       <c r="C1634" t="inlineStr">
@@ -51633,7 +51633,7 @@
       </c>
       <c r="B1635" t="inlineStr">
         <is>
-          <t>1008   11.</t>
+          <t>1008  11.</t>
         </is>
       </c>
       <c r="C1635" t="inlineStr">
@@ -51661,7 +51661,7 @@
       </c>
       <c r="B1636" t="inlineStr">
         <is>
-          <t>1008   13.</t>
+          <t>1008  13.</t>
         </is>
       </c>
       <c r="C1636" t="inlineStr">
@@ -51693,7 +51693,7 @@
       </c>
       <c r="B1637" t="inlineStr">
         <is>
-          <t>1100   89.</t>
+          <t>1100  89.</t>
         </is>
       </c>
       <c r="C1637" t="inlineStr">
@@ -51933,7 +51933,7 @@
       </c>
       <c r="B1645" t="inlineStr">
         <is>
-          <t>1100   89.</t>
+          <t>1100  89.</t>
         </is>
       </c>
       <c r="C1645" t="inlineStr">
@@ -51957,7 +51957,7 @@
       </c>
       <c r="B1646" t="inlineStr">
         <is>
-          <t>1100   89.</t>
+          <t>1100  89.</t>
         </is>
       </c>
       <c r="C1646" t="inlineStr">
@@ -51981,7 +51981,7 @@
       </c>
       <c r="B1647" t="inlineStr">
         <is>
-          <t>1100   89.</t>
+          <t>1100  89.</t>
         </is>
       </c>
       <c r="C1647" t="inlineStr">
@@ -52005,7 +52005,7 @@
       </c>
       <c r="B1648" t="inlineStr">
         <is>
-          <t>1100   8931.</t>
+          <t>1100  8931.</t>
         </is>
       </c>
       <c r="C1648" t="inlineStr">
@@ -52229,7 +52229,7 @@
       </c>
       <c r="B1655" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Dec   20.</t>
+          <t xml:space="preserve"> Dec. 20.</t>
         </is>
       </c>
       <c r="C1655" t="inlineStr">
@@ -52261,7 +52261,7 @@
       </c>
       <c r="B1656" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Dec   23.</t>
+          <t xml:space="preserve"> Dec. 23.</t>
         </is>
       </c>
       <c r="C1656" t="inlineStr">
@@ -52293,7 +52293,7 @@
       </c>
       <c r="B1657" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Dec   27.</t>
+          <t xml:space="preserve"> Dec. 27.</t>
         </is>
       </c>
       <c r="C1657" t="inlineStr">
@@ -52325,7 +52325,7 @@
       </c>
       <c r="B1658" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Dec   28.</t>
+          <t xml:space="preserve"> Dec. 28.</t>
         </is>
       </c>
       <c r="C1658" t="inlineStr">
@@ -52357,7 +52357,7 @@
       </c>
       <c r="B1659" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Nov Dec.  </t>
+          <t xml:space="preserve"> Nov Dec. </t>
         </is>
       </c>
       <c r="C1659" t="inlineStr">
@@ -52389,7 +52389,7 @@
       </c>
       <c r="B1660" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Nov Dec.  </t>
+          <t xml:space="preserve"> Nov Dec. </t>
         </is>
       </c>
       <c r="C1660" t="inlineStr">
@@ -52417,7 +52417,7 @@
       </c>
       <c r="B1661" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Nov Dec.  </t>
+          <t xml:space="preserve"> Nov Dec. </t>
         </is>
       </c>
       <c r="C1661" t="inlineStr">
@@ -52445,7 +52445,7 @@
       </c>
       <c r="B1662" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Nov Dec.  </t>
+          <t xml:space="preserve"> Nov Dec. </t>
         </is>
       </c>
       <c r="C1662" t="inlineStr">
@@ -52473,7 +52473,7 @@
       </c>
       <c r="B1663" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Nov Dec.  </t>
+          <t xml:space="preserve"> Nov Dec. </t>
         </is>
       </c>
       <c r="C1663" t="inlineStr">
@@ -52501,7 +52501,7 @@
       </c>
       <c r="B1664" t="inlineStr">
         <is>
-          <t xml:space="preserve">nan    </t>
+          <t xml:space="preserve"> Ian. </t>
         </is>
       </c>
       <c r="C1664" t="inlineStr">
@@ -52529,7 +52529,7 @@
       </c>
       <c r="B1665" t="inlineStr">
         <is>
-          <t>1155   1156.</t>
+          <t xml:space="preserve">1155—1156  </t>
         </is>
       </c>
       <c r="C1665" t="inlineStr">
@@ -52561,7 +52561,7 @@
       </c>
       <c r="B1666" t="inlineStr">
         <is>
-          <t>1155   1156.</t>
+          <t xml:space="preserve">1155—1156  </t>
         </is>
       </c>
       <c r="C1666" t="inlineStr">
@@ -52593,7 +52593,7 @@
       </c>
       <c r="B1667" t="inlineStr">
         <is>
-          <t>1155   1156.</t>
+          <t xml:space="preserve">1155—1156  </t>
         </is>
       </c>
       <c r="C1667" t="inlineStr">
@@ -52625,7 +52625,7 @@
       </c>
       <c r="B1668" t="inlineStr">
         <is>
-          <t>1155   1156.</t>
+          <t xml:space="preserve">1155—1156  </t>
         </is>
       </c>
       <c r="C1668" t="inlineStr">
@@ -52657,7 +52657,7 @@
       </c>
       <c r="B1669" t="inlineStr">
         <is>
-          <t>1155   1156.</t>
+          <t xml:space="preserve">1155—1156  </t>
         </is>
       </c>
       <c r="C1669" t="inlineStr">
@@ -52685,7 +52685,7 @@
       </c>
       <c r="B1670" t="inlineStr">
         <is>
-          <t>1155   1156.</t>
+          <t xml:space="preserve">1155—1156  </t>
         </is>
       </c>
       <c r="C1670" t="inlineStr">
@@ -52713,7 +52713,7 @@
       </c>
       <c r="B1671" t="inlineStr">
         <is>
-          <t>1155   1156.</t>
+          <t xml:space="preserve">1155—1156  </t>
         </is>
       </c>
       <c r="C1671" t="inlineStr">
@@ -52741,7 +52741,7 @@
       </c>
       <c r="B1672" t="inlineStr">
         <is>
-          <t>1155   1156.</t>
+          <t xml:space="preserve">1155—1156  </t>
         </is>
       </c>
       <c r="C1672" t="inlineStr">
@@ -53217,7 +53217,7 @@
       </c>
       <c r="B1687" t="inlineStr">
         <is>
-          <t xml:space="preserve">1156    </t>
+          <t xml:space="preserve">1156  </t>
         </is>
       </c>
       <c r="C1687" t="inlineStr">
@@ -53633,7 +53633,7 @@
       </c>
       <c r="B1700" t="inlineStr">
         <is>
-          <t xml:space="preserve">1156    </t>
+          <t xml:space="preserve">1156  </t>
         </is>
       </c>
       <c r="C1700" t="inlineStr">
@@ -54137,7 +54137,7 @@
       </c>
       <c r="B1716" t="inlineStr">
         <is>
-          <t xml:space="preserve">1186 Mart Apr.  </t>
+          <t xml:space="preserve">1186 Mart Apr. </t>
         </is>
       </c>
       <c r="C1716" t="inlineStr">
@@ -54169,7 +54169,7 @@
       </c>
       <c r="B1717" t="inlineStr">
         <is>
-          <t xml:space="preserve">1156 Apr.  </t>
+          <t xml:space="preserve">1156 Apr. </t>
         </is>
       </c>
       <c r="C1717" t="inlineStr">
@@ -54521,7 +54521,7 @@
       </c>
       <c r="B1728" t="inlineStr">
         <is>
-          <t>1156   27.</t>
+          <t>1156  27.</t>
         </is>
       </c>
       <c r="C1728" t="inlineStr">
@@ -54649,7 +54649,7 @@
       </c>
       <c r="B1732" t="inlineStr">
         <is>
-          <t xml:space="preserve">1156    </t>
+          <t xml:space="preserve">1156  </t>
         </is>
       </c>
       <c r="C1732" t="inlineStr">
@@ -54901,7 +54901,7 @@
       </c>
       <c r="B1740" t="inlineStr">
         <is>
-          <t xml:space="preserve">1156    </t>
+          <t xml:space="preserve">1156  </t>
         </is>
       </c>
       <c r="C1740" t="inlineStr">
@@ -55117,7 +55117,7 @@
       </c>
       <c r="B1747" t="inlineStr">
         <is>
-          <t xml:space="preserve">1156    </t>
+          <t xml:space="preserve">1156  </t>
         </is>
       </c>
       <c r="C1747" t="inlineStr">
@@ -55145,7 +55145,7 @@
       </c>
       <c r="B1748" t="inlineStr">
         <is>
-          <t xml:space="preserve">1156    </t>
+          <t xml:space="preserve">1156  </t>
         </is>
       </c>
       <c r="C1748" t="inlineStr">
@@ -55241,7 +55241,7 @@
       </c>
       <c r="B1751" t="inlineStr">
         <is>
-          <t xml:space="preserve">1156    </t>
+          <t xml:space="preserve">1156  </t>
         </is>
       </c>
       <c r="C1751" t="inlineStr">
@@ -55305,7 +55305,7 @@
       </c>
       <c r="B1753" t="inlineStr">
         <is>
-          <t xml:space="preserve">1156 Iul Aug.  </t>
+          <t xml:space="preserve">1156 Iul Aug. </t>
         </is>
       </c>
       <c r="C1753" t="inlineStr">
@@ -55329,7 +55329,7 @@
       </c>
       <c r="B1754" t="inlineStr">
         <is>
-          <t xml:space="preserve">1156 Iul Aug.  </t>
+          <t xml:space="preserve">1156 Iul Aug. </t>
         </is>
       </c>
       <c r="C1754" t="inlineStr">
@@ -55601,7 +55601,7 @@
       </c>
       <c r="B1763" t="inlineStr">
         <is>
-          <t xml:space="preserve">1156    </t>
+          <t xml:space="preserve">1156  </t>
         </is>
       </c>
       <c r="C1763" t="inlineStr">
@@ -55665,7 +55665,7 @@
       </c>
       <c r="B1765" t="inlineStr">
         <is>
-          <t xml:space="preserve">1156    </t>
+          <t xml:space="preserve">1156  </t>
         </is>
       </c>
       <c r="C1765" t="inlineStr">
@@ -55697,7 +55697,7 @@
       </c>
       <c r="B1766" t="inlineStr">
         <is>
-          <t xml:space="preserve">1156 Oct Nov.  </t>
+          <t xml:space="preserve">1156 Oct Nov. </t>
         </is>
       </c>
       <c r="C1766" t="inlineStr">
@@ -56481,7 +56481,7 @@
       </c>
       <c r="B1791" t="inlineStr">
         <is>
-          <t xml:space="preserve">1156    </t>
+          <t xml:space="preserve">1156  </t>
         </is>
       </c>
       <c r="C1791" t="inlineStr">
@@ -56509,7 +56509,7 @@
       </c>
       <c r="B1792" t="inlineStr">
         <is>
-          <t xml:space="preserve">1156    </t>
+          <t xml:space="preserve">1156  </t>
         </is>
       </c>
       <c r="C1792" t="inlineStr">
@@ -56537,7 +56537,7 @@
       </c>
       <c r="B1793" t="inlineStr">
         <is>
-          <t xml:space="preserve">1156    </t>
+          <t xml:space="preserve">1156  </t>
         </is>
       </c>
       <c r="C1793" t="inlineStr">
@@ -56565,7 +56565,7 @@
       </c>
       <c r="B1794" t="inlineStr">
         <is>
-          <t>1154   1157.</t>
+          <t xml:space="preserve">1154—1157  </t>
         </is>
       </c>
       <c r="C1794" t="inlineStr">
@@ -56593,7 +56593,7 @@
       </c>
       <c r="B1795" t="inlineStr">
         <is>
-          <t xml:space="preserve">1157    </t>
+          <t xml:space="preserve">1157  </t>
         </is>
       </c>
       <c r="C1795" t="inlineStr">
@@ -57165,7 +57165,7 @@
       </c>
       <c r="B1813" t="inlineStr">
         <is>
-          <t>1157 Febr. 16.</t>
+          <t>1157 (Febr). 16.</t>
         </is>
       </c>
       <c r="C1813" t="inlineStr">
@@ -57797,7 +57797,7 @@
       </c>
       <c r="B1833" t="inlineStr">
         <is>
-          <t>1157 Mai. 15.</t>
+          <t>1157 (Mai). 15.</t>
         </is>
       </c>
       <c r="C1833" t="inlineStr">
@@ -57829,7 +57829,7 @@
       </c>
       <c r="B1834" t="inlineStr">
         <is>
-          <t xml:space="preserve">1157    </t>
+          <t xml:space="preserve">1157  </t>
         </is>
       </c>
       <c r="C1834" t="inlineStr">
@@ -58149,7 +58149,7 @@
       </c>
       <c r="B1844" t="inlineStr">
         <is>
-          <t xml:space="preserve">1157    </t>
+          <t xml:space="preserve">1157  </t>
         </is>
       </c>
       <c r="C1844" t="inlineStr">
@@ -58181,7 +58181,7 @@
       </c>
       <c r="B1845" t="inlineStr">
         <is>
-          <t xml:space="preserve">1157    </t>
+          <t xml:space="preserve">1157  </t>
         </is>
       </c>
       <c r="C1845" t="inlineStr">
@@ -58213,7 +58213,7 @@
       </c>
       <c r="B1846" t="inlineStr">
         <is>
-          <t>1157   3.</t>
+          <t>1157  3.</t>
         </is>
       </c>
       <c r="C1846" t="inlineStr">
@@ -58245,7 +58245,7 @@
       </c>
       <c r="B1847" t="inlineStr">
         <is>
-          <t>1157   8.</t>
+          <t>1157  8.</t>
         </is>
       </c>
       <c r="C1847" t="inlineStr">
@@ -58277,7 +58277,7 @@
       </c>
       <c r="B1848" t="inlineStr">
         <is>
-          <t>1157   8.</t>
+          <t>1157  8.</t>
         </is>
       </c>
       <c r="C1848" t="inlineStr">
@@ -58309,7 +58309,7 @@
       </c>
       <c r="B1849" t="inlineStr">
         <is>
-          <t>1157   8.</t>
+          <t>1157  8.</t>
         </is>
       </c>
       <c r="C1849" t="inlineStr">
@@ -58341,7 +58341,7 @@
       </c>
       <c r="B1850" t="inlineStr">
         <is>
-          <t>1157   10.</t>
+          <t>1157  10.</t>
         </is>
       </c>
       <c r="C1850" t="inlineStr">
@@ -58373,7 +58373,7 @@
       </c>
       <c r="B1851" t="inlineStr">
         <is>
-          <t>1157   10.</t>
+          <t>1157  10.</t>
         </is>
       </c>
       <c r="C1851" t="inlineStr">
@@ -58405,7 +58405,7 @@
       </c>
       <c r="B1852" t="inlineStr">
         <is>
-          <t>1157   13.</t>
+          <t>1157  13.</t>
         </is>
       </c>
       <c r="C1852" t="inlineStr">
@@ -58437,7 +58437,7 @@
       </c>
       <c r="B1853" t="inlineStr">
         <is>
-          <t>1157   13.</t>
+          <t>1157  13.</t>
         </is>
       </c>
       <c r="C1853" t="inlineStr">
@@ -58465,7 +58465,7 @@
       </c>
       <c r="B1854" t="inlineStr">
         <is>
-          <t xml:space="preserve">1157    </t>
+          <t xml:space="preserve">1157  </t>
         </is>
       </c>
       <c r="C1854" t="inlineStr">
@@ -58493,7 +58493,7 @@
       </c>
       <c r="B1855" t="inlineStr">
         <is>
-          <t>1157   15.</t>
+          <t>1157  15.</t>
         </is>
       </c>
       <c r="C1855" t="inlineStr">
@@ -58525,7 +58525,7 @@
       </c>
       <c r="B1856" t="inlineStr">
         <is>
-          <t>1157   28.</t>
+          <t>1157  28.</t>
         </is>
       </c>
       <c r="C1856" t="inlineStr">
@@ -58845,7 +58845,7 @@
       </c>
       <c r="B1866" t="inlineStr">
         <is>
-          <t>1030   1.</t>
+          <t>1030  1.</t>
         </is>
       </c>
       <c r="C1866" t="inlineStr">
@@ -58877,7 +58877,7 @@
       </c>
       <c r="B1867" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Nov   11.</t>
+          <t xml:space="preserve"> Nov. 11.</t>
         </is>
       </c>
       <c r="C1867" t="inlineStr">
@@ -58909,7 +58909,7 @@
       </c>
       <c r="B1868" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Nov   15.</t>
+          <t xml:space="preserve"> Nov. 15.</t>
         </is>
       </c>
       <c r="C1868" t="inlineStr">
@@ -58941,7 +58941,7 @@
       </c>
       <c r="B1869" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Dec   1.</t>
+          <t xml:space="preserve"> Dec. 1.</t>
         </is>
       </c>
       <c r="C1869" t="inlineStr">
@@ -58973,7 +58973,7 @@
       </c>
       <c r="B1870" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Dec   1.</t>
+          <t xml:space="preserve"> Dec. 1.</t>
         </is>
       </c>
       <c r="C1870" t="inlineStr">
@@ -59005,7 +59005,7 @@
       </c>
       <c r="B1871" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Dec   13.</t>
+          <t xml:space="preserve"> Dec. 13.</t>
         </is>
       </c>
       <c r="C1871" t="inlineStr">
@@ -59037,7 +59037,7 @@
       </c>
       <c r="B1872" t="inlineStr">
         <is>
-          <t xml:space="preserve"> — 3   0.</t>
+          <t xml:space="preserve">  30.</t>
         </is>
       </c>
       <c r="C1872" t="inlineStr">
@@ -59069,7 +59069,7 @@
       </c>
       <c r="B1873" t="inlineStr">
         <is>
-          <t xml:space="preserve"> — 3   0.</t>
+          <t xml:space="preserve">  30.</t>
         </is>
       </c>
       <c r="C1873" t="inlineStr">
@@ -59101,7 +59101,7 @@
       </c>
       <c r="B1874" t="inlineStr">
         <is>
-          <t xml:space="preserve"> — 3   0.</t>
+          <t xml:space="preserve">  30.</t>
         </is>
       </c>
       <c r="C1874" t="inlineStr">
@@ -59129,7 +59129,7 @@
       </c>
       <c r="B1875" t="inlineStr">
         <is>
-          <t xml:space="preserve"> — 3   0.</t>
+          <t xml:space="preserve">  30.</t>
         </is>
       </c>
       <c r="C1875" t="inlineStr">
@@ -59161,7 +59161,7 @@
       </c>
       <c r="B1876" t="inlineStr">
         <is>
-          <t xml:space="preserve"> — 3   0.</t>
+          <t xml:space="preserve">  30.</t>
         </is>
       </c>
       <c r="C1876" t="inlineStr">
@@ -59193,7 +59193,7 @@
       </c>
       <c r="B1877" t="inlineStr">
         <is>
-          <t xml:space="preserve">nan    </t>
+          <t xml:space="preserve"> Ian. </t>
         </is>
       </c>
       <c r="C1877" t="inlineStr">
@@ -59225,7 +59225,7 @@
       </c>
       <c r="B1878" t="inlineStr">
         <is>
-          <t xml:space="preserve">nan    </t>
+          <t xml:space="preserve"> Ian. </t>
         </is>
       </c>
       <c r="C1878" t="inlineStr">
@@ -59257,7 +59257,7 @@
       </c>
       <c r="B1879" t="inlineStr">
         <is>
-          <t xml:space="preserve">nan    </t>
+          <t xml:space="preserve"> Ian. </t>
         </is>
       </c>
       <c r="C1879" t="inlineStr">
@@ -59289,7 +59289,7 @@
       </c>
       <c r="B1880" t="inlineStr">
         <is>
-          <t xml:space="preserve">nan    </t>
+          <t xml:space="preserve"> Ian. </t>
         </is>
       </c>
       <c r="C1880" t="inlineStr">
@@ -59321,7 +59321,7 @@
       </c>
       <c r="B1881" t="inlineStr">
         <is>
-          <t>1154   1158.</t>
+          <t xml:space="preserve">1154— 1158  </t>
         </is>
       </c>
       <c r="C1881" t="inlineStr">
@@ -59349,7 +59349,7 @@
       </c>
       <c r="B1882" t="inlineStr">
         <is>
-          <t>1155   1158.</t>
+          <t xml:space="preserve">1155—1158  </t>
         </is>
       </c>
       <c r="C1882" t="inlineStr">
@@ -59381,7 +59381,7 @@
       </c>
       <c r="B1883" t="inlineStr">
         <is>
-          <t>1155   115829.</t>
+          <t>1155—1158  29.</t>
         </is>
       </c>
       <c r="C1883" t="inlineStr">
@@ -59413,7 +59413,7 @@
       </c>
       <c r="B1884" t="inlineStr">
         <is>
-          <t>1155   1158.</t>
+          <t xml:space="preserve">1155— 1158  </t>
         </is>
       </c>
       <c r="C1884" t="inlineStr">
@@ -59445,7 +59445,7 @@
       </c>
       <c r="B1885" t="inlineStr">
         <is>
-          <t>1155 Iul. 115823.</t>
+          <t>1155— 1158 Iul. 23.</t>
         </is>
       </c>
       <c r="C1885" t="inlineStr">
@@ -59477,7 +59477,7 @@
       </c>
       <c r="B1886" t="inlineStr">
         <is>
-          <t>1155 Aug. 115814.</t>
+          <t>1155— 1158 Aug. 14.</t>
         </is>
       </c>
       <c r="C1886" t="inlineStr">
@@ -59509,7 +59509,7 @@
       </c>
       <c r="B1887" t="inlineStr">
         <is>
-          <t>1155 Aug. 115826.</t>
+          <t>1155— 1158 Aug. 26.</t>
         </is>
       </c>
       <c r="C1887" t="inlineStr">
@@ -59541,7 +59541,7 @@
       </c>
       <c r="B1888" t="inlineStr">
         <is>
-          <t>1155 Sept. 115811.</t>
+          <t>1155— 1158 Sept. 11.</t>
         </is>
       </c>
       <c r="C1888" t="inlineStr">
@@ -59573,7 +59573,7 @@
       </c>
       <c r="B1889" t="inlineStr">
         <is>
-          <t>1155 Sept. 115820.</t>
+          <t>1155— 1158 Sept. 20.</t>
         </is>
       </c>
       <c r="C1889" t="inlineStr">
@@ -59605,7 +59605,7 @@
       </c>
       <c r="B1890" t="inlineStr">
         <is>
-          <t>1155 Nov. 115818.</t>
+          <t>1155— 1158 Nov. 18.</t>
         </is>
       </c>
       <c r="C1890" t="inlineStr">
@@ -59637,7 +59637,7 @@
       </c>
       <c r="B1891" t="inlineStr">
         <is>
-          <t>1156 Oct. 115827.</t>
+          <t>1156— 1158 Oct. 27.</t>
         </is>
       </c>
       <c r="C1891" t="inlineStr">
@@ -59669,7 +59669,7 @@
       </c>
       <c r="B1892" t="inlineStr">
         <is>
-          <t>1156 Oct. 115829.</t>
+          <t>1156— 1158 Oct. 29.</t>
         </is>
       </c>
       <c r="C1892" t="inlineStr">
@@ -59701,7 +59701,7 @@
       </c>
       <c r="B1893" t="inlineStr">
         <is>
-          <t>1156 Oct. 115829.</t>
+          <t>1156— 1158 Oct. 29.</t>
         </is>
       </c>
       <c r="C1893" t="inlineStr">
@@ -59733,7 +59733,7 @@
       </c>
       <c r="B1894" t="inlineStr">
         <is>
-          <t>1156 Oct. 115828.</t>
+          <t>1156— 1158 Oct. 28.</t>
         </is>
       </c>
       <c r="C1894" t="inlineStr">
@@ -59765,7 +59765,7 @@
       </c>
       <c r="B1895" t="inlineStr">
         <is>
-          <t>1156 Nov. 11581.</t>
+          <t>1156— 1158 Nov. 1.</t>
         </is>
       </c>
       <c r="C1895" t="inlineStr">
@@ -59797,7 +59797,7 @@
       </c>
       <c r="B1896" t="inlineStr">
         <is>
-          <t>1156 Nov. 11581.</t>
+          <t>1156— 1158 Nov. 1.</t>
         </is>
       </c>
       <c r="C1896" t="inlineStr">
@@ -59829,7 +59829,7 @@
       </c>
       <c r="B1897" t="inlineStr">
         <is>
-          <t>1156 Nov. 11588.</t>
+          <t>1156— 1158 Nov. 8.</t>
         </is>
       </c>
       <c r="C1897" t="inlineStr">
@@ -59861,7 +59861,7 @@
       </c>
       <c r="B1898" t="inlineStr">
         <is>
-          <t>1156 Nov. 115818.</t>
+          <t>1156— 1158 Nov. 18.</t>
         </is>
       </c>
       <c r="C1898" t="inlineStr">
@@ -59893,7 +59893,7 @@
       </c>
       <c r="B1899" t="inlineStr">
         <is>
-          <t>1156 NovLanerani. 115815.</t>
+          <t>1156— 1158 NovLanerani. 15.</t>
         </is>
       </c>
       <c r="C1899" t="inlineStr">
@@ -59925,7 +59925,7 @@
       </c>
       <c r="B1900" t="inlineStr">
         <is>
-          <t>1156 NovLanerani. 115815.</t>
+          <t>1156— 1158 NovLanerani. 15.</t>
         </is>
       </c>
       <c r="C1900" t="inlineStr">
@@ -59957,7 +59957,7 @@
       </c>
       <c r="B1901" t="inlineStr">
         <is>
-          <t>1156 DecLanerani. 115815.</t>
+          <t>1156— 1158 DecLanerani. 15.</t>
         </is>
       </c>
       <c r="C1901" t="inlineStr">
@@ -59989,7 +59989,7 @@
       </c>
       <c r="B1902" t="inlineStr">
         <is>
-          <t>1156 DecLanerani. 115815.</t>
+          <t>1156— 1158 DecLanerani. 15.</t>
         </is>
       </c>
       <c r="C1902" t="inlineStr">
@@ -60021,7 +60021,7 @@
       </c>
       <c r="B1903" t="inlineStr">
         <is>
-          <t>1156 DecLanerani. 115815.</t>
+          <t>1156— 1158 DecLanerani. 15.</t>
         </is>
       </c>
       <c r="C1903" t="inlineStr">
@@ -60053,7 +60053,7 @@
       </c>
       <c r="B1904" t="inlineStr">
         <is>
-          <t>1156 Dec. 1158.</t>
+          <t xml:space="preserve">1156— 1158 Dec. </t>
         </is>
       </c>
       <c r="C1904" t="inlineStr">
@@ -60085,7 +60085,7 @@
       </c>
       <c r="B1905" t="inlineStr">
         <is>
-          <t>1156 Dec. 1158.</t>
+          <t xml:space="preserve">1156— 1158 Dec. </t>
         </is>
       </c>
       <c r="C1905" t="inlineStr">
@@ -60117,7 +60117,7 @@
       </c>
       <c r="B1906" t="inlineStr">
         <is>
-          <t>1156 Dec. 1158.</t>
+          <t xml:space="preserve">1156— 1158 Dec. </t>
         </is>
       </c>
       <c r="C1906" t="inlineStr">
@@ -60149,7 +60149,7 @@
       </c>
       <c r="B1907" t="inlineStr">
         <is>
-          <t>1156 Dec. 1158.</t>
+          <t xml:space="preserve">1156— 1158 Dec. </t>
         </is>
       </c>
       <c r="C1907" t="inlineStr">
@@ -60181,7 +60181,7 @@
       </c>
       <c r="B1908" t="inlineStr">
         <is>
-          <t>1156 Dec. 1158.</t>
+          <t xml:space="preserve">1156— 1158 Dec. </t>
         </is>
       </c>
       <c r="C1908" t="inlineStr">
@@ -60213,7 +60213,7 @@
       </c>
       <c r="B1909" t="inlineStr">
         <is>
-          <t>1156 Dec. 1158.</t>
+          <t xml:space="preserve">1156— 1158 Dec. </t>
         </is>
       </c>
       <c r="C1909" t="inlineStr">
@@ -60245,7 +60245,7 @@
       </c>
       <c r="B1910" t="inlineStr">
         <is>
-          <t>1156 Dec. 115813.</t>
+          <t>1156— 1158 Dec. 13.</t>
         </is>
       </c>
       <c r="C1910" t="inlineStr">
@@ -60277,7 +60277,7 @@
       </c>
       <c r="B1911" t="inlineStr">
         <is>
-          <t>1156 Dec. 115816.</t>
+          <t>1156— 1158 Dec. 16.</t>
         </is>
       </c>
       <c r="C1911" t="inlineStr">
@@ -60309,7 +60309,7 @@
       </c>
       <c r="B1912" t="inlineStr">
         <is>
-          <t>1156 Dec. 115816.</t>
+          <t>1156— 1158 Dec. 16.</t>
         </is>
       </c>
       <c r="C1912" t="inlineStr">
@@ -60341,7 +60341,7 @@
       </c>
       <c r="B1913" t="inlineStr">
         <is>
-          <t>1156   1158.</t>
+          <t xml:space="preserve">1156— 1158  </t>
         </is>
       </c>
       <c r="C1913" t="inlineStr">
@@ -60373,7 +60373,7 @@
       </c>
       <c r="B1914" t="inlineStr">
         <is>
-          <t>1156   1158.</t>
+          <t xml:space="preserve">1156— 1158  </t>
         </is>
       </c>
       <c r="C1914" t="inlineStr">
@@ -60405,7 +60405,7 @@
       </c>
       <c r="B1915" t="inlineStr">
         <is>
-          <t>1156   115821.</t>
+          <t>1156— 1158  21.</t>
         </is>
       </c>
       <c r="C1915" t="inlineStr">
@@ -60437,7 +60437,7 @@
       </c>
       <c r="B1916" t="inlineStr">
         <is>
-          <t>1156 DecLaterani. 115823.</t>
+          <t>1156— 1158 DecLaterani. 23.</t>
         </is>
       </c>
       <c r="C1916" t="inlineStr">
@@ -60469,7 +60469,7 @@
       </c>
       <c r="B1917" t="inlineStr">
         <is>
-          <t>1156 DecLaterani. 115823.</t>
+          <t>1156— 1158 DecLaterani. 23.</t>
         </is>
       </c>
       <c r="C1917" t="inlineStr">
@@ -60501,7 +60501,7 @@
       </c>
       <c r="B1918" t="inlineStr">
         <is>
-          <t>1156 DecLaterani. 115823.</t>
+          <t>1156— 1158 DecLaterani. 23.</t>
         </is>
       </c>
       <c r="C1918" t="inlineStr">
@@ -60533,7 +60533,7 @@
       </c>
       <c r="B1919" t="inlineStr">
         <is>
-          <t>1156 Dec. 115829.</t>
+          <t>1156— 1158 Dec. 29.</t>
         </is>
       </c>
       <c r="C1919" t="inlineStr">
@@ -60565,7 +60565,7 @@
       </c>
       <c r="B1920" t="inlineStr">
         <is>
-          <t>1157 Ian. 11582.</t>
+          <t>1157—1158 Ian. 2.</t>
         </is>
       </c>
       <c r="C1920" t="inlineStr">
@@ -60597,7 +60597,7 @@
       </c>
       <c r="B1921" t="inlineStr">
         <is>
-          <t>1157 Mart. 115830.</t>
+          <t>1157—1158 Mart. 30.</t>
         </is>
       </c>
       <c r="C1921" t="inlineStr">
@@ -60629,7 +60629,7 @@
       </c>
       <c r="B1922" t="inlineStr">
         <is>
-          <t>1157 Mart. 115830.</t>
+          <t>1157—1158 Mart. 30.</t>
         </is>
       </c>
       <c r="C1922" t="inlineStr">
@@ -60661,7 +60661,7 @@
       </c>
       <c r="B1923" t="inlineStr">
         <is>
-          <t>1157 Mai. 115827.</t>
+          <t>1157—1158 Mai. 27.</t>
         </is>
       </c>
       <c r="C1923" t="inlineStr">
@@ -60693,7 +60693,7 @@
       </c>
       <c r="B1924" t="inlineStr">
         <is>
-          <t>1157 Mai. 115827.</t>
+          <t>1157—1158 Mai. 27.</t>
         </is>
       </c>
       <c r="C1924" t="inlineStr">
@@ -60725,7 +60725,7 @@
       </c>
       <c r="B1925" t="inlineStr">
         <is>
-          <t>1157 Mai. 115827.</t>
+          <t>1157—1158 Mai. 27.</t>
         </is>
       </c>
       <c r="C1925" t="inlineStr">
@@ -60757,7 +60757,7 @@
       </c>
       <c r="B1926" t="inlineStr">
         <is>
-          <t>1157 Mai. 115830.</t>
+          <t>1157—1158 Mai. 30.</t>
         </is>
       </c>
       <c r="C1926" t="inlineStr">
@@ -60789,7 +60789,7 @@
       </c>
       <c r="B1927" t="inlineStr">
         <is>
-          <t>1157 Iun. 11581.</t>
+          <t>1157—1158 Iun. 1.</t>
         </is>
       </c>
       <c r="C1927" t="inlineStr">
@@ -60821,7 +60821,7 @@
       </c>
       <c r="B1928" t="inlineStr">
         <is>
-          <t>1157 Iun. 11581.</t>
+          <t>1157—1158 Iun. 1.</t>
         </is>
       </c>
       <c r="C1928" t="inlineStr">
@@ -60853,7 +60853,7 @@
       </c>
       <c r="B1929" t="inlineStr">
         <is>
-          <t>1157 Iun. 11581.</t>
+          <t>1157—1158 Iun. 1.</t>
         </is>
       </c>
       <c r="C1929" t="inlineStr">
@@ -60885,7 +60885,7 @@
       </c>
       <c r="B1930" t="inlineStr">
         <is>
-          <t>1157 Iun. 11584.</t>
+          <t>1157—1158 Iun. 4.</t>
         </is>
       </c>
       <c r="C1930" t="inlineStr">
@@ -60917,7 +60917,7 @@
       </c>
       <c r="B1931" t="inlineStr">
         <is>
-          <t>1157 AugViterbii. 115812.</t>
+          <t>1157—1158 AugViterbii. 12.</t>
         </is>
       </c>
       <c r="C1931" t="inlineStr">
@@ -60949,7 +60949,7 @@
       </c>
       <c r="B1932" t="inlineStr">
         <is>
-          <t>1157 DecLaterani. 115813.</t>
+          <t>1157—1158 DecLaterani. 13.</t>
         </is>
       </c>
       <c r="C1932" t="inlineStr">
@@ -61269,7 +61269,7 @@
       </c>
       <c r="B1942" t="inlineStr">
         <is>
-          <t xml:space="preserve">1158    </t>
+          <t xml:space="preserve">1158  </t>
         </is>
       </c>
       <c r="C1942" t="inlineStr">
@@ -62061,7 +62061,7 @@
       </c>
       <c r="B1967" t="inlineStr">
         <is>
-          <t xml:space="preserve">1158 lenteSers.  </t>
+          <t xml:space="preserve">1158 lenteSers. </t>
         </is>
       </c>
       <c r="C1967" t="inlineStr">
@@ -62521,7 +62521,7 @@
       </c>
       <c r="B1982" t="inlineStr">
         <is>
-          <t xml:space="preserve">1158    </t>
+          <t xml:space="preserve">1158  </t>
         </is>
       </c>
       <c r="C1982" t="inlineStr">
@@ -62925,7 +62925,7 @@
       </c>
       <c r="B1995" t="inlineStr">
         <is>
-          <t xml:space="preserve">1158    </t>
+          <t xml:space="preserve">1158  </t>
         </is>
       </c>
       <c r="C1995" t="inlineStr">
@@ -62957,7 +62957,7 @@
       </c>
       <c r="B1996" t="inlineStr">
         <is>
-          <t>1154   1159.</t>
+          <t xml:space="preserve">1154 —1159  </t>
         </is>
       </c>
       <c r="C1996" t="inlineStr">
@@ -62989,7 +62989,7 @@
       </c>
       <c r="B1997" t="inlineStr">
         <is>
-          <t>1154   1159.</t>
+          <t xml:space="preserve">1154 —1159  </t>
         </is>
       </c>
       <c r="C1997" t="inlineStr">
@@ -63021,7 +63021,7 @@
       </c>
       <c r="B1998" t="inlineStr">
         <is>
-          <t>1154   1159.</t>
+          <t xml:space="preserve">1154 —1159  </t>
         </is>
       </c>
       <c r="C1998" t="inlineStr">
@@ -63053,7 +63053,7 @@
       </c>
       <c r="B1999" t="inlineStr">
         <is>
-          <t>1154   1159.</t>
+          <t xml:space="preserve">1154 —1159  </t>
         </is>
       </c>
       <c r="C1999" t="inlineStr">
@@ -63085,7 +63085,7 @@
       </c>
       <c r="B2000" t="inlineStr">
         <is>
-          <t>1154   1159.</t>
+          <t xml:space="preserve">1154 —1159  </t>
         </is>
       </c>
       <c r="C2000" t="inlineStr">
@@ -63117,7 +63117,7 @@
       </c>
       <c r="B2001" t="inlineStr">
         <is>
-          <t>1154   1159.</t>
+          <t xml:space="preserve">1154 —1159  </t>
         </is>
       </c>
       <c r="C2001" t="inlineStr">
@@ -63149,7 +63149,7 @@
       </c>
       <c r="B2002" t="inlineStr">
         <is>
-          <t>1154   1159.</t>
+          <t xml:space="preserve">1154 —1159  </t>
         </is>
       </c>
       <c r="C2002" t="inlineStr">
@@ -63181,7 +63181,7 @@
       </c>
       <c r="B2003" t="inlineStr">
         <is>
-          <t>1154   1159.</t>
+          <t xml:space="preserve">1154 —1159  </t>
         </is>
       </c>
       <c r="C2003" t="inlineStr">
@@ -63213,7 +63213,7 @@
       </c>
       <c r="B2004" t="inlineStr">
         <is>
-          <t>1154   1159.</t>
+          <t>1154  1159.</t>
         </is>
       </c>
       <c r="C2004" t="inlineStr">
@@ -63245,7 +63245,7 @@
       </c>
       <c r="B2005" t="inlineStr">
         <is>
-          <t>1154   1159.</t>
+          <t>1154  1159.</t>
         </is>
       </c>
       <c r="C2005" t="inlineStr">
@@ -63277,7 +63277,7 @@
       </c>
       <c r="B2006" t="inlineStr">
         <is>
-          <t>1154   1159.</t>
+          <t>1154  1159.</t>
         </is>
       </c>
       <c r="C2006" t="inlineStr">
@@ -63309,7 +63309,7 @@
       </c>
       <c r="B2007" t="inlineStr">
         <is>
-          <t>1154   1159.</t>
+          <t>1154  1159.</t>
         </is>
       </c>
       <c r="C2007" t="inlineStr">
@@ -63341,7 +63341,7 @@
       </c>
       <c r="B2008" t="inlineStr">
         <is>
-          <t>1154   1159.</t>
+          <t>1154  1159.</t>
         </is>
       </c>
       <c r="C2008" t="inlineStr">
@@ -63373,7 +63373,7 @@
       </c>
       <c r="B2009" t="inlineStr">
         <is>
-          <t>1154   1159.</t>
+          <t>1154  1159.</t>
         </is>
       </c>
       <c r="C2009" t="inlineStr">
@@ -63405,7 +63405,7 @@
       </c>
       <c r="B2010" t="inlineStr">
         <is>
-          <t>1154   1159.</t>
+          <t>1154  1159.</t>
         </is>
       </c>
       <c r="C2010" t="inlineStr">
@@ -63437,7 +63437,7 @@
       </c>
       <c r="B2011" t="inlineStr">
         <is>
-          <t>1154   1159.</t>
+          <t>1154  1159.</t>
         </is>
       </c>
       <c r="C2011" t="inlineStr">
@@ -63469,7 +63469,7 @@
       </c>
       <c r="B2012" t="inlineStr">
         <is>
-          <t>1154   1159.</t>
+          <t>1154  1159.</t>
         </is>
       </c>
       <c r="C2012" t="inlineStr">
@@ -63497,7 +63497,7 @@
       </c>
       <c r="B2013" t="inlineStr">
         <is>
-          <t>1154   1159.</t>
+          <t>1154  1159.</t>
         </is>
       </c>
       <c r="C2013" t="inlineStr">
@@ -63529,7 +63529,7 @@
       </c>
       <c r="B2014" t="inlineStr">
         <is>
-          <t>1154   1159.</t>
+          <t>1154  1159.</t>
         </is>
       </c>
       <c r="C2014" t="inlineStr">
@@ -63561,7 +63561,7 @@
       </c>
       <c r="B2015" t="inlineStr">
         <is>
-          <t>1154   1159.</t>
+          <t>1154  1159.</t>
         </is>
       </c>
       <c r="C2015" t="inlineStr">
@@ -63593,7 +63593,7 @@
       </c>
       <c r="B2016" t="inlineStr">
         <is>
-          <t>1154   1159.</t>
+          <t>1154  1159.</t>
         </is>
       </c>
       <c r="C2016" t="inlineStr">
@@ -63625,7 +63625,7 @@
       </c>
       <c r="B2017" t="inlineStr">
         <is>
-          <t>1154   1159.</t>
+          <t>1154  1159.</t>
         </is>
       </c>
       <c r="C2017" t="inlineStr">
@@ -63657,7 +63657,7 @@
       </c>
       <c r="B2018" t="inlineStr">
         <is>
-          <t>1154   1159.</t>
+          <t>1154  1159.</t>
         </is>
       </c>
       <c r="C2018" t="inlineStr">
@@ -63689,7 +63689,7 @@
       </c>
       <c r="B2019" t="inlineStr">
         <is>
-          <t>1154   1159.</t>
+          <t>1154  1159.</t>
         </is>
       </c>
       <c r="C2019" t="inlineStr">
@@ -63721,7 +63721,7 @@
       </c>
       <c r="B2020" t="inlineStr">
         <is>
-          <t>1154   1159.</t>
+          <t>1154  1159.</t>
         </is>
       </c>
       <c r="C2020" t="inlineStr">
@@ -63753,7 +63753,7 @@
       </c>
       <c r="B2021" t="inlineStr">
         <is>
-          <t>1154   1159.</t>
+          <t xml:space="preserve">1154— 1159  </t>
         </is>
       </c>
       <c r="C2021" t="inlineStr">
@@ -63785,7 +63785,7 @@
       </c>
       <c r="B2022" t="inlineStr">
         <is>
-          <t>1155 Iun. 11596.</t>
+          <t>1155—1159 Iun. 6.</t>
         </is>
       </c>
       <c r="C2022" t="inlineStr">
@@ -63817,7 +63817,7 @@
       </c>
       <c r="B2023" t="inlineStr">
         <is>
-          <t>1155 Aug. 115913.</t>
+          <t>1155—1159 Aug. 13.</t>
         </is>
       </c>
       <c r="C2023" t="inlineStr">
@@ -63849,7 +63849,7 @@
       </c>
       <c r="B2024" t="inlineStr">
         <is>
-          <t>1155   1159.</t>
+          <t xml:space="preserve">1155—1159  </t>
         </is>
       </c>
       <c r="C2024" t="inlineStr">
@@ -63881,7 +63881,7 @@
       </c>
       <c r="B2025" t="inlineStr">
         <is>
-          <t>1155   1159.</t>
+          <t xml:space="preserve">1155—1159  </t>
         </is>
       </c>
       <c r="C2025" t="inlineStr">
@@ -63913,7 +63913,7 @@
       </c>
       <c r="B2026" t="inlineStr">
         <is>
-          <t>1156   1159.</t>
+          <t xml:space="preserve">1156—1159  </t>
         </is>
       </c>
       <c r="C2026" t="inlineStr">
@@ -63945,7 +63945,7 @@
       </c>
       <c r="B2027" t="inlineStr">
         <is>
-          <t>1156   1159.</t>
+          <t xml:space="preserve">1156—1159  </t>
         </is>
       </c>
       <c r="C2027" t="inlineStr">
@@ -63977,7 +63977,7 @@
       </c>
       <c r="B2028" t="inlineStr">
         <is>
-          <t>1157 LanLaterani. 11594.</t>
+          <t>1157—1159 LanLaterani. 4.</t>
         </is>
       </c>
       <c r="C2028" t="inlineStr">
@@ -64009,7 +64009,7 @@
       </c>
       <c r="B2029" t="inlineStr">
         <is>
-          <t>1157 Ian. 11594.</t>
+          <t>1157—1159 Ian. 4.</t>
         </is>
       </c>
       <c r="C2029" t="inlineStr">
@@ -64041,7 +64041,7 @@
       </c>
       <c r="B2030" t="inlineStr">
         <is>
-          <t>1157 Ian. 11599.</t>
+          <t>1157—1159 Ian. 9.</t>
         </is>
       </c>
       <c r="C2030" t="inlineStr">
@@ -64073,7 +64073,7 @@
       </c>
       <c r="B2031" t="inlineStr">
         <is>
-          <t>1157 Ian. 115918.</t>
+          <t>1157—1159 Ian. 18.</t>
         </is>
       </c>
       <c r="C2031" t="inlineStr">
@@ -64105,7 +64105,7 @@
       </c>
       <c r="B2032" t="inlineStr">
         <is>
-          <t>1157 Ian. 115921.</t>
+          <t>1157—1159 Ian. 21.</t>
         </is>
       </c>
       <c r="C2032" t="inlineStr">
@@ -64137,7 +64137,7 @@
       </c>
       <c r="B2033" t="inlineStr">
         <is>
-          <t>1157 Febr. 11596.</t>
+          <t>1157—1159 Febr. 6.</t>
         </is>
       </c>
       <c r="C2033" t="inlineStr">
@@ -64169,7 +64169,7 @@
       </c>
       <c r="B2034" t="inlineStr">
         <is>
-          <t>1157 Febr. 11596.</t>
+          <t>1157—1159 Febr. 6.</t>
         </is>
       </c>
       <c r="C2034" t="inlineStr">
@@ -64201,7 +64201,7 @@
       </c>
       <c r="B2035" t="inlineStr">
         <is>
-          <t>1157 Febr. 1159.</t>
+          <t xml:space="preserve">1157—1159 Febr. </t>
         </is>
       </c>
       <c r="C2035" t="inlineStr">
@@ -64233,7 +64233,7 @@
       </c>
       <c r="B2036" t="inlineStr">
         <is>
-          <t>1157 Febr. 115912.</t>
+          <t>1157—1159 Febr. 12.</t>
         </is>
       </c>
       <c r="C2036" t="inlineStr">
@@ -64265,7 +64265,7 @@
       </c>
       <c r="B2037" t="inlineStr">
         <is>
-          <t>1157 Febr. 115912.</t>
+          <t>1157—1159 Febr. 12.</t>
         </is>
       </c>
       <c r="C2037" t="inlineStr">
@@ -64297,7 +64297,7 @@
       </c>
       <c r="B2038" t="inlineStr">
         <is>
-          <t>1157 Febr. 11591.</t>
+          <t>1157—1159 Febr. 1.</t>
         </is>
       </c>
       <c r="C2038" t="inlineStr">
@@ -64329,7 +64329,7 @@
       </c>
       <c r="B2039" t="inlineStr">
         <is>
-          <t>1157 Febr. 115918.</t>
+          <t>1157—1159 Febr. 18.</t>
         </is>
       </c>
       <c r="C2039" t="inlineStr">
@@ -64361,7 +64361,7 @@
       </c>
       <c r="B2040" t="inlineStr">
         <is>
-          <t>1157 Febr. 115918.</t>
+          <t>1157—1159 Febr. 18.</t>
         </is>
       </c>
       <c r="C2040" t="inlineStr">
@@ -64393,7 +64393,7 @@
       </c>
       <c r="B2041" t="inlineStr">
         <is>
-          <t>1157 Febr. 115922.</t>
+          <t>1157—1159 Febr. 22.</t>
         </is>
       </c>
       <c r="C2041" t="inlineStr">
@@ -64425,7 +64425,7 @@
       </c>
       <c r="B2042" t="inlineStr">
         <is>
-          <t>1157 Febr. 115926.</t>
+          <t>1157—1159 Febr. 26.</t>
         </is>
       </c>
       <c r="C2042" t="inlineStr">
@@ -64457,7 +64457,7 @@
       </c>
       <c r="B2043" t="inlineStr">
         <is>
-          <t>1157 Febr. 115927.</t>
+          <t>1157—1159 Febr. 27.</t>
         </is>
       </c>
       <c r="C2043" t="inlineStr">
@@ -64489,7 +64489,7 @@
       </c>
       <c r="B2044" t="inlineStr">
         <is>
-          <t>1157 Febr. 115927.</t>
+          <t>1157—1159 Febr. 27.</t>
         </is>
       </c>
       <c r="C2044" t="inlineStr">
@@ -64521,7 +64521,7 @@
       </c>
       <c r="B2045" t="inlineStr">
         <is>
-          <t>1157   1159.</t>
+          <t xml:space="preserve">1157—1159  </t>
         </is>
       </c>
       <c r="C2045" t="inlineStr">
@@ -64553,7 +64553,7 @@
       </c>
       <c r="B2046" t="inlineStr">
         <is>
-          <t>1157 Mart. 11591.</t>
+          <t>1157—1159 Mart. 1.</t>
         </is>
       </c>
       <c r="C2046" t="inlineStr">
@@ -64585,7 +64585,7 @@
       </c>
       <c r="B2047" t="inlineStr">
         <is>
-          <t>1157 Mart. 11591.</t>
+          <t>1157—1159 Mart. 1.</t>
         </is>
       </c>
       <c r="C2047" t="inlineStr">
@@ -64617,7 +64617,7 @@
       </c>
       <c r="B2048" t="inlineStr">
         <is>
-          <t>1157 Mart. 11596.</t>
+          <t>1157—1159 Mart. 6.</t>
         </is>
       </c>
       <c r="C2048" t="inlineStr">
@@ -64649,7 +64649,7 @@
       </c>
       <c r="B2049" t="inlineStr">
         <is>
-          <t>1157 Mart. 11596.</t>
+          <t>1157—1159 Mart. 6.</t>
         </is>
       </c>
       <c r="C2049" t="inlineStr">
@@ -64681,7 +64681,7 @@
       </c>
       <c r="B2050" t="inlineStr">
         <is>
-          <t>1157 Mart. 11598.</t>
+          <t>1157—1159 Mart. 8.</t>
         </is>
       </c>
       <c r="C2050" t="inlineStr">
@@ -64713,7 +64713,7 @@
       </c>
       <c r="B2051" t="inlineStr">
         <is>
-          <t>1157 Mart. 11598.</t>
+          <t>1157—1159 Mart. 8.</t>
         </is>
       </c>
       <c r="C2051" t="inlineStr">
@@ -64745,7 +64745,7 @@
       </c>
       <c r="B2052" t="inlineStr">
         <is>
-          <t>1157 Mart. 115911.</t>
+          <t>1157—1159 Mart. 11.</t>
         </is>
       </c>
       <c r="C2052" t="inlineStr">
@@ -64777,7 +64777,7 @@
       </c>
       <c r="B2053" t="inlineStr">
         <is>
-          <t>1157 Mart. 115911.</t>
+          <t>1157— 1159 Mart. 11.</t>
         </is>
       </c>
       <c r="C2053" t="inlineStr">
@@ -64809,7 +64809,7 @@
       </c>
       <c r="B2054" t="inlineStr">
         <is>
-          <t>1157 Mart. 115911.</t>
+          <t>1157— 1159 Mart. 11.</t>
         </is>
       </c>
       <c r="C2054" t="inlineStr">
@@ -64841,7 +64841,7 @@
       </c>
       <c r="B2055" t="inlineStr">
         <is>
-          <t>1157 Mart. 115912.</t>
+          <t>1157— 1159 Mart. 12.</t>
         </is>
       </c>
       <c r="C2055" t="inlineStr">
@@ -64873,7 +64873,7 @@
       </c>
       <c r="B2056" t="inlineStr">
         <is>
-          <t>1157 Mart. 115913.</t>
+          <t>1157— 1159 Mart. 13.</t>
         </is>
       </c>
       <c r="C2056" t="inlineStr">
@@ -64905,7 +64905,7 @@
       </c>
       <c r="B2057" t="inlineStr">
         <is>
-          <t>1157 Mart. 115915.</t>
+          <t>1157— 1159 Mart. 15.</t>
         </is>
       </c>
       <c r="C2057" t="inlineStr">
@@ -64937,7 +64937,7 @@
       </c>
       <c r="B2058" t="inlineStr">
         <is>
-          <t>1157 Mart. 115921.</t>
+          <t>1157— 1159 Mart. 21.</t>
         </is>
       </c>
       <c r="C2058" t="inlineStr">
@@ -64969,7 +64969,7 @@
       </c>
       <c r="B2059" t="inlineStr">
         <is>
-          <t>1157 Mart. 115925.</t>
+          <t>1157— 1159 Mart. 25.</t>
         </is>
       </c>
       <c r="C2059" t="inlineStr">
@@ -65001,7 +65001,7 @@
       </c>
       <c r="B2060" t="inlineStr">
         <is>
-          <t>1157 Mart. 115926.</t>
+          <t>1157— 1159 Mart. 26.</t>
         </is>
       </c>
       <c r="C2060" t="inlineStr">
@@ -65033,7 +65033,7 @@
       </c>
       <c r="B2061" t="inlineStr">
         <is>
-          <t>1157   1159.</t>
+          <t xml:space="preserve">1157— 1159  </t>
         </is>
       </c>
       <c r="C2061" t="inlineStr">
@@ -65065,7 +65065,7 @@
       </c>
       <c r="B2062" t="inlineStr">
         <is>
-          <t>1157 Apr. 1159.</t>
+          <t xml:space="preserve">1157— 1159 Apr. </t>
         </is>
       </c>
       <c r="C2062" t="inlineStr">
@@ -65097,7 +65097,7 @@
       </c>
       <c r="B2063" t="inlineStr">
         <is>
-          <t>1157   115911.</t>
+          <t>1157— 1159  11.</t>
         </is>
       </c>
       <c r="C2063" t="inlineStr">
@@ -65129,7 +65129,7 @@
       </c>
       <c r="B2064" t="inlineStr">
         <is>
-          <t>1157   115911.</t>
+          <t>1157— 1159  11.</t>
         </is>
       </c>
       <c r="C2064" t="inlineStr">
@@ -65161,7 +65161,7 @@
       </c>
       <c r="B2065" t="inlineStr">
         <is>
-          <t>1157   1159.</t>
+          <t xml:space="preserve">1157— 1159  </t>
         </is>
       </c>
       <c r="C2065" t="inlineStr">
@@ -65193,7 +65193,7 @@
       </c>
       <c r="B2066" t="inlineStr">
         <is>
-          <t>1157   115918.</t>
+          <t>1157— 1159  18.</t>
         </is>
       </c>
       <c r="C2066" t="inlineStr">
@@ -65225,7 +65225,7 @@
       </c>
       <c r="B2067" t="inlineStr">
         <is>
-          <t>1157   115918.</t>
+          <t>1157— 1159  18.</t>
         </is>
       </c>
       <c r="C2067" t="inlineStr">
@@ -65257,7 +65257,7 @@
       </c>
       <c r="B2068" t="inlineStr">
         <is>
-          <t>1157   115920.</t>
+          <t>1157— 1159  20.</t>
         </is>
       </c>
       <c r="C2068" t="inlineStr">
@@ -65289,7 +65289,7 @@
       </c>
       <c r="B2069" t="inlineStr">
         <is>
-          <t>1157 Apr. 115920.</t>
+          <t>1157—1159 Apr. 20.</t>
         </is>
       </c>
       <c r="C2069" t="inlineStr">
@@ -65321,7 +65321,7 @@
       </c>
       <c r="B2070" t="inlineStr">
         <is>
-          <t>1157 Apr. 115922.</t>
+          <t>1157—1159 Apr. 22.</t>
         </is>
       </c>
       <c r="C2070" t="inlineStr">
@@ -65353,7 +65353,7 @@
       </c>
       <c r="B2071" t="inlineStr">
         <is>
-          <t>1157 Apr. 115927.</t>
+          <t>1157—1159 Apr. 27.</t>
         </is>
       </c>
       <c r="C2071" t="inlineStr">
@@ -65385,7 +65385,7 @@
       </c>
       <c r="B2072" t="inlineStr">
         <is>
-          <t>1157 Apr. 115927.</t>
+          <t>1157—1159 Apr. 27.</t>
         </is>
       </c>
       <c r="C2072" t="inlineStr">
@@ -65417,7 +65417,7 @@
       </c>
       <c r="B2073" t="inlineStr">
         <is>
-          <t>1157 Mai. 115927.</t>
+          <t>1157—1159 Mai. 27.</t>
         </is>
       </c>
       <c r="C2073" t="inlineStr">
@@ -65449,7 +65449,7 @@
       </c>
       <c r="B2074" t="inlineStr">
         <is>
-          <t>1157 Mai. 11597.</t>
+          <t>1157—1159 Mai. 7.</t>
         </is>
       </c>
       <c r="C2074" t="inlineStr">
@@ -65481,7 +65481,7 @@
       </c>
       <c r="B2075" t="inlineStr">
         <is>
-          <t>1157 Mai. 11599.</t>
+          <t>1157—1159 Mai. 9.</t>
         </is>
       </c>
       <c r="C2075" t="inlineStr">
@@ -65513,7 +65513,7 @@
       </c>
       <c r="B2076" t="inlineStr">
         <is>
-          <t>1157 Mai. 115910.</t>
+          <t>1157—1159 Mai. 10.</t>
         </is>
       </c>
       <c r="C2076" t="inlineStr">
@@ -65545,7 +65545,7 @@
       </c>
       <c r="B2077" t="inlineStr">
         <is>
-          <t>1157 Mai. 115911.</t>
+          <t>1157—1159 Mai. 11.</t>
         </is>
       </c>
       <c r="C2077" t="inlineStr">
@@ -65577,7 +65577,7 @@
       </c>
       <c r="B2078" t="inlineStr">
         <is>
-          <t>1157 Mai. 115911.</t>
+          <t>1157—1159 Mai. 11.</t>
         </is>
       </c>
       <c r="C2078" t="inlineStr">
@@ -65609,7 +65609,7 @@
       </c>
       <c r="B2079" t="inlineStr">
         <is>
-          <t>1157 Mai. 115911.</t>
+          <t>1157—1159 Mai. 11.</t>
         </is>
       </c>
       <c r="C2079" t="inlineStr">
@@ -65641,7 +65641,7 @@
       </c>
       <c r="B2080" t="inlineStr">
         <is>
-          <t>1157 Mai. 115911.</t>
+          <t>1157—1159 Mai. 11.</t>
         </is>
       </c>
       <c r="C2080" t="inlineStr">
@@ -65673,7 +65673,7 @@
       </c>
       <c r="B2081" t="inlineStr">
         <is>
-          <t>1157 Mai. 115911.</t>
+          <t>1157—1159 Mai. 11.</t>
         </is>
       </c>
       <c r="C2081" t="inlineStr">
@@ -65705,7 +65705,7 @@
       </c>
       <c r="B2082" t="inlineStr">
         <is>
-          <t>1157 Mai. 115911.</t>
+          <t>1157—1159 Mai. 11.</t>
         </is>
       </c>
       <c r="C2082" t="inlineStr">
@@ -65737,7 +65737,7 @@
       </c>
       <c r="B2083" t="inlineStr">
         <is>
-          <t>1157 Mai. 115914.</t>
+          <t>1157— 1159 Mai. 14.</t>
         </is>
       </c>
       <c r="C2083" t="inlineStr">
@@ -65769,7 +65769,7 @@
       </c>
       <c r="B2084" t="inlineStr">
         <is>
-          <t>1157 Mai. 115922.</t>
+          <t>1157— 1159 Mai. 22.</t>
         </is>
       </c>
       <c r="C2084" t="inlineStr">
@@ -65801,7 +65801,7 @@
       </c>
       <c r="B2085" t="inlineStr">
         <is>
-          <t>1157 Mai. 115922.</t>
+          <t>1157— 1159 Mai. 22.</t>
         </is>
       </c>
       <c r="C2085" t="inlineStr">
@@ -65833,7 +65833,7 @@
       </c>
       <c r="B2086" t="inlineStr">
         <is>
-          <t>1157 Mai. 115922.</t>
+          <t>1157— 1159 Mai. 22.</t>
         </is>
       </c>
       <c r="C2086" t="inlineStr">
@@ -65865,7 +65865,7 @@
       </c>
       <c r="B2087" t="inlineStr">
         <is>
-          <t>1157   11592622.</t>
+          <t>1157— 1159  2622.</t>
         </is>
       </c>
       <c r="C2087" t="inlineStr">
@@ -65897,7 +65897,7 @@
       </c>
       <c r="B2088" t="inlineStr">
         <is>
-          <t>1157   1159.</t>
+          <t xml:space="preserve">1157— 1159  </t>
         </is>
       </c>
       <c r="C2088" t="inlineStr">
@@ -65929,7 +65929,7 @@
       </c>
       <c r="B2089" t="inlineStr">
         <is>
-          <t xml:space="preserve">1159    </t>
+          <t xml:space="preserve">1159  </t>
         </is>
       </c>
       <c r="C2089" t="inlineStr">
@@ -65961,7 +65961,7 @@
       </c>
       <c r="B2090" t="inlineStr">
         <is>
-          <t>1159   1.</t>
+          <t>1159  1.</t>
         </is>
       </c>
       <c r="C2090" t="inlineStr">
@@ -65993,7 +65993,7 @@
       </c>
       <c r="B2091" t="inlineStr">
         <is>
-          <t>1159   4.</t>
+          <t>1159  4.</t>
         </is>
       </c>
       <c r="C2091" t="inlineStr">
@@ -66025,7 +66025,7 @@
       </c>
       <c r="B2092" t="inlineStr">
         <is>
-          <t>1159   7.</t>
+          <t>1159  7.</t>
         </is>
       </c>
       <c r="C2092" t="inlineStr">
@@ -66057,7 +66057,7 @@
       </c>
       <c r="B2093" t="inlineStr">
         <is>
-          <t>1159   11.</t>
+          <t>1159  11.</t>
         </is>
       </c>
       <c r="C2093" t="inlineStr">
@@ -66089,7 +66089,7 @@
       </c>
       <c r="B2094" t="inlineStr">
         <is>
-          <t>1159   16.</t>
+          <t>1159  16.</t>
         </is>
       </c>
       <c r="C2094" t="inlineStr">
@@ -66121,7 +66121,7 @@
       </c>
       <c r="B2095" t="inlineStr">
         <is>
-          <t>1159   16.</t>
+          <t>1159 (). 16.</t>
         </is>
       </c>
       <c r="C2095" t="inlineStr">
@@ -66153,7 +66153,7 @@
       </c>
       <c r="B2096" t="inlineStr">
         <is>
-          <t>1159   16.</t>
+          <t>1159  16.</t>
         </is>
       </c>
       <c r="C2096" t="inlineStr">
@@ -66913,7 +66913,7 @@
       </c>
       <c r="B2120" t="inlineStr">
         <is>
-          <t xml:space="preserve">1159 Apr.  </t>
+          <t xml:space="preserve">1159 Apr. </t>
         </is>
       </c>
       <c r="C2120" t="inlineStr">
@@ -67625,7 +67625,7 @@
       </c>
       <c r="B2143" t="inlineStr">
         <is>
-          <t xml:space="preserve">1159    </t>
+          <t xml:space="preserve">1159  </t>
         </is>
       </c>
       <c r="C2143" t="inlineStr">
@@ -67681,7 +67681,7 @@
       </c>
       <c r="B2145" t="inlineStr">
         <is>
-          <t xml:space="preserve">1159    </t>
+          <t xml:space="preserve">1159  </t>
         </is>
       </c>
       <c r="C2145" t="inlineStr">
